--- a/Alert Arrive-.xlsx
+++ b/Alert Arrive-.xlsx
@@ -14,6 +14,9 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$262</definedName>
+  </definedNames>
   <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -24,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="782" uniqueCount="523">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="885" uniqueCount="528">
   <si>
     <t>&lt;select id="pagedSearchFormlessFilter-102-select" size="7" style="width:18em"</t>
   </si>
@@ -1593,6 +1596,21 @@
   </si>
   <si>
     <t>kfnextraq@gmail.com</t>
+  </si>
+  <si>
+    <t>Done</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Details</t>
+  </si>
+  <si>
+    <t>notify</t>
+  </si>
+  <si>
+    <t>status</t>
   </si>
 </sst>
 </file>
@@ -1963,3930 +1981,4246 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F262"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:E262"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="F49" sqref="D2:F49"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D107" sqref="D107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="64.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="38.46484375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="32.06640625" customWidth="1"/>
+    <col min="2" max="2" width="38.46484375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.06640625" customWidth="1"/>
+    <col min="4" max="4" width="13.9296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="20.25" x14ac:dyDescent="0.45">
+      <c r="B1" t="s">
+        <v>524</v>
+      </c>
+      <c r="C1" t="s">
+        <v>525</v>
+      </c>
+      <c r="D1" t="s">
+        <v>526</v>
+      </c>
+      <c r="E1" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="20.25" hidden="1" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="2" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",E2)</f>
+      <c r="B2" s="2" t="str">
+        <f>_xlfn.CONCAT("Arrive-&gt;",C2)</f>
         <v>Arrive-&gt;A - Ali Baba (Manchester)</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="F2" s="3" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="20.25" x14ac:dyDescent="0.45">
+      <c r="D2" s="3" t="s">
+        <v>522</v>
+      </c>
+      <c r="E2" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="20.25" hidden="1" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="2" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",E3)</f>
+      <c r="B3" s="2" t="str">
+        <f>_xlfn.CONCAT("Arrive-&gt;",C3)</f>
         <v>Arrive-&gt;AGNE WAREHOUSE</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="C3" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="F3" s="3" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="20.25" x14ac:dyDescent="0.45">
+      <c r="D3" s="3" t="s">
+        <v>522</v>
+      </c>
+      <c r="E3" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="20.25" hidden="1" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="2" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",E4)</f>
+      <c r="B4" s="2" t="str">
+        <f>_xlfn.CONCAT("Arrive-&gt;",C4)</f>
         <v>Arrive-&gt;Bow Street Market (Freeport)</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="C4" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="F4" s="3" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="20.25" x14ac:dyDescent="0.45">
+      <c r="D4" s="3" t="s">
+        <v>522</v>
+      </c>
+      <c r="E4" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="20.25" hidden="1" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="2" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",E5)</f>
+      <c r="B5" s="2" t="str">
+        <f>_xlfn.CONCAT("Arrive-&gt;",C5)</f>
         <v>Arrive-&gt;Center Harbor</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="C5" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="F5" s="3" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="20.25" x14ac:dyDescent="0.45">
+      <c r="D5" s="3" t="s">
+        <v>522</v>
+      </c>
+      <c r="E5" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="20.25" hidden="1" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="2" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",E6)</f>
+      <c r="B6" s="2" t="str">
+        <f>_xlfn.CONCAT("Arrive-&gt;",C6)</f>
         <v>Arrive-&gt;Danforths (Hermon)</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="C6" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="F6" s="3" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="20.25" x14ac:dyDescent="0.45">
+      <c r="D6" s="3" t="s">
+        <v>522</v>
+      </c>
+      <c r="E6" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="20.25" hidden="1" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="2" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",E7)</f>
+      <c r="B7" s="2" t="str">
+        <f>_xlfn.CONCAT("Arrive-&gt;",C7)</f>
         <v>Arrive-&gt;Edwards (Unity)</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="C7" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="F7" s="3" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="20.25" x14ac:dyDescent="0.45">
+      <c r="D7" s="3" t="s">
+        <v>522</v>
+      </c>
+      <c r="E7" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="20.25" hidden="1" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="2" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",E8)</f>
+      <c r="B8" s="2" t="str">
+        <f>_xlfn.CONCAT("Arrive-&gt;",C8)</f>
         <v>Arrive-&gt;Food City (Bridgton)</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="C8" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="F8" s="3" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="20.25" x14ac:dyDescent="0.45">
+      <c r="D8" s="3" t="s">
+        <v>522</v>
+      </c>
+      <c r="E8" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="20.25" hidden="1" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="2" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",E9)</f>
+      <c r="B9" s="2" t="str">
+        <f>_xlfn.CONCAT("Arrive-&gt;",C9)</f>
         <v>Arrive-&gt;Food City (Livermore Falls)</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="C9" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="F9" s="3" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="20.25" x14ac:dyDescent="0.45">
+      <c r="D9" s="3" t="s">
+        <v>522</v>
+      </c>
+      <c r="E9" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="20.25" hidden="1" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="2" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",E10)</f>
+      <c r="B10" s="2" t="str">
+        <f>_xlfn.CONCAT("Arrive-&gt;",C10)</f>
         <v>Arrive-&gt;Gray Shop N'Save</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="C10" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="F10" s="3" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="20.25" x14ac:dyDescent="0.45">
+      <c r="D10" s="3" t="s">
+        <v>522</v>
+      </c>
+      <c r="E10" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="20.25" hidden="1" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="2" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",E11)</f>
+      <c r="B11" s="2" t="str">
+        <f>_xlfn.CONCAT("Arrive-&gt;",C11)</f>
         <v>Arrive-&gt;Greengarden Farm</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="C11" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="F11" s="3" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="20.25" x14ac:dyDescent="0.45">
+      <c r="D11" s="3" t="s">
+        <v>522</v>
+      </c>
+      <c r="E11" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="20.25" hidden="1" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>11</v>
       </c>
-      <c r="D12" s="2" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",E12)</f>
+      <c r="B12" s="2" t="str">
+        <f>_xlfn.CONCAT("Arrive-&gt;",C12)</f>
         <v>Arrive-&gt;H - Bayside</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="C12" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="F12" s="3" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="20.25" x14ac:dyDescent="0.45">
+      <c r="D12" s="3" t="s">
+        <v>522</v>
+      </c>
+      <c r="E12" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="20.25" hidden="1" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>12</v>
       </c>
-      <c r="D13" s="2" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",E13)</f>
+      <c r="B13" s="2" t="str">
+        <f>_xlfn.CONCAT("Arrive-&gt;",C13)</f>
         <v>Arrive-&gt;H - Columbia</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="C13" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="F13" s="3" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="20.25" x14ac:dyDescent="0.45">
+      <c r="D13" s="3" t="s">
+        <v>522</v>
+      </c>
+      <c r="E13" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="20.25" hidden="1" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>13</v>
       </c>
-      <c r="D14" s="2" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",E14)</f>
+      <c r="B14" s="2" t="str">
+        <f>_xlfn.CONCAT("Arrive-&gt;",C14)</f>
         <v>Arrive-&gt;H-Airport Mall</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="C14" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="20.25" x14ac:dyDescent="0.45">
+      <c r="D14" s="3" t="s">
+        <v>522</v>
+      </c>
+      <c r="E14" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="20.25" hidden="1" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>14</v>
       </c>
-      <c r="D15" s="2" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",E15)</f>
+      <c r="B15" s="2" t="str">
+        <f>_xlfn.CONCAT("Arrive-&gt;",C15)</f>
         <v>Arrive-&gt;H-Alton Bay</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="C15" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="F15" s="3" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="20.25" x14ac:dyDescent="0.45">
+      <c r="D15" s="3" t="s">
+        <v>522</v>
+      </c>
+      <c r="E15" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="20.25" hidden="1" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>15</v>
       </c>
-      <c r="D16" s="2" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",E16)</f>
+      <c r="B16" s="2" t="str">
+        <f>_xlfn.CONCAT("Arrive-&gt;",C16)</f>
         <v>Arrive-&gt;Hanna Corp - Me</v>
       </c>
-      <c r="E16" s="2" t="s">
+      <c r="C16" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="F16" s="3" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="20.25" x14ac:dyDescent="0.45">
+      <c r="D16" s="3" t="s">
+        <v>522</v>
+      </c>
+      <c r="E16" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="20.25" hidden="1" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>16</v>
       </c>
-      <c r="D17" s="2" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",E17)</f>
+      <c r="B17" s="2" t="str">
+        <f>_xlfn.CONCAT("Arrive-&gt;",C17)</f>
         <v>Arrive-&gt;Hanna Corp - NY</v>
       </c>
-      <c r="E17" s="2" t="s">
+      <c r="C17" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="F17" s="3" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="20.25" x14ac:dyDescent="0.45">
+      <c r="D17" s="3" t="s">
+        <v>522</v>
+      </c>
+      <c r="E17" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="20.25" hidden="1" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>17</v>
       </c>
-      <c r="D18" s="2" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",E18)</f>
+      <c r="B18" s="2" t="str">
+        <f>_xlfn.CONCAT("Arrive-&gt;",C18)</f>
         <v>Arrive-&gt;Harv-Bedford</v>
       </c>
-      <c r="E18" s="2" t="s">
+      <c r="C18" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="F18" s="3" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="20.25" x14ac:dyDescent="0.45">
+      <c r="D18" s="3" t="s">
+        <v>522</v>
+      </c>
+      <c r="E18" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="20.25" hidden="1" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>18</v>
       </c>
-      <c r="D19" s="2" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",E19)</f>
+      <c r="B19" s="2" t="str">
+        <f>_xlfn.CONCAT("Arrive-&gt;",C19)</f>
         <v>Arrive-&gt;Harvest Coop Cambridge</v>
       </c>
-      <c r="E19" s="2" t="s">
+      <c r="C19" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="F19" s="3" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="20.25" x14ac:dyDescent="0.45">
+      <c r="D19" s="3" t="s">
+        <v>522</v>
+      </c>
+      <c r="E19" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="20.25" hidden="1" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>19</v>
       </c>
-      <c r="D20" s="2" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",E20)</f>
+      <c r="B20" s="2" t="str">
+        <f>_xlfn.CONCAT("Arrive-&gt;",C20)</f>
         <v>Arrive-&gt;Harvest Coop Jp</v>
       </c>
-      <c r="E20" s="2" t="s">
+      <c r="C20" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="F20" s="3" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="20.25" x14ac:dyDescent="0.45">
+      <c r="D20" s="3" t="s">
+        <v>522</v>
+      </c>
+      <c r="E20" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="20.25" hidden="1" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>20</v>
       </c>
-      <c r="D21" s="2" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",E21)</f>
+      <c r="B21" s="2" t="str">
+        <f>_xlfn.CONCAT("Arrive-&gt;",C21)</f>
         <v>Arrive-&gt;Harvester Mkt</v>
       </c>
-      <c r="E21" s="2" t="s">
+      <c r="C21" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="F21" s="3" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="20.25" x14ac:dyDescent="0.45">
+      <c r="D21" s="3" t="s">
+        <v>522</v>
+      </c>
+      <c r="E21" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="20.25" hidden="1" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>21</v>
       </c>
-      <c r="D22" s="2" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",E22)</f>
+      <c r="B22" s="2" t="str">
+        <f>_xlfn.CONCAT("Arrive-&gt;",C22)</f>
         <v>Arrive-&gt;Harv-Hollis</v>
       </c>
-      <c r="E22" s="2" t="s">
+      <c r="C22" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="F22" s="3" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="20.25" x14ac:dyDescent="0.45">
+      <c r="D22" s="3" t="s">
+        <v>522</v>
+      </c>
+      <c r="E22" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="20.25" hidden="1" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
         <v>22</v>
       </c>
-      <c r="D23" s="2" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",E23)</f>
+      <c r="B23" s="2" t="str">
+        <f>_xlfn.CONCAT("Arrive-&gt;",C23)</f>
         <v>Arrive-&gt;H-Athol</v>
       </c>
-      <c r="E23" s="2" t="s">
+      <c r="C23" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="F23" s="3" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="20.25" x14ac:dyDescent="0.45">
+      <c r="D23" s="3" t="s">
+        <v>522</v>
+      </c>
+      <c r="E23" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="20.25" hidden="1" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
         <v>23</v>
       </c>
-      <c r="D24" s="2" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",E24)</f>
+      <c r="B24" s="2" t="str">
+        <f>_xlfn.CONCAT("Arrive-&gt;",C24)</f>
         <v>Arrive-&gt;H-Auburn</v>
       </c>
-      <c r="E24" s="2" t="s">
+      <c r="C24" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="F24" s="3" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="20.25" x14ac:dyDescent="0.45">
+      <c r="D24" s="3" t="s">
+        <v>522</v>
+      </c>
+      <c r="E24" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="20.25" hidden="1" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
         <v>24</v>
       </c>
-      <c r="D25" s="2" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",E25)</f>
+      <c r="B25" s="2" t="str">
+        <f>_xlfn.CONCAT("Arrive-&gt;",C25)</f>
         <v>Arrive-&gt;H-Augusta - Cony</v>
       </c>
-      <c r="E25" s="2" t="s">
+      <c r="C25" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="F25" s="3" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="20.25" x14ac:dyDescent="0.45">
+      <c r="D25" s="3" t="s">
+        <v>522</v>
+      </c>
+      <c r="E25" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="20.25" hidden="1" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
         <v>25</v>
       </c>
-      <c r="D26" s="2" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",E26)</f>
+      <c r="B26" s="2" t="str">
+        <f>_xlfn.CONCAT("Arrive-&gt;",C26)</f>
         <v>Arrive-&gt;H-Augusta - Whitten Rd</v>
       </c>
-      <c r="E26" s="2" t="s">
+      <c r="C26" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="F26" s="3" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="20.25" x14ac:dyDescent="0.45">
+      <c r="D26" s="3" t="s">
+        <v>522</v>
+      </c>
+      <c r="E26" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="20.25" hidden="1" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
         <v>26</v>
       </c>
-      <c r="D27" s="2" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",E27)</f>
+      <c r="B27" s="2" t="str">
+        <f>_xlfn.CONCAT("Arrive-&gt;",C27)</f>
         <v>Arrive-&gt;H-Ayer</v>
       </c>
-      <c r="E27" s="2" t="s">
+      <c r="C27" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="F27" s="3" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="20.25" x14ac:dyDescent="0.45">
+      <c r="D27" s="3" t="s">
+        <v>522</v>
+      </c>
+      <c r="E27" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="20.25" hidden="1" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
         <v>27</v>
       </c>
-      <c r="D28" s="2" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",E28)</f>
+      <c r="B28" s="2" t="str">
+        <f>_xlfn.CONCAT("Arrive-&gt;",C28)</f>
         <v>Arrive-&gt;H-Bar Harbor</v>
       </c>
-      <c r="E28" s="2" t="s">
+      <c r="C28" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="F28" s="3" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" ht="20.25" x14ac:dyDescent="0.45">
+      <c r="D28" s="3" t="s">
+        <v>522</v>
+      </c>
+      <c r="E28" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="20.25" hidden="1" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
         <v>28</v>
       </c>
-      <c r="D29" s="2" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",E29)</f>
+      <c r="B29" s="2" t="str">
+        <f>_xlfn.CONCAT("Arrive-&gt;",C29)</f>
         <v>Arrive-&gt;H-Barre</v>
       </c>
-      <c r="E29" s="2" t="s">
+      <c r="C29" s="2" t="s">
         <v>289</v>
       </c>
-      <c r="F29" s="3" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" ht="20.25" x14ac:dyDescent="0.45">
+      <c r="D29" s="3" t="s">
+        <v>522</v>
+      </c>
+      <c r="E29" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="20.25" hidden="1" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
         <v>29</v>
       </c>
-      <c r="D30" s="2" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",E30)</f>
+      <c r="B30" s="2" t="str">
+        <f>_xlfn.CONCAT("Arrive-&gt;",C30)</f>
         <v>Arrive-&gt;H-Bedford - Colby Ct</v>
       </c>
-      <c r="E30" s="2" t="s">
+      <c r="C30" s="2" t="s">
         <v>290</v>
       </c>
-      <c r="F30" s="3" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" ht="20.25" x14ac:dyDescent="0.45">
+      <c r="D30" s="3" t="s">
+        <v>522</v>
+      </c>
+      <c r="E30" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="20.25" hidden="1" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
         <v>30</v>
       </c>
-      <c r="D31" s="2" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",E31)</f>
+      <c r="B31" s="2" t="str">
+        <f>_xlfn.CONCAT("Arrive-&gt;",C31)</f>
         <v>Arrive-&gt;H-Bedford - Rt 101</v>
       </c>
-      <c r="E31" s="2" t="s">
+      <c r="C31" s="2" t="s">
         <v>291</v>
       </c>
-      <c r="F31" s="3" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" ht="20.25" x14ac:dyDescent="0.45">
+      <c r="D31" s="3" t="s">
+        <v>522</v>
+      </c>
+      <c r="E31" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="20.25" hidden="1" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
         <v>31</v>
       </c>
-      <c r="D32" s="2" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",E32)</f>
+      <c r="B32" s="2" t="str">
+        <f>_xlfn.CONCAT("Arrive-&gt;",C32)</f>
         <v>Arrive-&gt;H-Bedford Kilton Rd</v>
       </c>
-      <c r="E32" s="2" t="s">
+      <c r="C32" s="2" t="s">
         <v>292</v>
       </c>
-      <c r="F32" s="3" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" ht="20.25" x14ac:dyDescent="0.45">
+      <c r="D32" s="3" t="s">
+        <v>522</v>
+      </c>
+      <c r="E32" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="20.25" hidden="1" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
         <v>32</v>
       </c>
-      <c r="D33" s="2" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",E33)</f>
+      <c r="B33" s="2" t="str">
+        <f>_xlfn.CONCAT("Arrive-&gt;",C33)</f>
         <v>Arrive-&gt;H-Belfast</v>
       </c>
-      <c r="E33" s="2" t="s">
+      <c r="C33" s="2" t="s">
         <v>293</v>
       </c>
-      <c r="F33" s="3" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" ht="20.25" x14ac:dyDescent="0.45">
+      <c r="D33" s="3" t="s">
+        <v>522</v>
+      </c>
+      <c r="E33" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="20.25" hidden="1" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
         <v>33</v>
       </c>
-      <c r="D34" s="2" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",E34)</f>
+      <c r="B34" s="2" t="str">
+        <f>_xlfn.CONCAT("Arrive-&gt;",C34)</f>
         <v>Arrive-&gt;H-Bethel</v>
       </c>
-      <c r="E34" s="2" t="s">
+      <c r="C34" s="2" t="s">
         <v>294</v>
       </c>
-      <c r="F34" s="3" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" ht="20.25" x14ac:dyDescent="0.45">
+      <c r="D34" s="3" t="s">
+        <v>522</v>
+      </c>
+      <c r="E34" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="20.25" hidden="1" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
         <v>34</v>
       </c>
-      <c r="D35" s="2" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",E35)</f>
+      <c r="B35" s="2" t="str">
+        <f>_xlfn.CONCAT("Arrive-&gt;",C35)</f>
         <v>Arrive-&gt;H-Biddeford</v>
       </c>
-      <c r="E35" s="2" t="s">
+      <c r="C35" s="2" t="s">
         <v>295</v>
       </c>
-      <c r="F35" s="3" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" ht="20.25" x14ac:dyDescent="0.45">
+      <c r="D35" s="3" t="s">
+        <v>522</v>
+      </c>
+      <c r="E35" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="20.25" hidden="1" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
         <v>35</v>
       </c>
-      <c r="D36" s="2" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",E36)</f>
+      <c r="B36" s="2" t="str">
+        <f>_xlfn.CONCAT("Arrive-&gt;",C36)</f>
         <v>Arrive-&gt;H-Boothbay</v>
       </c>
-      <c r="E36" s="2" t="s">
+      <c r="C36" s="2" t="s">
         <v>296</v>
       </c>
-      <c r="F36" s="3" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" ht="20.25" x14ac:dyDescent="0.45">
+      <c r="D36" s="3" t="s">
+        <v>522</v>
+      </c>
+      <c r="E36" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="20.25" hidden="1" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
         <v>36</v>
       </c>
-      <c r="D37" s="2" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",E37)</f>
+      <c r="B37" s="2" t="str">
+        <f>_xlfn.CONCAT("Arrive-&gt;",C37)</f>
         <v>Arrive-&gt;H-Bradford</v>
       </c>
-      <c r="E37" s="2" t="s">
+      <c r="C37" s="2" t="s">
         <v>297</v>
       </c>
-      <c r="F37" s="3" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" ht="20.25" x14ac:dyDescent="0.45">
+      <c r="D37" s="3" t="s">
+        <v>522</v>
+      </c>
+      <c r="E37" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="20.25" hidden="1" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
         <v>37</v>
       </c>
-      <c r="D38" s="2" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",E38)</f>
+      <c r="B38" s="2" t="str">
+        <f>_xlfn.CONCAT("Arrive-&gt;",C38)</f>
         <v>Arrive-&gt;H-Brattleboro</v>
       </c>
-      <c r="E38" s="2" t="s">
+      <c r="C38" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="F38" s="3" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" ht="20.25" x14ac:dyDescent="0.45">
+      <c r="D38" s="3" t="s">
+        <v>522</v>
+      </c>
+      <c r="E38" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="20.25" hidden="1" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
         <v>38</v>
       </c>
-      <c r="D39" s="2" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",E39)</f>
+      <c r="B39" s="2" t="str">
+        <f>_xlfn.CONCAT("Arrive-&gt;",C39)</f>
         <v>Arrive-&gt;H-Brewer</v>
       </c>
-      <c r="E39" s="2" t="s">
+      <c r="C39" s="2" t="s">
         <v>299</v>
       </c>
-      <c r="F39" s="3" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" ht="20.25" x14ac:dyDescent="0.45">
+      <c r="D39" s="3" t="s">
+        <v>522</v>
+      </c>
+      <c r="E39" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="20.25" hidden="1" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
         <v>39</v>
       </c>
-      <c r="D40" s="2" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",E40)</f>
+      <c r="B40" s="2" t="str">
+        <f>_xlfn.CONCAT("Arrive-&gt;",C40)</f>
         <v>Arrive-&gt;H-Bridgton</v>
       </c>
-      <c r="E40" s="2" t="s">
+      <c r="C40" s="2" t="s">
         <v>300</v>
       </c>
-      <c r="F40" s="3" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" ht="20.25" x14ac:dyDescent="0.45">
+      <c r="D40" s="3" t="s">
+        <v>522</v>
+      </c>
+      <c r="E40" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="20.25" hidden="1" x14ac:dyDescent="0.45">
       <c r="A41" t="s">
         <v>40</v>
       </c>
-      <c r="D41" s="2" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",E41)</f>
+      <c r="B41" s="2" t="str">
+        <f>_xlfn.CONCAT("Arrive-&gt;",C41)</f>
         <v>Arrive-&gt;H-Bristol</v>
       </c>
-      <c r="E41" s="2" t="s">
+      <c r="C41" s="2" t="s">
         <v>301</v>
       </c>
-      <c r="F41" s="3" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" ht="20.25" x14ac:dyDescent="0.45">
+      <c r="D41" s="3" t="s">
+        <v>522</v>
+      </c>
+      <c r="E41" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="20.25" hidden="1" x14ac:dyDescent="0.45">
       <c r="A42" t="s">
         <v>41</v>
       </c>
-      <c r="D42" s="2" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",E42)</f>
+      <c r="B42" s="2" t="str">
+        <f>_xlfn.CONCAT("Arrive-&gt;",C42)</f>
         <v>Arrive-&gt;H-Broadway</v>
       </c>
-      <c r="E42" s="2" t="s">
+      <c r="C42" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="F42" s="3" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" ht="20.25" x14ac:dyDescent="0.45">
+      <c r="D42" s="3" t="s">
+        <v>522</v>
+      </c>
+      <c r="E42" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="20.25" hidden="1" x14ac:dyDescent="0.45">
       <c r="A43" t="s">
         <v>42</v>
       </c>
-      <c r="D43" s="2" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",E43)</f>
+      <c r="B43" s="2" t="str">
+        <f>_xlfn.CONCAT("Arrive-&gt;",C43)</f>
         <v>Arrive-&gt;H-Brunswick</v>
       </c>
-      <c r="E43" s="2" t="s">
+      <c r="C43" s="2" t="s">
         <v>303</v>
       </c>
-      <c r="F43" s="3" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" ht="20.25" x14ac:dyDescent="0.45">
+      <c r="D43" s="3" t="s">
+        <v>522</v>
+      </c>
+      <c r="E43" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="20.25" hidden="1" x14ac:dyDescent="0.45">
       <c r="A44" t="s">
         <v>43</v>
       </c>
-      <c r="D44" s="2" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",E44)</f>
+      <c r="B44" s="2" t="str">
+        <f>_xlfn.CONCAT("Arrive-&gt;",C44)</f>
         <v>Arrive-&gt;H-Bucksport</v>
       </c>
-      <c r="E44" s="2" t="s">
+      <c r="C44" s="2" t="s">
         <v>304</v>
       </c>
-      <c r="F44" s="3" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" ht="20.25" x14ac:dyDescent="0.45">
+      <c r="D44" s="3" t="s">
+        <v>522</v>
+      </c>
+      <c r="E44" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="20.25" hidden="1" x14ac:dyDescent="0.45">
       <c r="A45" t="s">
         <v>44</v>
       </c>
-      <c r="D45" s="2" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",E45)</f>
+      <c r="B45" s="2" t="str">
+        <f>_xlfn.CONCAT("Arrive-&gt;",C45)</f>
         <v>Arrive-&gt;H-Buxton</v>
       </c>
-      <c r="E45" s="2" t="s">
+      <c r="C45" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="F45" s="3" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" ht="20.25" x14ac:dyDescent="0.45">
+      <c r="D45" s="3" t="s">
+        <v>522</v>
+      </c>
+      <c r="E45" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="20.25" hidden="1" x14ac:dyDescent="0.45">
       <c r="A46" t="s">
         <v>45</v>
       </c>
-      <c r="D46" s="2" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",E46)</f>
+      <c r="B46" s="2" t="str">
+        <f>_xlfn.CONCAT("Arrive-&gt;",C46)</f>
         <v>Arrive-&gt;H-Camden</v>
       </c>
-      <c r="E46" s="2" t="s">
+      <c r="C46" s="2" t="s">
         <v>306</v>
       </c>
-      <c r="F46" s="3" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" ht="20.25" x14ac:dyDescent="0.45">
+      <c r="D46" s="3" t="s">
+        <v>522</v>
+      </c>
+      <c r="E46" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="20.25" hidden="1" x14ac:dyDescent="0.45">
       <c r="A47" t="s">
         <v>46</v>
       </c>
-      <c r="D47" s="2" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",E47)</f>
+      <c r="B47" s="2" t="str">
+        <f>_xlfn.CONCAT("Arrive-&gt;",C47)</f>
         <v>Arrive-&gt;H-Caribou</v>
       </c>
-      <c r="E47" s="2" t="s">
+      <c r="C47" s="2" t="s">
         <v>307</v>
       </c>
-      <c r="F47" s="3" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" ht="20.25" x14ac:dyDescent="0.45">
+      <c r="D47" s="3" t="s">
+        <v>522</v>
+      </c>
+      <c r="E47" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="20.25" hidden="1" x14ac:dyDescent="0.45">
       <c r="A48" t="s">
         <v>47</v>
       </c>
-      <c r="D48" s="2" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",E48)</f>
+      <c r="B48" s="2" t="str">
+        <f>_xlfn.CONCAT("Arrive-&gt;",C48)</f>
         <v>Arrive-&gt;H-Chelmsford</v>
       </c>
-      <c r="E48" s="2" t="s">
+      <c r="C48" s="2" t="s">
         <v>308</v>
       </c>
-      <c r="F48" s="3" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" ht="20.25" x14ac:dyDescent="0.45">
+      <c r="D48" s="3" t="s">
+        <v>522</v>
+      </c>
+      <c r="E48" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="20.25" hidden="1" x14ac:dyDescent="0.45">
       <c r="A49" t="s">
         <v>48</v>
       </c>
-      <c r="D49" s="2" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",E49)</f>
+      <c r="B49" s="2" t="str">
+        <f>_xlfn.CONCAT("Arrive-&gt;",C49)</f>
         <v>Arrive-&gt;H-China</v>
       </c>
-      <c r="E49" s="2" t="s">
+      <c r="C49" s="2" t="s">
         <v>309</v>
       </c>
-      <c r="F49" s="3" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" ht="20.25" x14ac:dyDescent="0.45">
+      <c r="D49" s="3" t="s">
+        <v>522</v>
+      </c>
+      <c r="E49" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="20.25" hidden="1" x14ac:dyDescent="0.45">
       <c r="A50" t="s">
         <v>49</v>
       </c>
-      <c r="D50" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",E50)</f>
+      <c r="B50" s="2" t="str">
+        <f>_xlfn.CONCAT("Arrive-&gt;",C50)</f>
         <v>Arrive-&gt;H-Claremont</v>
       </c>
+      <c r="C50" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>522</v>
+      </c>
       <c r="E50" t="s">
-        <v>310</v>
-      </c>
-      <c r="F50" s="1" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" ht="20.25" x14ac:dyDescent="0.45">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="20.25" hidden="1" x14ac:dyDescent="0.45">
       <c r="A51" t="s">
         <v>50</v>
       </c>
-      <c r="D51" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",E51)</f>
+      <c r="B51" s="2" t="str">
+        <f>_xlfn.CONCAT("Arrive-&gt;",C51)</f>
         <v>Arrive-&gt;H-Clinton</v>
       </c>
+      <c r="C51" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>522</v>
+      </c>
       <c r="E51" t="s">
-        <v>311</v>
-      </c>
-      <c r="F51" s="1" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" ht="20.25" x14ac:dyDescent="0.45">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="20.25" hidden="1" x14ac:dyDescent="0.45">
       <c r="A52" t="s">
         <v>51</v>
       </c>
-      <c r="D52" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",E52)</f>
+      <c r="B52" s="2" t="str">
+        <f>_xlfn.CONCAT("Arrive-&gt;",C52)</f>
         <v>Arrive-&gt;H-Concord</v>
       </c>
+      <c r="C52" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>522</v>
+      </c>
       <c r="E52" t="s">
-        <v>312</v>
-      </c>
-      <c r="F52" s="1" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" ht="20.25" x14ac:dyDescent="0.45">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="20.25" hidden="1" x14ac:dyDescent="0.45">
       <c r="A53" t="s">
         <v>52</v>
       </c>
-      <c r="D53" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",E53)</f>
+      <c r="B53" s="2" t="str">
+        <f>_xlfn.CONCAT("Arrive-&gt;",C53)</f>
         <v>Arrive-&gt;H-Cornish</v>
       </c>
+      <c r="C53" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>522</v>
+      </c>
       <c r="E53" t="s">
-        <v>313</v>
-      </c>
-      <c r="F53" s="1" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" ht="20.25" x14ac:dyDescent="0.45">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" ht="20.25" hidden="1" x14ac:dyDescent="0.45">
       <c r="A54" t="s">
         <v>53</v>
       </c>
-      <c r="D54" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",E54)</f>
+      <c r="B54" s="2" t="str">
+        <f>_xlfn.CONCAT("Arrive-&gt;",C54)</f>
         <v>Arrive-&gt;H-Damariscotta</v>
       </c>
+      <c r="C54" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>522</v>
+      </c>
       <c r="E54" t="s">
-        <v>314</v>
-      </c>
-      <c r="F54" s="1" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" ht="20.25" x14ac:dyDescent="0.45">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" ht="20.25" hidden="1" x14ac:dyDescent="0.45">
       <c r="A55" t="s">
         <v>54</v>
       </c>
-      <c r="D55" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",E55)</f>
+      <c r="B55" s="2" t="str">
+        <f>_xlfn.CONCAT("Arrive-&gt;",C55)</f>
         <v>Arrive-&gt;H-Derry</v>
       </c>
+      <c r="C55" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>522</v>
+      </c>
       <c r="E55" t="s">
-        <v>315</v>
-      </c>
-      <c r="F55" s="1" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" ht="20.25" x14ac:dyDescent="0.45">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" ht="20.25" hidden="1" x14ac:dyDescent="0.45">
       <c r="A56" t="s">
         <v>55</v>
       </c>
-      <c r="D56" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",E56)</f>
+      <c r="B56" s="2" t="str">
+        <f>_xlfn.CONCAT("Arrive-&gt;",C56)</f>
         <v>Arrive-&gt;H-Dexter Buds</v>
       </c>
+      <c r="C56" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>522</v>
+      </c>
       <c r="E56" t="s">
-        <v>316</v>
-      </c>
-      <c r="F56" s="1" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" ht="20.25" x14ac:dyDescent="0.45">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" ht="20.25" hidden="1" x14ac:dyDescent="0.45">
       <c r="A57" t="s">
         <v>56</v>
       </c>
-      <c r="D57" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",E57)</f>
+      <c r="B57" s="2" t="str">
+        <f>_xlfn.CONCAT("Arrive-&gt;",C57)</f>
         <v>Arrive-&gt;H-Dover - Hall St</v>
       </c>
+      <c r="C57" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>522</v>
+      </c>
       <c r="E57" t="s">
-        <v>317</v>
-      </c>
-      <c r="F57" s="1" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" ht="20.25" x14ac:dyDescent="0.45">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" ht="20.25" hidden="1" x14ac:dyDescent="0.45">
       <c r="A58" t="s">
         <v>57</v>
       </c>
-      <c r="D58" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",E58)</f>
+      <c r="B58" s="2" t="str">
+        <f>_xlfn.CONCAT("Arrive-&gt;",C58)</f>
         <v>Arrive-&gt;H-Doverfields</v>
       </c>
+      <c r="C58" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>522</v>
+      </c>
       <c r="E58" t="s">
-        <v>318</v>
-      </c>
-      <c r="F58" s="1" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" ht="20.25" x14ac:dyDescent="0.45">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" ht="20.25" hidden="1" x14ac:dyDescent="0.45">
       <c r="A59" t="s">
         <v>58</v>
       </c>
-      <c r="D59" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",E59)</f>
+      <c r="B59" s="2" t="str">
+        <f>_xlfn.CONCAT("Arrive-&gt;",C59)</f>
         <v>Arrive-&gt;H-Dracut</v>
       </c>
+      <c r="C59" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>522</v>
+      </c>
       <c r="E59" t="s">
-        <v>319</v>
-      </c>
-      <c r="F59" s="1" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" ht="20.25" x14ac:dyDescent="0.45">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" ht="20.25" hidden="1" x14ac:dyDescent="0.45">
       <c r="A60" t="s">
         <v>59</v>
       </c>
-      <c r="D60" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",E60)</f>
+      <c r="B60" s="2" t="str">
+        <f>_xlfn.CONCAT("Arrive-&gt;",C60)</f>
         <v>Arrive-&gt;H-Durham</v>
       </c>
+      <c r="C60" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>522</v>
+      </c>
       <c r="E60" t="s">
-        <v>320</v>
-      </c>
-      <c r="F60" s="1" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" ht="20.25" x14ac:dyDescent="0.45">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" ht="20.25" hidden="1" x14ac:dyDescent="0.45">
       <c r="A61" t="s">
         <v>60</v>
       </c>
-      <c r="D61" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",E61)</f>
+      <c r="B61" s="2" t="str">
+        <f>_xlfn.CONCAT("Arrive-&gt;",C61)</f>
         <v>Arrive-&gt;H-Easton</v>
       </c>
+      <c r="C61" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>522</v>
+      </c>
       <c r="E61" t="s">
-        <v>321</v>
-      </c>
-      <c r="F61" s="1" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" ht="20.25" x14ac:dyDescent="0.45">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" ht="20.25" hidden="1" x14ac:dyDescent="0.45">
       <c r="A62" t="s">
         <v>61</v>
       </c>
-      <c r="D62" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",E62)</f>
+      <c r="B62" s="2" t="str">
+        <f>_xlfn.CONCAT("Arrive-&gt;",C62)</f>
         <v>Arrive-&gt;H-Ellsworth</v>
       </c>
+      <c r="C62" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>522</v>
+      </c>
       <c r="E62" t="s">
-        <v>322</v>
-      </c>
-      <c r="F62" s="1" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" ht="20.25" x14ac:dyDescent="0.45">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" ht="20.25" hidden="1" x14ac:dyDescent="0.45">
       <c r="A63" t="s">
         <v>62</v>
       </c>
-      <c r="D63" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",E63)</f>
+      <c r="B63" s="2" t="str">
+        <f>_xlfn.CONCAT("Arrive-&gt;",C63)</f>
         <v>Arrive-&gt;H-Exeter</v>
       </c>
+      <c r="C63" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>522</v>
+      </c>
       <c r="E63" t="s">
-        <v>323</v>
-      </c>
-      <c r="F63" s="1" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" ht="20.25" x14ac:dyDescent="0.45">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" ht="20.25" hidden="1" x14ac:dyDescent="0.45">
       <c r="A64" t="s">
         <v>63</v>
       </c>
-      <c r="D64" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",E64)</f>
+      <c r="B64" s="2" t="str">
+        <f>_xlfn.CONCAT("Arrive-&gt;",C64)</f>
         <v>Arrive-&gt;H-Falmouth</v>
       </c>
+      <c r="C64" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="D64" s="3" t="s">
+        <v>522</v>
+      </c>
       <c r="E64" t="s">
-        <v>324</v>
-      </c>
-      <c r="F64" s="1" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" ht="20.25" x14ac:dyDescent="0.45">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" ht="20.25" hidden="1" x14ac:dyDescent="0.45">
       <c r="A65" t="s">
         <v>64</v>
       </c>
-      <c r="D65" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",E65)</f>
+      <c r="B65" s="2" t="str">
+        <f>_xlfn.CONCAT("Arrive-&gt;",C65)</f>
         <v>Arrive-&gt;H-Farmington</v>
       </c>
+      <c r="C65" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="D65" s="3" t="s">
+        <v>522</v>
+      </c>
       <c r="E65" t="s">
-        <v>325</v>
-      </c>
-      <c r="F65" s="1" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" ht="20.25" x14ac:dyDescent="0.45">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" ht="20.25" hidden="1" x14ac:dyDescent="0.45">
       <c r="A66" t="s">
         <v>65</v>
       </c>
-      <c r="D66" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",E66)</f>
+      <c r="B66" s="2" t="str">
+        <f>_xlfn.CONCAT("Arrive-&gt;",C66)</f>
         <v>Arrive-&gt;H-Forest Ave (Portland)</v>
       </c>
+      <c r="C66" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>522</v>
+      </c>
       <c r="E66" t="s">
-        <v>326</v>
-      </c>
-      <c r="F66" s="1" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" ht="20.25" x14ac:dyDescent="0.45">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" ht="20.25" hidden="1" x14ac:dyDescent="0.45">
       <c r="A67" t="s">
         <v>66</v>
       </c>
-      <c r="D67" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",E67)</f>
+      <c r="B67" s="2" t="str">
+        <f>_xlfn.CONCAT("Arrive-&gt;",C67)</f>
         <v>Arrive-&gt;H-Franklin</v>
       </c>
+      <c r="C67" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="D67" s="3" t="s">
+        <v>522</v>
+      </c>
       <c r="E67" t="s">
-        <v>327</v>
-      </c>
-      <c r="F67" s="1" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" ht="20.25" x14ac:dyDescent="0.45">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" ht="20.25" hidden="1" x14ac:dyDescent="0.45">
       <c r="A68" t="s">
         <v>67</v>
       </c>
-      <c r="D68" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",E68)</f>
+      <c r="B68" s="2" t="str">
+        <f>_xlfn.CONCAT("Arrive-&gt;",C68)</f>
         <v>Arrive-&gt;H-Gardiner Me</v>
       </c>
+      <c r="C68" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="D68" s="3" t="s">
+        <v>522</v>
+      </c>
       <c r="E68" t="s">
-        <v>328</v>
-      </c>
-      <c r="F68" s="1" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" ht="20.25" x14ac:dyDescent="0.45">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" ht="20.25" hidden="1" x14ac:dyDescent="0.45">
       <c r="A69" t="s">
         <v>68</v>
       </c>
-      <c r="D69" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",E69)</f>
+      <c r="B69" s="2" t="str">
+        <f>_xlfn.CONCAT("Arrive-&gt;",C69)</f>
         <v>Arrive-&gt;H-Gardner Ma</v>
       </c>
+      <c r="C69" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="D69" s="3" t="s">
+        <v>522</v>
+      </c>
       <c r="E69" t="s">
-        <v>329</v>
-      </c>
-      <c r="F69" s="1" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" ht="20.25" x14ac:dyDescent="0.45">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" ht="20.25" hidden="1" x14ac:dyDescent="0.45">
       <c r="A70" t="s">
         <v>69</v>
       </c>
-      <c r="D70" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",E70)</f>
+      <c r="B70" s="2" t="str">
+        <f>_xlfn.CONCAT("Arrive-&gt;",C70)</f>
         <v>Arrive-&gt;H-Gilford</v>
       </c>
+      <c r="C70" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="D70" s="3" t="s">
+        <v>522</v>
+      </c>
       <c r="E70" t="s">
-        <v>330</v>
-      </c>
-      <c r="F70" s="1" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" ht="20.25" x14ac:dyDescent="0.45">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" ht="20.25" hidden="1" x14ac:dyDescent="0.45">
       <c r="A71" t="s">
         <v>70</v>
       </c>
-      <c r="D71" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",E71)</f>
+      <c r="B71" s="2" t="str">
+        <f>_xlfn.CONCAT("Arrive-&gt;",C71)</f>
         <v>Arrive-&gt;H-Glen</v>
       </c>
+      <c r="C71" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="D71" s="3" t="s">
+        <v>522</v>
+      </c>
       <c r="E71" t="s">
-        <v>331</v>
-      </c>
-      <c r="F71" s="1" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" ht="20.25" x14ac:dyDescent="0.45">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" ht="20.25" hidden="1" x14ac:dyDescent="0.45">
       <c r="A72" t="s">
         <v>71</v>
       </c>
-      <c r="D72" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",E72)</f>
+      <c r="B72" s="2" t="str">
+        <f>_xlfn.CONCAT("Arrive-&gt;",C72)</f>
         <v>Arrive-&gt;H-Goffstown</v>
       </c>
+      <c r="C72" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="D72" s="3" t="s">
+        <v>522</v>
+      </c>
       <c r="E72" t="s">
-        <v>332</v>
-      </c>
-      <c r="F72" s="1" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" ht="20.25" x14ac:dyDescent="0.45">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" ht="20.25" hidden="1" x14ac:dyDescent="0.45">
       <c r="A73" t="s">
         <v>72</v>
       </c>
-      <c r="D73" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",E73)</f>
+      <c r="B73" s="2" t="str">
+        <f>_xlfn.CONCAT("Arrive-&gt;",C73)</f>
         <v>Arrive-&gt;H-Gorham</v>
       </c>
+      <c r="C73" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="D73" s="3" t="s">
+        <v>522</v>
+      </c>
       <c r="E73" t="s">
-        <v>333</v>
-      </c>
-      <c r="F73" s="1" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" ht="20.25" x14ac:dyDescent="0.45">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" ht="20.25" hidden="1" x14ac:dyDescent="0.45">
       <c r="A74" t="s">
         <v>73</v>
       </c>
-      <c r="D74" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",E74)</f>
+      <c r="B74" s="2" t="str">
+        <f>_xlfn.CONCAT("Arrive-&gt;",C74)</f>
         <v>Arrive-&gt;H-Gray</v>
       </c>
+      <c r="C74" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="D74" s="3" t="s">
+        <v>522</v>
+      </c>
       <c r="E74" t="s">
-        <v>334</v>
-      </c>
-      <c r="F74" s="1" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" ht="20.25" x14ac:dyDescent="0.45">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" ht="20.25" hidden="1" x14ac:dyDescent="0.45">
       <c r="A75" t="s">
         <v>74</v>
       </c>
-      <c r="D75" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",E75)</f>
+      <c r="B75" s="2" t="str">
+        <f>_xlfn.CONCAT("Arrive-&gt;",C75)</f>
         <v>Arrive-&gt;H-Hampden</v>
       </c>
+      <c r="C75" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="D75" s="3" t="s">
+        <v>522</v>
+      </c>
       <c r="E75" t="s">
-        <v>335</v>
-      </c>
-      <c r="F75" s="1" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" ht="20.25" x14ac:dyDescent="0.45">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" ht="20.25" hidden="1" x14ac:dyDescent="0.45">
       <c r="A76" t="s">
         <v>75</v>
       </c>
-      <c r="D76" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",E76)</f>
+      <c r="B76" s="2" t="str">
+        <f>_xlfn.CONCAT("Arrive-&gt;",C76)</f>
         <v>Arrive-&gt;H-Hampstead</v>
       </c>
+      <c r="C76" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="D76" s="3" t="s">
+        <v>522</v>
+      </c>
       <c r="E76" t="s">
-        <v>336</v>
-      </c>
-      <c r="F76" s="1" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" ht="20.25" x14ac:dyDescent="0.45">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" ht="20.25" hidden="1" x14ac:dyDescent="0.45">
       <c r="A77" t="s">
         <v>76</v>
       </c>
-      <c r="D77" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",E77)</f>
+      <c r="B77" s="2" t="str">
+        <f>_xlfn.CONCAT("Arrive-&gt;",C77)</f>
         <v>Arrive-&gt;H-Hanover St (Manchester)</v>
       </c>
+      <c r="C77" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="D77" s="3" t="s">
+        <v>522</v>
+      </c>
       <c r="E77" t="s">
-        <v>337</v>
-      </c>
-      <c r="F77" s="1" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" ht="20.25" x14ac:dyDescent="0.45">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" ht="20.25" hidden="1" x14ac:dyDescent="0.45">
       <c r="A78" t="s">
         <v>77</v>
       </c>
-      <c r="D78" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",E78)</f>
+      <c r="B78" s="2" t="str">
+        <f>_xlfn.CONCAT("Arrive-&gt;",C78)</f>
         <v>Arrive-&gt;H-Hogan Rd (Bangor)</v>
       </c>
+      <c r="C78" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="D78" s="3" t="s">
+        <v>522</v>
+      </c>
       <c r="E78" t="s">
-        <v>338</v>
-      </c>
-      <c r="F78" s="1" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" ht="20.25" x14ac:dyDescent="0.45">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" ht="20.25" hidden="1" x14ac:dyDescent="0.45">
       <c r="A79" t="s">
         <v>78</v>
       </c>
-      <c r="D79" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",E79)</f>
+      <c r="B79" s="2" t="str">
+        <f>_xlfn.CONCAT("Arrive-&gt;",C79)</f>
         <v>Arrive-&gt;H-Hooksett</v>
       </c>
+      <c r="C79" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="D79" s="3" t="s">
+        <v>522</v>
+      </c>
       <c r="E79" t="s">
-        <v>339</v>
-      </c>
-      <c r="F79" s="1" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" ht="20.25" x14ac:dyDescent="0.45">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" ht="20.25" hidden="1" x14ac:dyDescent="0.45">
       <c r="A80" t="s">
         <v>79</v>
       </c>
-      <c r="D80" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",E80)</f>
+      <c r="B80" s="2" t="str">
+        <f>_xlfn.CONCAT("Arrive-&gt;",C80)</f>
         <v>Arrive-&gt;H-Houlton</v>
       </c>
+      <c r="C80" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="D80" s="3" t="s">
+        <v>522</v>
+      </c>
       <c r="E80" t="s">
-        <v>340</v>
-      </c>
-      <c r="F80" s="1" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" ht="20.25" x14ac:dyDescent="0.45">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" ht="20.25" hidden="1" x14ac:dyDescent="0.45">
       <c r="A81" t="s">
         <v>80</v>
       </c>
-      <c r="D81" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",E81)</f>
+      <c r="B81" s="2" t="str">
+        <f>_xlfn.CONCAT("Arrive-&gt;",C81)</f>
         <v>Arrive-&gt;H-Hudson MA</v>
       </c>
+      <c r="C81" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="D81" s="3" t="s">
+        <v>522</v>
+      </c>
       <c r="E81" t="s">
-        <v>341</v>
-      </c>
-      <c r="F81" s="1" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" ht="20.25" x14ac:dyDescent="0.45">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" ht="20.25" hidden="1" x14ac:dyDescent="0.45">
       <c r="A82" t="s">
         <v>81</v>
       </c>
-      <c r="D82" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",E82)</f>
+      <c r="B82" s="2" t="str">
+        <f>_xlfn.CONCAT("Arrive-&gt;",C82)</f>
         <v>Arrive-&gt;H-Hudson NH</v>
       </c>
+      <c r="C82" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="D82" s="3" t="s">
+        <v>522</v>
+      </c>
       <c r="E82" t="s">
-        <v>342</v>
-      </c>
-      <c r="F82" s="1" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" ht="20.25" x14ac:dyDescent="0.45">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" ht="20.25" hidden="1" x14ac:dyDescent="0.45">
       <c r="A83" t="s">
         <v>82</v>
       </c>
-      <c r="D83" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",E83)</f>
+      <c r="B83" s="2" t="str">
+        <f>_xlfn.CONCAT("Arrive-&gt;",C83)</f>
         <v>Arrive-&gt;H-Jay  Me</v>
       </c>
+      <c r="C83" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="D83" s="3" t="s">
+        <v>522</v>
+      </c>
       <c r="E83" t="s">
-        <v>343</v>
-      </c>
-      <c r="F83" s="1" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" ht="20.25" x14ac:dyDescent="0.45">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" ht="20.25" hidden="1" x14ac:dyDescent="0.45">
       <c r="A84" t="s">
         <v>83</v>
       </c>
-      <c r="D84" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",E84)</f>
+      <c r="B84" s="2" t="str">
+        <f>_xlfn.CONCAT("Arrive-&gt;",C84)</f>
         <v>Arrive-&gt;H-John Devine (Manchester)</v>
       </c>
+      <c r="C84" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="D84" s="3" t="s">
+        <v>522</v>
+      </c>
       <c r="E84" t="s">
-        <v>344</v>
-      </c>
-      <c r="F84" s="1" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" ht="20.25" x14ac:dyDescent="0.45">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" ht="20.25" hidden="1" x14ac:dyDescent="0.45">
       <c r="A85" t="s">
         <v>84</v>
       </c>
-      <c r="D85" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",E85)</f>
+      <c r="B85" s="2" t="str">
+        <f>_xlfn.CONCAT("Arrive-&gt;",C85)</f>
         <v>Arrive-&gt;H-Keene</v>
       </c>
+      <c r="C85" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="D85" s="3" t="s">
+        <v>522</v>
+      </c>
       <c r="E85" t="s">
-        <v>345</v>
-      </c>
-      <c r="F85" s="1" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" ht="20.25" x14ac:dyDescent="0.45">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" ht="20.25" hidden="1" x14ac:dyDescent="0.45">
       <c r="A86" t="s">
         <v>85</v>
       </c>
-      <c r="D86" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",E86)</f>
+      <c r="B86" s="2" t="str">
+        <f>_xlfn.CONCAT("Arrive-&gt;",C86)</f>
         <v>Arrive-&gt;H-Kennebunk</v>
       </c>
+      <c r="C86" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="D86" s="3" t="s">
+        <v>522</v>
+      </c>
       <c r="E86" t="s">
-        <v>346</v>
-      </c>
-      <c r="F86" s="1" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" ht="20.25" x14ac:dyDescent="0.45">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" ht="20.25" hidden="1" x14ac:dyDescent="0.45">
       <c r="A87" t="s">
         <v>86</v>
       </c>
-      <c r="D87" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",E87)</f>
+      <c r="B87" s="2" t="str">
+        <f>_xlfn.CONCAT("Arrive-&gt;",C87)</f>
         <v>Arrive-&gt;H-Kingston</v>
       </c>
+      <c r="C87" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="D87" s="3" t="s">
+        <v>522</v>
+      </c>
       <c r="E87" t="s">
-        <v>347</v>
-      </c>
-      <c r="F87" s="1" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" ht="20.25" x14ac:dyDescent="0.45">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" ht="20.25" hidden="1" x14ac:dyDescent="0.45">
       <c r="A88" t="s">
         <v>87</v>
       </c>
-      <c r="D88" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",E88)</f>
+      <c r="B88" s="2" t="str">
+        <f>_xlfn.CONCAT("Arrive-&gt;",C88)</f>
         <v>Arrive-&gt;H-Leominster - Lancaster</v>
       </c>
+      <c r="C88" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="D88" s="3" t="s">
+        <v>522</v>
+      </c>
       <c r="E88" t="s">
-        <v>348</v>
-      </c>
-      <c r="F88" s="1" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" ht="20.25" x14ac:dyDescent="0.45">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" ht="20.25" hidden="1" x14ac:dyDescent="0.45">
       <c r="A89" t="s">
         <v>88</v>
       </c>
-      <c r="D89" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",E89)</f>
+      <c r="B89" s="2" t="str">
+        <f>_xlfn.CONCAT("Arrive-&gt;",C89)</f>
         <v>Arrive-&gt;H-Leominster - Twin City</v>
       </c>
+      <c r="C89" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="D89" s="3" t="s">
+        <v>522</v>
+      </c>
       <c r="E89" t="s">
-        <v>349</v>
-      </c>
-      <c r="F89" s="1" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" ht="20.25" x14ac:dyDescent="0.45">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" ht="20.25" hidden="1" x14ac:dyDescent="0.45">
       <c r="A90" t="s">
         <v>89</v>
       </c>
-      <c r="D90" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",E90)</f>
+      <c r="B90" s="2" t="str">
+        <f>_xlfn.CONCAT("Arrive-&gt;",C90)</f>
         <v>Arrive-&gt;H-Lewiston</v>
       </c>
+      <c r="C90" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="D90" s="3" t="s">
+        <v>522</v>
+      </c>
       <c r="E90" t="s">
-        <v>350</v>
-      </c>
-      <c r="F90" s="1" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6" ht="20.25" x14ac:dyDescent="0.45">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" ht="20.25" hidden="1" x14ac:dyDescent="0.45">
       <c r="A91" t="s">
         <v>90</v>
       </c>
-      <c r="D91" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",E91)</f>
+      <c r="B91" s="2" t="str">
+        <f>_xlfn.CONCAT("Arrive-&gt;",C91)</f>
         <v>Arrive-&gt;H-Lincoln</v>
       </c>
+      <c r="C91" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="D91" s="3" t="s">
+        <v>522</v>
+      </c>
       <c r="E91" t="s">
-        <v>351</v>
-      </c>
-      <c r="F91" s="1" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6" ht="20.25" x14ac:dyDescent="0.45">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" ht="20.25" hidden="1" x14ac:dyDescent="0.45">
       <c r="A92" t="s">
         <v>91</v>
       </c>
-      <c r="D92" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",E92)</f>
+      <c r="B92" s="2" t="str">
+        <f>_xlfn.CONCAT("Arrive-&gt;",C92)</f>
         <v>Arrive-&gt;H-Londonderry</v>
       </c>
+      <c r="C92" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="D92" s="3" t="s">
+        <v>522</v>
+      </c>
       <c r="E92" t="s">
-        <v>352</v>
-      </c>
-      <c r="F92" s="1" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6" ht="20.25" x14ac:dyDescent="0.45">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" ht="20.25" hidden="1" x14ac:dyDescent="0.45">
       <c r="A93" t="s">
         <v>92</v>
       </c>
-      <c r="D93" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",E93)</f>
+      <c r="B93" s="2" t="str">
+        <f>_xlfn.CONCAT("Arrive-&gt;",C93)</f>
         <v>Arrive-&gt;H-Lowell</v>
       </c>
+      <c r="C93" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="D93" s="3" t="s">
+        <v>522</v>
+      </c>
       <c r="E93" t="s">
-        <v>353</v>
-      </c>
-      <c r="F93" s="1" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6" ht="20.25" x14ac:dyDescent="0.45">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" ht="20.25" hidden="1" x14ac:dyDescent="0.45">
       <c r="A94" t="s">
         <v>93</v>
       </c>
-      <c r="D94" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",E94)</f>
+      <c r="B94" s="2" t="str">
+        <f>_xlfn.CONCAT("Arrive-&gt;",C94)</f>
         <v>Arrive-&gt;H-Lunenburg</v>
       </c>
+      <c r="C94" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="D94" s="3" t="s">
+        <v>522</v>
+      </c>
       <c r="E94" t="s">
-        <v>354</v>
-      </c>
-      <c r="F94" s="1" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6" ht="20.25" x14ac:dyDescent="0.45">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" ht="20.25" hidden="1" x14ac:dyDescent="0.45">
       <c r="A95" t="s">
         <v>94</v>
       </c>
-      <c r="D95" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",E95)</f>
+      <c r="B95" s="2" t="str">
+        <f>_xlfn.CONCAT("Arrive-&gt;",C95)</f>
         <v>Arrive-&gt;H-Machias</v>
       </c>
+      <c r="C95" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="D95" s="3" t="s">
+        <v>522</v>
+      </c>
       <c r="E95" t="s">
-        <v>355</v>
-      </c>
-      <c r="F95" s="1" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6" ht="20.25" x14ac:dyDescent="0.45">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" ht="20.25" hidden="1" x14ac:dyDescent="0.45">
       <c r="A96" t="s">
         <v>95</v>
       </c>
-      <c r="D96" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",E96)</f>
+      <c r="B96" s="2" t="str">
+        <f>_xlfn.CONCAT("Arrive-&gt;",C96)</f>
         <v>Arrive-&gt;H-Madison</v>
       </c>
+      <c r="C96" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="D96" s="3" t="s">
+        <v>522</v>
+      </c>
       <c r="E96" t="s">
-        <v>356</v>
-      </c>
-      <c r="F96" s="1" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6" ht="20.25" x14ac:dyDescent="0.45">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" ht="20.25" hidden="1" x14ac:dyDescent="0.45">
       <c r="A97" t="s">
         <v>96</v>
       </c>
-      <c r="D97" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",E97)</f>
+      <c r="B97" s="2" t="str">
+        <f>_xlfn.CONCAT("Arrive-&gt;",C97)</f>
         <v>Arrive-&gt;H-Maine Mall</v>
       </c>
+      <c r="C97" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="D97" s="3" t="s">
+        <v>522</v>
+      </c>
       <c r="E97" t="s">
-        <v>357</v>
-      </c>
-      <c r="F97" s="1" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6" ht="20.25" x14ac:dyDescent="0.45">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" ht="20.25" hidden="1" x14ac:dyDescent="0.45">
       <c r="A98" t="s">
         <v>97</v>
       </c>
-      <c r="D98" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",E98)</f>
+      <c r="B98" s="2" t="str">
+        <f>_xlfn.CONCAT("Arrive-&gt;",C98)</f>
         <v>Arrive-&gt;H-Marlborough</v>
       </c>
+      <c r="C98" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="D98" s="3" t="s">
+        <v>522</v>
+      </c>
       <c r="E98" t="s">
-        <v>358</v>
-      </c>
-      <c r="F98" s="1" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6" ht="20.25" x14ac:dyDescent="0.45">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" ht="20.25" hidden="1" x14ac:dyDescent="0.45">
       <c r="A99" t="s">
         <v>98</v>
       </c>
-      <c r="D99" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",E99)</f>
+      <c r="B99" s="2" t="str">
+        <f>_xlfn.CONCAT("Arrive-&gt;",C99)</f>
         <v>Arrive-&gt;H-Meredith</v>
       </c>
+      <c r="C99" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="D99" s="3" t="s">
+        <v>522</v>
+      </c>
       <c r="E99" t="s">
-        <v>359</v>
-      </c>
-      <c r="F99" s="1" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6" ht="20.25" x14ac:dyDescent="0.45">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" ht="20.25" hidden="1" x14ac:dyDescent="0.45">
       <c r="A100" t="s">
         <v>99</v>
       </c>
-      <c r="D100" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",E100)</f>
+      <c r="B100" s="2" t="str">
+        <f>_xlfn.CONCAT("Arrive-&gt;",C100)</f>
         <v>Arrive-&gt;H-Middleboro</v>
       </c>
+      <c r="C100" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="D100" s="3" t="s">
+        <v>522</v>
+      </c>
       <c r="E100" t="s">
-        <v>360</v>
-      </c>
-      <c r="F100" s="1" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6" ht="20.25" x14ac:dyDescent="0.45">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A101" t="s">
         <v>100</v>
       </c>
-      <c r="D101" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",E101)</f>
+      <c r="B101" t="str">
+        <f>_xlfn.CONCAT("Arrive-&gt;",C101)</f>
         <v>Arrive-&gt;H-Milford</v>
       </c>
-      <c r="E101" t="s">
+      <c r="C101" t="s">
         <v>361</v>
       </c>
-      <c r="F101" s="1" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6" ht="20.25" x14ac:dyDescent="0.45">
+      <c r="D101" s="1" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A102" t="s">
         <v>101</v>
       </c>
-      <c r="D102" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",E102)</f>
+      <c r="B102" t="str">
+        <f>_xlfn.CONCAT("Arrive-&gt;",C102)</f>
         <v>Arrive-&gt;H-Mill Creek</v>
       </c>
-      <c r="E102" t="s">
+      <c r="C102" t="s">
         <v>362</v>
       </c>
-      <c r="F102" s="1" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6" ht="20.25" x14ac:dyDescent="0.45">
+      <c r="D102" s="1" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A103" t="s">
         <v>102</v>
       </c>
-      <c r="D103" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",E103)</f>
+      <c r="B103" t="str">
+        <f>_xlfn.CONCAT("Arrive-&gt;",C103)</f>
         <v>Arrive-&gt;H-Millinocket - Central Ave</v>
       </c>
-      <c r="E103" t="s">
+      <c r="C103" t="s">
         <v>363</v>
       </c>
-      <c r="F103" s="1" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6" ht="20.25" x14ac:dyDescent="0.45">
+      <c r="D103" s="1" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A104" t="s">
         <v>103</v>
       </c>
-      <c r="D104" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",E104)</f>
+      <c r="B104" t="str">
+        <f>_xlfn.CONCAT("Arrive-&gt;",C104)</f>
         <v>Arrive-&gt;H-Millinocket (Lounsbury'S)</v>
       </c>
-      <c r="E104" t="s">
+      <c r="C104" t="s">
         <v>364</v>
       </c>
-      <c r="F104" s="1" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6" ht="20.25" x14ac:dyDescent="0.45">
+      <c r="D104" s="1" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A105" t="s">
         <v>104</v>
       </c>
-      <c r="D105" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",E105)</f>
+      <c r="B105" t="str">
+        <f>_xlfn.CONCAT("Arrive-&gt;",C105)</f>
         <v>Arrive-&gt;H-Nashua</v>
       </c>
-      <c r="E105" t="s">
+      <c r="C105" t="s">
         <v>365</v>
       </c>
-      <c r="F105" s="1" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6" ht="20.25" x14ac:dyDescent="0.45">
+      <c r="D105" s="1" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A106" t="s">
         <v>105</v>
       </c>
-      <c r="D106" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",E106)</f>
+      <c r="B106" t="str">
+        <f>_xlfn.CONCAT("Arrive-&gt;",C106)</f>
         <v>Arrive-&gt;H-New London</v>
       </c>
-      <c r="E106" t="s">
+      <c r="C106" t="s">
         <v>366</v>
       </c>
-      <c r="F106" s="1" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6" ht="20.25" x14ac:dyDescent="0.45">
+      <c r="D106" s="1" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A107" t="s">
         <v>106</v>
       </c>
-      <c r="D107" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",E107)</f>
+      <c r="B107" t="str">
+        <f>_xlfn.CONCAT("Arrive-&gt;",C107)</f>
         <v>Arrive-&gt;H-Newport Buds</v>
       </c>
-      <c r="E107" t="s">
+      <c r="C107" t="s">
         <v>367</v>
       </c>
-      <c r="F107" s="1" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6" ht="20.25" x14ac:dyDescent="0.45">
+      <c r="D107" s="1" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A108" t="s">
         <v>107</v>
       </c>
-      <c r="D108" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",E108)</f>
+      <c r="B108" t="str">
+        <f>_xlfn.CONCAT("Arrive-&gt;",C108)</f>
         <v>Arrive-&gt;H-North Berwick</v>
       </c>
-      <c r="E108" t="s">
+      <c r="C108" t="s">
         <v>368</v>
       </c>
-      <c r="F108" s="1" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6" ht="20.25" x14ac:dyDescent="0.45">
+      <c r="D108" s="1" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A109" t="s">
         <v>108</v>
       </c>
-      <c r="D109" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",E109)</f>
+      <c r="B109" t="str">
+        <f>_xlfn.CONCAT("Arrive-&gt;",C109)</f>
         <v>Arrive-&gt;H-North Brookfield</v>
       </c>
-      <c r="E109" t="s">
+      <c r="C109" t="s">
         <v>369</v>
       </c>
-      <c r="F109" s="1" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6" ht="20.25" x14ac:dyDescent="0.45">
+      <c r="D109" s="1" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A110" t="s">
         <v>109</v>
       </c>
-      <c r="D110" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",E110)</f>
+      <c r="B110" t="str">
+        <f>_xlfn.CONCAT("Arrive-&gt;",C110)</f>
         <v>Arrive-&gt;H-North Conway</v>
       </c>
-      <c r="E110" t="s">
+      <c r="C110" t="s">
         <v>370</v>
       </c>
-      <c r="F110" s="1" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6" ht="20.25" x14ac:dyDescent="0.45">
+      <c r="D110" s="1" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A111" t="s">
         <v>110</v>
       </c>
-      <c r="D111" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",E111)</f>
+      <c r="B111" t="str">
+        <f>_xlfn.CONCAT("Arrive-&gt;",C111)</f>
         <v>Arrive-&gt;H-Northwood</v>
       </c>
-      <c r="E111" t="s">
+      <c r="C111" t="s">
         <v>371</v>
       </c>
-      <c r="F111" s="1" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6" ht="20.25" x14ac:dyDescent="0.45">
+      <c r="D111" s="1" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A112" t="s">
         <v>111</v>
       </c>
-      <c r="D112" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",E112)</f>
+      <c r="B112" t="str">
+        <f>_xlfn.CONCAT("Arrive-&gt;",C112)</f>
         <v>Arrive-&gt;H-Norwell</v>
       </c>
-      <c r="E112" t="s">
+      <c r="C112" t="s">
         <v>372</v>
       </c>
-      <c r="F112" s="1" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="113" spans="1:6" ht="20.25" x14ac:dyDescent="0.45">
+      <c r="D112" s="1" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A113" t="s">
         <v>112</v>
       </c>
-      <c r="D113" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",E113)</f>
+      <c r="B113" t="str">
+        <f>_xlfn.CONCAT("Arrive-&gt;",C113)</f>
         <v>Arrive-&gt;H-Norwood</v>
       </c>
-      <c r="E113" t="s">
+      <c r="C113" t="s">
         <v>373</v>
       </c>
-      <c r="F113" s="1" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="114" spans="1:6" ht="20.25" x14ac:dyDescent="0.45">
+      <c r="D113" s="1" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A114" t="s">
         <v>113</v>
       </c>
-      <c r="D114" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",E114)</f>
+      <c r="B114" t="str">
+        <f>_xlfn.CONCAT("Arrive-&gt;",C114)</f>
         <v>Arrive-&gt;H-Old Orchard Beach</v>
       </c>
-      <c r="E114" t="s">
+      <c r="C114" t="s">
         <v>374</v>
       </c>
-      <c r="F114" s="1" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="115" spans="1:6" ht="20.25" x14ac:dyDescent="0.45">
+      <c r="D114" s="1" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A115" t="s">
         <v>114</v>
       </c>
-      <c r="D115" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",E115)</f>
+      <c r="B115" t="str">
+        <f>_xlfn.CONCAT("Arrive-&gt;",C115)</f>
         <v>Arrive-&gt;H-Old Town</v>
       </c>
-      <c r="E115" t="s">
+      <c r="C115" t="s">
         <v>375</v>
       </c>
-      <c r="F115" s="1" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="116" spans="1:6" ht="20.25" x14ac:dyDescent="0.45">
+      <c r="D115" s="1" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A116" t="s">
         <v>115</v>
       </c>
-      <c r="D116" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",E116)</f>
+      <c r="B116" t="str">
+        <f>_xlfn.CONCAT("Arrive-&gt;",C116)</f>
         <v>Arrive-&gt;H-Ossipee</v>
       </c>
-      <c r="E116" t="s">
+      <c r="C116" t="s">
         <v>376</v>
       </c>
-      <c r="F116" s="1" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="117" spans="1:6" ht="20.25" x14ac:dyDescent="0.45">
+      <c r="D116" s="1" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A117" t="s">
         <v>116</v>
       </c>
-      <c r="D117" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",E117)</f>
+      <c r="B117" t="str">
+        <f>_xlfn.CONCAT("Arrive-&gt;",C117)</f>
         <v>Arrive-&gt;H-Oxford</v>
       </c>
-      <c r="E117" t="s">
+      <c r="C117" t="s">
         <v>377</v>
       </c>
-      <c r="F117" s="1" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="118" spans="1:6" ht="20.25" x14ac:dyDescent="0.45">
+      <c r="D117" s="1" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A118" t="s">
         <v>117</v>
       </c>
-      <c r="D118" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",E118)</f>
+      <c r="B118" t="str">
+        <f>_xlfn.CONCAT("Arrive-&gt;",C118)</f>
         <v>Arrive-&gt;H-Peabody</v>
       </c>
-      <c r="E118" t="s">
+      <c r="C118" t="s">
         <v>378</v>
       </c>
-      <c r="F118" s="1" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="119" spans="1:6" ht="20.25" x14ac:dyDescent="0.45">
+      <c r="D118" s="1" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A119" t="s">
         <v>118</v>
       </c>
-      <c r="D119" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",E119)</f>
+      <c r="B119" t="str">
+        <f>_xlfn.CONCAT("Arrive-&gt;",C119)</f>
         <v>Arrive-&gt;H-Pelham</v>
       </c>
-      <c r="E119" t="s">
+      <c r="C119" t="s">
         <v>379</v>
       </c>
-      <c r="F119" s="1" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="120" spans="1:6" ht="20.25" x14ac:dyDescent="0.45">
+      <c r="D119" s="1" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A120" t="s">
         <v>119</v>
       </c>
-      <c r="D120" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",E120)</f>
+      <c r="B120" t="str">
+        <f>_xlfn.CONCAT("Arrive-&gt;",C120)</f>
         <v>Arrive-&gt;H-Pittsfield Buds</v>
       </c>
-      <c r="E120" t="s">
+      <c r="C120" t="s">
         <v>380</v>
       </c>
-      <c r="F120" s="1" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="121" spans="1:6" ht="20.25" x14ac:dyDescent="0.45">
+      <c r="D120" s="1" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A121" t="s">
         <v>120</v>
       </c>
-      <c r="D121" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",E121)</f>
+      <c r="B121" t="str">
+        <f>_xlfn.CONCAT("Arrive-&gt;",C121)</f>
         <v>Arrive-&gt;H-Plymouth</v>
       </c>
-      <c r="E121" t="s">
+      <c r="C121" t="s">
         <v>381</v>
       </c>
-      <c r="F121" s="1" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="122" spans="1:6" ht="20.25" x14ac:dyDescent="0.45">
+      <c r="D121" s="1" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A122" t="s">
         <v>121</v>
       </c>
-      <c r="D122" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",E122)</f>
+      <c r="B122" t="str">
+        <f>_xlfn.CONCAT("Arrive-&gt;",C122)</f>
         <v>Arrive-&gt;H-Portsmouth</v>
       </c>
-      <c r="E122" t="s">
+      <c r="C122" t="s">
         <v>382</v>
       </c>
-      <c r="F122" s="1" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="123" spans="1:6" ht="20.25" x14ac:dyDescent="0.45">
+      <c r="D122" s="1" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A123" t="s">
         <v>122</v>
       </c>
-      <c r="D123" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",E123)</f>
+      <c r="B123" t="str">
+        <f>_xlfn.CONCAT("Arrive-&gt;",C123)</f>
         <v>Arrive-&gt;H-Presque Isle</v>
       </c>
-      <c r="E123" t="s">
+      <c r="C123" t="s">
         <v>383</v>
       </c>
-      <c r="F123" s="1" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="124" spans="1:6" ht="20.25" x14ac:dyDescent="0.45">
+      <c r="D123" s="1" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A124" t="s">
         <v>123</v>
       </c>
-      <c r="D124" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",E124)</f>
+      <c r="B124" t="str">
+        <f>_xlfn.CONCAT("Arrive-&gt;",C124)</f>
         <v>Arrive-&gt;H-Quincy</v>
       </c>
-      <c r="E124" t="s">
+      <c r="C124" t="s">
         <v>384</v>
       </c>
-      <c r="F124" s="1" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="125" spans="1:6" ht="20.25" x14ac:dyDescent="0.45">
+      <c r="D124" s="1" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A125" t="s">
         <v>124</v>
       </c>
-      <c r="D125" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",E125)</f>
+      <c r="B125" t="str">
+        <f>_xlfn.CONCAT("Arrive-&gt;",C125)</f>
         <v>Arrive-&gt;H-Raymond</v>
       </c>
-      <c r="E125" t="s">
+      <c r="C125" t="s">
         <v>385</v>
       </c>
-      <c r="F125" s="1" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="126" spans="1:6" ht="20.25" x14ac:dyDescent="0.45">
+      <c r="D125" s="1" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A126" t="s">
         <v>125</v>
       </c>
-      <c r="D126" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",E126)</f>
+      <c r="B126" t="str">
+        <f>_xlfn.CONCAT("Arrive-&gt;",C126)</f>
         <v>Arrive-&gt;H-Rindge</v>
       </c>
-      <c r="E126" t="s">
+      <c r="C126" t="s">
         <v>386</v>
       </c>
-      <c r="F126" s="1" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="127" spans="1:6" ht="20.25" x14ac:dyDescent="0.45">
+      <c r="D126" s="1" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A127" t="s">
         <v>126</v>
       </c>
-      <c r="D127" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",E127)</f>
+      <c r="B127" t="str">
+        <f>_xlfn.CONCAT("Arrive-&gt;",C127)</f>
         <v>Arrive-&gt;H-Riverside</v>
       </c>
-      <c r="E127" t="s">
+      <c r="C127" t="s">
         <v>387</v>
       </c>
-      <c r="F127" s="1" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="128" spans="1:6" ht="20.25" x14ac:dyDescent="0.45">
+      <c r="D127" s="1" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A128" t="s">
         <v>127</v>
       </c>
-      <c r="D128" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",E128)</f>
+      <c r="B128" t="str">
+        <f>_xlfn.CONCAT("Arrive-&gt;",C128)</f>
         <v>Arrive-&gt;H-Rochester - Lilac Mall</v>
       </c>
-      <c r="E128" t="s">
+      <c r="C128" t="s">
         <v>388</v>
       </c>
-      <c r="F128" s="1" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="129" spans="1:6" ht="20.25" x14ac:dyDescent="0.45">
+      <c r="D128" s="1" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A129" t="s">
         <v>128</v>
       </c>
-      <c r="D129" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",E129)</f>
+      <c r="B129" t="str">
+        <f>_xlfn.CONCAT("Arrive-&gt;",C129)</f>
         <v>Arrive-&gt;H-Rochester - N Main</v>
       </c>
-      <c r="E129" t="s">
+      <c r="C129" t="s">
         <v>389</v>
       </c>
-      <c r="F129" s="1" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="130" spans="1:6" ht="20.25" x14ac:dyDescent="0.45">
+      <c r="D129" s="1" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A130" t="s">
         <v>129</v>
       </c>
-      <c r="D130" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",E130)</f>
+      <c r="B130" t="str">
+        <f>_xlfn.CONCAT("Arrive-&gt;",C130)</f>
         <v>Arrive-&gt;H-Rockland</v>
       </c>
-      <c r="E130" t="s">
+      <c r="C130" t="s">
         <v>390</v>
       </c>
-      <c r="F130" s="1" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="131" spans="1:6" ht="20.25" x14ac:dyDescent="0.45">
+      <c r="D130" s="1" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A131" t="s">
         <v>130</v>
       </c>
-      <c r="D131" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",E131)</f>
+      <c r="B131" t="str">
+        <f>_xlfn.CONCAT("Arrive-&gt;",C131)</f>
         <v>Arrive-&gt;H-Rumford</v>
       </c>
-      <c r="E131" t="s">
+      <c r="C131" t="s">
         <v>391</v>
       </c>
-      <c r="F131" s="1" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="132" spans="1:6" ht="20.25" x14ac:dyDescent="0.45">
+      <c r="D131" s="1" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A132" t="s">
         <v>131</v>
       </c>
-      <c r="D132" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",E132)</f>
+      <c r="B132" t="str">
+        <f>_xlfn.CONCAT("Arrive-&gt;",C132)</f>
         <v>Arrive-&gt;H-Saco</v>
       </c>
-      <c r="E132" t="s">
+      <c r="C132" t="s">
         <v>392</v>
       </c>
-      <c r="F132" s="1" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="133" spans="1:6" ht="20.25" x14ac:dyDescent="0.45">
+      <c r="D132" s="1" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A133" t="s">
         <v>132</v>
       </c>
-      <c r="D133" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",E133)</f>
+      <c r="B133" t="str">
+        <f>_xlfn.CONCAT("Arrive-&gt;",C133)</f>
         <v>Arrive-&gt;H-Sanford</v>
       </c>
-      <c r="E133" t="s">
+      <c r="C133" t="s">
         <v>393</v>
       </c>
-      <c r="F133" s="1" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="134" spans="1:6" ht="20.25" x14ac:dyDescent="0.45">
+      <c r="D133" s="1" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A134" t="s">
         <v>133</v>
       </c>
-      <c r="D134" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",E134)</f>
+      <c r="B134" t="str">
+        <f>_xlfn.CONCAT("Arrive-&gt;",C134)</f>
         <v>Arrive-&gt;H-Saugus</v>
       </c>
-      <c r="E134" t="s">
+      <c r="C134" t="s">
         <v>394</v>
       </c>
-      <c r="F134" s="1" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="135" spans="1:6" ht="20.25" x14ac:dyDescent="0.45">
+      <c r="D134" s="1" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A135" t="s">
         <v>134</v>
       </c>
-      <c r="D135" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",E135)</f>
+      <c r="B135" t="str">
+        <f>_xlfn.CONCAT("Arrive-&gt;",C135)</f>
         <v>Arrive-&gt;H-Scarborough</v>
       </c>
-      <c r="E135" t="s">
+      <c r="C135" t="s">
         <v>395</v>
       </c>
-      <c r="F135" s="1" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="136" spans="1:6" ht="20.25" x14ac:dyDescent="0.45">
+      <c r="D135" s="1" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A136" t="s">
         <v>135</v>
       </c>
-      <c r="D136" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",E136)</f>
+      <c r="B136" t="str">
+        <f>_xlfn.CONCAT("Arrive-&gt;",C136)</f>
         <v>Arrive-&gt;H-Seacoast (Hampton)</v>
       </c>
-      <c r="E136" t="s">
+      <c r="C136" t="s">
         <v>396</v>
       </c>
-      <c r="F136" s="1" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="137" spans="1:6" ht="20.25" x14ac:dyDescent="0.45">
+      <c r="D136" s="1" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A137" t="s">
         <v>136</v>
       </c>
-      <c r="D137" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",E137)</f>
+      <c r="B137" t="str">
+        <f>_xlfn.CONCAT("Arrive-&gt;",C137)</f>
         <v>Arrive-&gt;H-Skowhegan</v>
       </c>
-      <c r="E137" t="s">
+      <c r="C137" t="s">
         <v>397</v>
       </c>
-      <c r="F137" s="1" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="138" spans="1:6" ht="20.25" x14ac:dyDescent="0.45">
+      <c r="D137" s="1" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A138" t="s">
         <v>137</v>
       </c>
-      <c r="D138" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",E138)</f>
+      <c r="B138" t="str">
+        <f>_xlfn.CONCAT("Arrive-&gt;",C138)</f>
         <v>Arrive-&gt;H-Standish</v>
       </c>
-      <c r="E138" t="s">
+      <c r="C138" t="s">
         <v>398</v>
       </c>
-      <c r="F138" s="1" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="139" spans="1:6" ht="20.25" x14ac:dyDescent="0.45">
+      <c r="D138" s="1" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A139" t="s">
         <v>138</v>
       </c>
-      <c r="D139" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",E139)</f>
+      <c r="B139" t="str">
+        <f>_xlfn.CONCAT("Arrive-&gt;",C139)</f>
         <v>Arrive-&gt;H-Taunton</v>
       </c>
-      <c r="E139" t="s">
+      <c r="C139" t="s">
         <v>399</v>
       </c>
-      <c r="F139" s="1" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="140" spans="1:6" ht="20.25" x14ac:dyDescent="0.45">
+      <c r="D139" s="1" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A140" t="s">
         <v>139</v>
       </c>
-      <c r="D140" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",E140)</f>
+      <c r="B140" t="str">
+        <f>_xlfn.CONCAT("Arrive-&gt;",C140)</f>
         <v>Arrive-&gt;H-Topsham</v>
       </c>
-      <c r="E140" t="s">
+      <c r="C140" t="s">
         <v>400</v>
       </c>
-      <c r="F140" s="1" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="141" spans="1:6" ht="20.25" x14ac:dyDescent="0.45">
+      <c r="D140" s="1" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A141" t="s">
         <v>140</v>
       </c>
-      <c r="D141" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",E141)</f>
+      <c r="B141" t="str">
+        <f>_xlfn.CONCAT("Arrive-&gt;",C141)</f>
         <v>Arrive-&gt;H-Townsend</v>
       </c>
-      <c r="E141" t="s">
+      <c r="C141" t="s">
         <v>401</v>
       </c>
-      <c r="F141" s="1" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="142" spans="1:6" ht="20.25" x14ac:dyDescent="0.45">
+      <c r="D141" s="1" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A142" t="s">
         <v>141</v>
       </c>
-      <c r="D142" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",E142)</f>
+      <c r="B142" t="str">
+        <f>_xlfn.CONCAT("Arrive-&gt;",C142)</f>
         <v>Arrive-&gt;H-Tradewinds - (Blue Hill)</v>
       </c>
-      <c r="E142" t="s">
+      <c r="C142" t="s">
         <v>402</v>
       </c>
-      <c r="F142" s="1" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="143" spans="1:6" ht="20.25" x14ac:dyDescent="0.45">
+      <c r="D142" s="1" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A143" t="s">
         <v>142</v>
       </c>
-      <c r="D143" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",E143)</f>
+      <c r="B143" t="str">
+        <f>_xlfn.CONCAT("Arrive-&gt;",C143)</f>
         <v>Arrive-&gt;H-Turner</v>
       </c>
-      <c r="E143" t="s">
+      <c r="C143" t="s">
         <v>403</v>
       </c>
-      <c r="F143" s="1" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="144" spans="1:6" ht="20.25" x14ac:dyDescent="0.45">
+      <c r="D143" s="1" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A144" t="s">
         <v>143</v>
       </c>
-      <c r="D144" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",E144)</f>
+      <c r="B144" t="str">
+        <f>_xlfn.CONCAT("Arrive-&gt;",C144)</f>
         <v>Arrive-&gt;H-Uxbridge</v>
       </c>
-      <c r="E144" t="s">
+      <c r="C144" t="s">
         <v>404</v>
       </c>
-      <c r="F144" s="1" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="145" spans="1:6" ht="20.25" x14ac:dyDescent="0.45">
+      <c r="D144" s="1" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A145" t="s">
         <v>144</v>
       </c>
-      <c r="D145" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",E145)</f>
+      <c r="B145" t="str">
+        <f>_xlfn.CONCAT("Arrive-&gt;",C145)</f>
         <v>Arrive-&gt;H-Waldoboro</v>
       </c>
-      <c r="E145" t="s">
+      <c r="C145" t="s">
         <v>405</v>
       </c>
-      <c r="F145" s="1" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="146" spans="1:6" ht="20.25" x14ac:dyDescent="0.45">
+      <c r="D145" s="1" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A146" t="s">
         <v>145</v>
       </c>
-      <c r="D146" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",E146)</f>
+      <c r="B146" t="str">
+        <f>_xlfn.CONCAT("Arrive-&gt;",C146)</f>
         <v>Arrive-&gt;H-Waltham</v>
       </c>
-      <c r="E146" t="s">
+      <c r="C146" t="s">
         <v>406</v>
       </c>
-      <c r="F146" s="1" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="147" spans="1:6" ht="20.25" x14ac:dyDescent="0.45">
+      <c r="D146" s="1" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A147" t="s">
         <v>146</v>
       </c>
-      <c r="D147" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",E147)</f>
+      <c r="B147" t="str">
+        <f>_xlfn.CONCAT("Arrive-&gt;",C147)</f>
         <v>Arrive-&gt;H-Waterboro</v>
       </c>
-      <c r="E147" t="s">
+      <c r="C147" t="s">
         <v>407</v>
       </c>
-      <c r="F147" s="1" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="148" spans="1:6" ht="20.25" x14ac:dyDescent="0.45">
+      <c r="D147" s="1" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A148" t="s">
         <v>147</v>
       </c>
-      <c r="D148" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",E148)</f>
+      <c r="B148" t="str">
+        <f>_xlfn.CONCAT("Arrive-&gt;",C148)</f>
         <v>Arrive-&gt;H-Waterville - Elm</v>
       </c>
-      <c r="E148" t="s">
+      <c r="C148" t="s">
         <v>408</v>
       </c>
-      <c r="F148" s="1" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="149" spans="1:6" ht="20.25" x14ac:dyDescent="0.45">
+      <c r="D148" s="1" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A149" t="s">
         <v>148</v>
       </c>
-      <c r="D149" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",E149)</f>
+      <c r="B149" t="str">
+        <f>_xlfn.CONCAT("Arrive-&gt;",C149)</f>
         <v>Arrive-&gt;H-Waterville- JFK</v>
       </c>
-      <c r="E149" t="s">
+      <c r="C149" t="s">
         <v>409</v>
       </c>
-      <c r="F149" s="1" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="150" spans="1:6" ht="20.25" x14ac:dyDescent="0.45">
+      <c r="D149" s="1" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A150" t="s">
         <v>149</v>
       </c>
-      <c r="D150" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",E150)</f>
+      <c r="B150" t="str">
+        <f>_xlfn.CONCAT("Arrive-&gt;",C150)</f>
         <v>Arrive-&gt;H-Wells</v>
       </c>
-      <c r="E150" t="s">
+      <c r="C150" t="s">
         <v>410</v>
       </c>
-      <c r="F150" s="1" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="151" spans="1:6" ht="20.25" x14ac:dyDescent="0.45">
+      <c r="D150" s="1" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A151" t="s">
         <v>150</v>
       </c>
-      <c r="D151" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",E151)</f>
+      <c r="B151" t="str">
+        <f>_xlfn.CONCAT("Arrive-&gt;",C151)</f>
         <v>Arrive-&gt;H-West Lebanon</v>
       </c>
-      <c r="E151" t="s">
+      <c r="C151" t="s">
         <v>411</v>
       </c>
-      <c r="F151" s="1" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="152" spans="1:6" ht="20.25" x14ac:dyDescent="0.45">
+      <c r="D151" s="1" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A152" t="s">
         <v>151</v>
       </c>
-      <c r="D152" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",E152)</f>
+      <c r="B152" t="str">
+        <f>_xlfn.CONCAT("Arrive-&gt;",C152)</f>
         <v>Arrive-&gt;H-Westbrook</v>
       </c>
-      <c r="E152" t="s">
+      <c r="C152" t="s">
         <v>412</v>
       </c>
-      <c r="F152" s="1" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="153" spans="1:6" ht="20.25" x14ac:dyDescent="0.45">
+      <c r="D152" s="1" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A153" t="s">
         <v>152</v>
       </c>
-      <c r="D153" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",E153)</f>
+      <c r="B153" t="str">
+        <f>_xlfn.CONCAT("Arrive-&gt;",C153)</f>
         <v>Arrive-&gt;H-Willow St (Augusta)</v>
       </c>
-      <c r="E153" t="s">
+      <c r="C153" t="s">
         <v>413</v>
       </c>
-      <c r="F153" s="1" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="154" spans="1:6" ht="20.25" x14ac:dyDescent="0.45">
+      <c r="D153" s="1" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A154" t="s">
         <v>153</v>
       </c>
-      <c r="D154" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",E154)</f>
+      <c r="B154" t="str">
+        <f>_xlfn.CONCAT("Arrive-&gt;",C154)</f>
         <v>Arrive-&gt;H-Windham</v>
       </c>
-      <c r="E154" t="s">
+      <c r="C154" t="s">
         <v>414</v>
       </c>
-      <c r="F154" s="1" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="155" spans="1:6" ht="20.25" x14ac:dyDescent="0.45">
+      <c r="D154" s="1" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A155" t="s">
         <v>154</v>
       </c>
-      <c r="D155" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",E155)</f>
+      <c r="B155" t="str">
+        <f>_xlfn.CONCAT("Arrive-&gt;",C155)</f>
         <v>Arrive-&gt;H-Winthrop</v>
       </c>
-      <c r="E155" t="s">
+      <c r="C155" t="s">
         <v>415</v>
       </c>
-      <c r="F155" s="1" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="156" spans="1:6" ht="20.25" x14ac:dyDescent="0.45">
+      <c r="D155" s="1" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A156" t="s">
         <v>155</v>
       </c>
-      <c r="D156" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",E156)</f>
+      <c r="B156" t="str">
+        <f>_xlfn.CONCAT("Arrive-&gt;",C156)</f>
         <v>Arrive-&gt;H-Yarmouth</v>
       </c>
-      <c r="E156" t="s">
+      <c r="C156" t="s">
         <v>416</v>
       </c>
-      <c r="F156" s="1" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="157" spans="1:6" ht="20.25" x14ac:dyDescent="0.45">
+      <c r="D156" s="1" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A157" t="s">
         <v>156</v>
       </c>
-      <c r="D157" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",E157)</f>
+      <c r="B157" t="str">
+        <f>_xlfn.CONCAT("Arrive-&gt;",C157)</f>
         <v>Arrive-&gt;H-York</v>
       </c>
-      <c r="E157" t="s">
+      <c r="C157" t="s">
         <v>417</v>
       </c>
-      <c r="F157" s="1" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="158" spans="1:6" ht="20.25" x14ac:dyDescent="0.45">
+      <c r="D157" s="1" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A158" t="s">
         <v>157</v>
       </c>
-      <c r="D158" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",E158)</f>
+      <c r="B158" t="str">
+        <f>_xlfn.CONCAT("Arrive-&gt;",C158)</f>
         <v>Arrive-&gt;IFS</v>
       </c>
-      <c r="E158" t="s">
+      <c r="C158" t="s">
         <v>418</v>
       </c>
-      <c r="F158" s="1" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="159" spans="1:6" ht="20.25" x14ac:dyDescent="0.45">
+      <c r="D158" s="1" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A159" t="s">
         <v>158</v>
       </c>
-      <c r="D159" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",E159)</f>
+      <c r="B159" t="str">
+        <f>_xlfn.CONCAT("Arrive-&gt;",C159)</f>
         <v>Arrive-&gt;IGA - Central (Winchendon)</v>
       </c>
-      <c r="E159" t="s">
+      <c r="C159" t="s">
         <v>419</v>
       </c>
-      <c r="F159" s="1" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="160" spans="1:6" ht="20.25" x14ac:dyDescent="0.45">
+      <c r="D159" s="1" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A160" t="s">
         <v>159</v>
       </c>
-      <c r="D160" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",E160)</f>
+      <c r="B160" t="str">
+        <f>_xlfn.CONCAT("Arrive-&gt;",C160)</f>
         <v>Arrive-&gt;IGA - Goggins (Randolph)</v>
       </c>
-      <c r="E160" t="s">
+      <c r="C160" t="s">
         <v>420</v>
       </c>
-      <c r="F160" s="1" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="161" spans="1:6" ht="20.25" x14ac:dyDescent="0.45">
+      <c r="D160" s="1" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A161" t="s">
         <v>160</v>
       </c>
-      <c r="D161" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",E161)</f>
+      <c r="B161" t="str">
+        <f>_xlfn.CONCAT("Arrive-&gt;",C161)</f>
         <v>Arrive-&gt;IGA - Pangburn (Millinocket)</v>
       </c>
-      <c r="E161" t="s">
+      <c r="C161" t="s">
         <v>421</v>
       </c>
-      <c r="F161" s="1" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="162" spans="1:6" ht="20.25" x14ac:dyDescent="0.45">
+      <c r="D161" s="1" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A162" t="s">
         <v>161</v>
       </c>
-      <c r="D162" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",E162)</f>
+      <c r="B162" t="str">
+        <f>_xlfn.CONCAT("Arrive-&gt;",C162)</f>
         <v>Arrive-&gt;IGA - Pond Cove (Cape Elizabeth)</v>
       </c>
-      <c r="E162" t="s">
+      <c r="C162" t="s">
         <v>422</v>
       </c>
-      <c r="F162" s="1" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="163" spans="1:6" ht="20.25" x14ac:dyDescent="0.45">
+      <c r="D162" s="1" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A163" t="s">
         <v>162</v>
       </c>
-      <c r="D163" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",E163)</f>
+      <c r="B163" t="str">
+        <f>_xlfn.CONCAT("Arrive-&gt;",C163)</f>
         <v>Arrive-&gt;IGA - Trenton (Trenton)</v>
       </c>
-      <c r="E163" t="s">
+      <c r="C163" t="s">
         <v>423</v>
       </c>
-      <c r="F163" s="1" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="164" spans="1:6" ht="20.25" x14ac:dyDescent="0.45">
+      <c r="D163" s="1" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A164" t="s">
         <v>163</v>
       </c>
-      <c r="D164" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",E164)</f>
+      <c r="B164" t="str">
+        <f>_xlfn.CONCAT("Arrive-&gt;",C164)</f>
         <v>Arrive-&gt;Irving Houlton Big Stop</v>
       </c>
-      <c r="E164" t="s">
+      <c r="C164" t="s">
         <v>424</v>
       </c>
-      <c r="F164" s="1" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="165" spans="1:6" ht="20.25" x14ac:dyDescent="0.45">
+      <c r="D164" s="1" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A165" t="s">
         <v>164</v>
       </c>
-      <c r="D165" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",E165)</f>
+      <c r="B165" t="str">
+        <f>_xlfn.CONCAT("Arrive-&gt;",C165)</f>
         <v>Arrive-&gt;K - Concord</v>
       </c>
-      <c r="E165" t="s">
+      <c r="C165" t="s">
         <v>425</v>
       </c>
-      <c r="F165" s="1" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="166" spans="1:6" ht="20.25" x14ac:dyDescent="0.45">
+      <c r="D165" s="1" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A166" t="s">
         <v>165</v>
       </c>
-      <c r="D166" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",E166)</f>
+      <c r="B166" t="str">
+        <f>_xlfn.CONCAT("Arrive-&gt;",C166)</f>
         <v>Arrive-&gt;K - Dover - Central Ave</v>
       </c>
-      <c r="E166" t="s">
+      <c r="C166" t="s">
         <v>426</v>
       </c>
-      <c r="F166" s="1" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="167" spans="1:6" ht="20.25" x14ac:dyDescent="0.45">
+      <c r="D166" s="1" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A167" t="s">
         <v>166</v>
       </c>
-      <c r="D167" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",E167)</f>
+      <c r="B167" t="str">
+        <f>_xlfn.CONCAT("Arrive-&gt;",C167)</f>
         <v>Arrive-&gt;K - Hanover St</v>
       </c>
-      <c r="E167" t="s">
+      <c r="C167" t="s">
         <v>427</v>
       </c>
-      <c r="F167" s="1" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="168" spans="1:6" ht="20.25" x14ac:dyDescent="0.45">
+      <c r="D167" s="1" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A168" t="s">
         <v>167</v>
       </c>
-      <c r="D168" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",E168)</f>
+      <c r="B168" t="str">
+        <f>_xlfn.CONCAT("Arrive-&gt;",C168)</f>
         <v>Arrive-&gt;K - Lee</v>
       </c>
-      <c r="E168" t="s">
+      <c r="C168" t="s">
         <v>428</v>
       </c>
-      <c r="F168" s="1" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="169" spans="1:6" ht="20.25" x14ac:dyDescent="0.45">
+      <c r="D168" s="1" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A169" t="s">
         <v>168</v>
       </c>
-      <c r="D169" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",E169)</f>
+      <c r="B169" t="str">
+        <f>_xlfn.CONCAT("Arrive-&gt;",C169)</f>
         <v>Arrive-&gt;K- South Willow St</v>
       </c>
-      <c r="E169" t="s">
+      <c r="C169" t="s">
         <v>429</v>
       </c>
-      <c r="F169" s="1" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="170" spans="1:6" ht="20.25" x14ac:dyDescent="0.45">
+      <c r="D169" s="1" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A170" t="s">
         <v>169</v>
       </c>
-      <c r="D170" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",E170)</f>
+      <c r="B170" t="str">
+        <f>_xlfn.CONCAT("Arrive-&gt;",C170)</f>
         <v>Arrive-&gt;Kris - Way South Portland</v>
       </c>
-      <c r="E170" t="s">
+      <c r="C170" t="s">
         <v>430</v>
       </c>
-      <c r="F170" s="1" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="171" spans="1:6" ht="20.25" x14ac:dyDescent="0.45">
+      <c r="D170" s="1" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A171" t="s">
         <v>170</v>
       </c>
-      <c r="D171" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",E171)</f>
+      <c r="B171" t="str">
+        <f>_xlfn.CONCAT("Arrive-&gt;",C171)</f>
         <v>Arrive-&gt;Lovell Lake Sanbornville</v>
       </c>
-      <c r="E171" t="s">
+      <c r="C171" t="s">
         <v>431</v>
       </c>
-      <c r="F171" s="1" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="172" spans="1:6" ht="20.25" x14ac:dyDescent="0.45">
+      <c r="D171" s="1" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A172" t="s">
         <v>171</v>
       </c>
-      <c r="D172" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",E172)</f>
+      <c r="B172" t="str">
+        <f>_xlfn.CONCAT("Arrive-&gt;",C172)</f>
         <v>Arrive-&gt;Manafords - Jonesport</v>
       </c>
-      <c r="E172" t="s">
+      <c r="C172" t="s">
         <v>432</v>
       </c>
-      <c r="F172" s="1" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="173" spans="1:6" ht="20.25" x14ac:dyDescent="0.45">
+      <c r="D172" s="1" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A173" t="s">
         <v>172</v>
       </c>
-      <c r="D173" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",E173)</f>
+      <c r="B173" t="str">
+        <f>_xlfn.CONCAT("Arrive-&gt;",C173)</f>
         <v>Arrive-&gt;Mk-Danvers</v>
       </c>
-      <c r="E173" t="s">
+      <c r="C173" t="s">
         <v>433</v>
       </c>
-      <c r="F173" s="1" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="174" spans="1:6" ht="20.25" x14ac:dyDescent="0.45">
+      <c r="D173" s="1" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A174" t="s">
         <v>173</v>
       </c>
-      <c r="D174" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",E174)</f>
+      <c r="B174" t="str">
+        <f>_xlfn.CONCAT("Arrive-&gt;",C174)</f>
         <v>Arrive-&gt;Mk-Everett</v>
       </c>
-      <c r="E174" t="s">
+      <c r="C174" t="s">
         <v>434</v>
       </c>
-      <c r="F174" s="1" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="175" spans="1:6" ht="20.25" x14ac:dyDescent="0.45">
+      <c r="D174" s="1" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A175" t="s">
         <v>174</v>
       </c>
-      <c r="D175" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",E175)</f>
+      <c r="B175" t="str">
+        <f>_xlfn.CONCAT("Arrive-&gt;",C175)</f>
         <v>Arrive-&gt;Nature's Way</v>
       </c>
-      <c r="E175" t="s">
+      <c r="C175" t="s">
         <v>435</v>
       </c>
-      <c r="F175" s="1" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="176" spans="1:6" ht="20.25" x14ac:dyDescent="0.45">
+      <c r="D175" s="1" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A176" t="s">
         <v>175</v>
       </c>
-      <c r="D176" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",E176)</f>
+      <c r="B176" t="str">
+        <f>_xlfn.CONCAT("Arrive-&gt;",C176)</f>
         <v>Arrive-&gt;Onset Village Market (Onset)</v>
       </c>
-      <c r="E176" t="s">
+      <c r="C176" t="s">
         <v>436</v>
       </c>
-      <c r="F176" s="1" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="177" spans="1:6" ht="20.25" x14ac:dyDescent="0.45">
+      <c r="D176" s="1" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A177" t="s">
         <v>176</v>
       </c>
-      <c r="D177" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",E177)</f>
+      <c r="B177" t="str">
+        <f>_xlfn.CONCAT("Arrive-&gt;",C177)</f>
         <v>Arrive-&gt;Overnight Stop Location - Bangor</v>
       </c>
-      <c r="E177" t="s">
+      <c r="C177" t="s">
         <v>437</v>
       </c>
-      <c r="F177" s="1" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="178" spans="1:6" ht="20.25" x14ac:dyDescent="0.45">
+      <c r="D177" s="1" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A178" t="s">
         <v>177</v>
       </c>
-      <c r="D178" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",E178)</f>
+      <c r="B178" t="str">
+        <f>_xlfn.CONCAT("Arrive-&gt;",C178)</f>
         <v>Arrive-&gt;Overnight Stop Location - Ellsworth</v>
       </c>
-      <c r="E178" t="s">
+      <c r="C178" t="s">
         <v>438</v>
       </c>
-      <c r="F178" s="1" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="179" spans="1:6" ht="20.25" x14ac:dyDescent="0.45">
+      <c r="D178" s="1" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A179" t="s">
         <v>178</v>
       </c>
-      <c r="D179" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",E179)</f>
+      <c r="B179" t="str">
+        <f>_xlfn.CONCAT("Arrive-&gt;",C179)</f>
         <v>Arrive-&gt;Overnight Stop Location - Newport</v>
       </c>
-      <c r="E179" t="s">
+      <c r="C179" t="s">
         <v>439</v>
       </c>
-      <c r="F179" s="1" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="180" spans="1:6" ht="20.25" x14ac:dyDescent="0.45">
+      <c r="D179" s="1" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A180" t="s">
         <v>179</v>
       </c>
-      <c r="D180" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",E180)</f>
+      <c r="B180" t="str">
+        <f>_xlfn.CONCAT("Arrive-&gt;",C180)</f>
         <v>Arrive-&gt;Pequet Highlands</v>
       </c>
-      <c r="E180" t="s">
+      <c r="C180" t="s">
         <v>440</v>
       </c>
-      <c r="F180" s="1" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="181" spans="1:6" ht="20.25" x14ac:dyDescent="0.45">
+      <c r="D180" s="1" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A181" t="s">
         <v>180</v>
       </c>
-      <c r="D181" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",E181)</f>
+      <c r="B181" t="str">
+        <f>_xlfn.CONCAT("Arrive-&gt;",C181)</f>
         <v>Arrive-&gt;Plumb Market (Rochester)</v>
       </c>
-      <c r="E181" t="s">
+      <c r="C181" t="s">
         <v>441</v>
       </c>
-      <c r="F181" s="1" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="182" spans="1:6" ht="20.25" x14ac:dyDescent="0.45">
+      <c r="D181" s="1" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A182" t="s">
         <v>181</v>
       </c>
-      <c r="D182" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",E182)</f>
+      <c r="B182" t="str">
+        <f>_xlfn.CONCAT("Arrive-&gt;",C182)</f>
         <v>Arrive-&gt;Putnam Gardens</v>
       </c>
-      <c r="E182" t="s">
+      <c r="C182" t="s">
         <v>442</v>
       </c>
-      <c r="F182" s="1" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="183" spans="1:6" ht="20.25" x14ac:dyDescent="0.45">
+      <c r="D182" s="1" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A183" t="s">
         <v>182</v>
       </c>
-      <c r="D183" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",E183)</f>
+      <c r="B183" t="str">
+        <f>_xlfn.CONCAT("Arrive-&gt;",C183)</f>
         <v>Arrive-&gt;Redwood Terrace Apartment</v>
       </c>
-      <c r="E183" t="s">
+      <c r="C183" t="s">
         <v>443</v>
       </c>
-      <c r="F183" s="1" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="184" spans="1:6" ht="20.25" x14ac:dyDescent="0.45">
+      <c r="D183" s="1" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A184" t="s">
         <v>183</v>
       </c>
-      <c r="D184" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",E184)</f>
+      <c r="B184" t="str">
+        <f>_xlfn.CONCAT("Arrive-&gt;",C184)</f>
         <v>Arrive-&gt;Roseland Nursery</v>
       </c>
-      <c r="E184" t="s">
+      <c r="C184" t="s">
         <v>444</v>
       </c>
-      <c r="F184" s="1" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="185" spans="1:6" ht="20.25" x14ac:dyDescent="0.45">
+      <c r="D184" s="1" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A185" t="s">
         <v>184</v>
       </c>
-      <c r="D185" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",E185)</f>
+      <c r="B185" t="str">
+        <f>_xlfn.CONCAT("Arrive-&gt;",C185)</f>
         <v>Arrive-&gt;S - Bangor</v>
       </c>
-      <c r="E185" t="s">
+      <c r="C185" t="s">
         <v>445</v>
       </c>
-      <c r="F185" s="1" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="186" spans="1:6" ht="20.25" x14ac:dyDescent="0.45">
+      <c r="D185" s="1" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A186" t="s">
         <v>185</v>
       </c>
-      <c r="D186" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",E186)</f>
+      <c r="B186" t="str">
+        <f>_xlfn.CONCAT("Arrive-&gt;",C186)</f>
         <v>Arrive-&gt;S - Dover Foxcroft</v>
       </c>
-      <c r="E186" t="s">
+      <c r="C186" t="s">
         <v>446</v>
       </c>
-      <c r="F186" s="1" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="187" spans="1:6" ht="20.25" x14ac:dyDescent="0.45">
+      <c r="D186" s="1" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A187" t="s">
         <v>186</v>
       </c>
-      <c r="D187" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",E187)</f>
+      <c r="B187" t="str">
+        <f>_xlfn.CONCAT("Arrive-&gt;",C187)</f>
         <v>Arrive-&gt;S - Gloucester</v>
       </c>
-      <c r="E187" t="s">
+      <c r="C187" t="s">
         <v>447</v>
       </c>
-      <c r="F187" s="1" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="188" spans="1:6" ht="20.25" x14ac:dyDescent="0.45">
+      <c r="D187" s="1" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A188" t="s">
         <v>187</v>
       </c>
-      <c r="D188" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",E188)</f>
+      <c r="B188" t="str">
+        <f>_xlfn.CONCAT("Arrive-&gt;",C188)</f>
         <v>Arrive-&gt;S - HydePark</v>
       </c>
-      <c r="E188" t="s">
+      <c r="C188" t="s">
         <v>448</v>
       </c>
-      <c r="F188" s="1" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="189" spans="1:6" ht="20.25" x14ac:dyDescent="0.45">
+      <c r="D188" s="1" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A189" t="s">
         <v>188</v>
       </c>
-      <c r="D189" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",E189)</f>
+      <c r="B189" t="str">
+        <f>_xlfn.CONCAT("Arrive-&gt;",C189)</f>
         <v>Arrive-&gt;S - Keene</v>
       </c>
-      <c r="E189" t="s">
+      <c r="C189" t="s">
         <v>449</v>
       </c>
-      <c r="F189" s="1" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="190" spans="1:6" ht="20.25" x14ac:dyDescent="0.45">
+      <c r="D189" s="1" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A190" t="s">
         <v>189</v>
       </c>
-      <c r="D190" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",E190)</f>
+      <c r="B190" t="str">
+        <f>_xlfn.CONCAT("Arrive-&gt;",C190)</f>
         <v>Arrive-&gt;S - Leominster</v>
       </c>
-      <c r="E190" t="s">
+      <c r="C190" t="s">
         <v>450</v>
       </c>
-      <c r="F190" s="1" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="191" spans="1:6" ht="20.25" x14ac:dyDescent="0.45">
+      <c r="D190" s="1" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A191" t="s">
         <v>190</v>
       </c>
-      <c r="D191" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",E191)</f>
+      <c r="B191" t="str">
+        <f>_xlfn.CONCAT("Arrive-&gt;",C191)</f>
         <v>Arrive-&gt;S - Lynn</v>
       </c>
-      <c r="E191" t="s">
+      <c r="C191" t="s">
         <v>451</v>
       </c>
-      <c r="F191" s="1" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="192" spans="1:6" ht="20.25" x14ac:dyDescent="0.45">
+      <c r="D191" s="1" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A192" t="s">
         <v>191</v>
       </c>
-      <c r="D192" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",E192)</f>
+      <c r="B192" t="str">
+        <f>_xlfn.CONCAT("Arrive-&gt;",C192)</f>
         <v>Arrive-&gt;S - Manchester</v>
       </c>
-      <c r="E192" t="s">
+      <c r="C192" t="s">
         <v>452</v>
       </c>
-      <c r="F192" s="1" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="193" spans="1:6" ht="20.25" x14ac:dyDescent="0.45">
+      <c r="D192" s="1" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A193" t="s">
         <v>192</v>
       </c>
-      <c r="D193" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",E193)</f>
+      <c r="B193" t="str">
+        <f>_xlfn.CONCAT("Arrive-&gt;",C193)</f>
         <v>Arrive-&gt;S - Medford</v>
       </c>
-      <c r="E193" t="s">
+      <c r="C193" t="s">
         <v>453</v>
       </c>
-      <c r="F193" s="1" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="194" spans="1:6" ht="20.25" x14ac:dyDescent="0.45">
+      <c r="D193" s="1" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A194" t="s">
         <v>193</v>
       </c>
-      <c r="D194" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",E194)</f>
+      <c r="B194" t="str">
+        <f>_xlfn.CONCAT("Arrive-&gt;",C194)</f>
         <v>Arrive-&gt;S - Salem</v>
       </c>
-      <c r="E194" t="s">
+      <c r="C194" t="s">
         <v>454</v>
       </c>
-      <c r="F194" s="1" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="195" spans="1:6" ht="20.25" x14ac:dyDescent="0.45">
+      <c r="D194" s="1" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A195" t="s">
         <v>194</v>
       </c>
-      <c r="D195" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",E195)</f>
+      <c r="B195" t="str">
+        <f>_xlfn.CONCAT("Arrive-&gt;",C195)</f>
         <v>Arrive-&gt;S - Seabrook</v>
       </c>
-      <c r="E195" t="s">
+      <c r="C195" t="s">
         <v>455</v>
       </c>
-      <c r="F195" s="1" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="196" spans="1:6" ht="20.25" x14ac:dyDescent="0.45">
+      <c r="D195" s="1" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A196" t="s">
         <v>195</v>
       </c>
-      <c r="D196" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",E196)</f>
+      <c r="B196" t="str">
+        <f>_xlfn.CONCAT("Arrive-&gt;",C196)</f>
         <v>Arrive-&gt;S - Tilton</v>
       </c>
-      <c r="E196" t="s">
+      <c r="C196" t="s">
         <v>456</v>
       </c>
-      <c r="F196" s="1" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="197" spans="1:6" ht="20.25" x14ac:dyDescent="0.45">
+      <c r="D196" s="1" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A197" t="s">
         <v>196</v>
       </c>
-      <c r="D197" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",E197)</f>
+      <c r="B197" t="str">
+        <f>_xlfn.CONCAT("Arrive-&gt;",C197)</f>
         <v>Arrive-&gt;S - Webster</v>
       </c>
-      <c r="E197" t="s">
+      <c r="C197" t="s">
         <v>457</v>
       </c>
-      <c r="F197" s="1" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="198" spans="1:6" ht="20.25" x14ac:dyDescent="0.45">
+      <c r="D197" s="1" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A198" t="s">
         <v>197</v>
       </c>
-      <c r="D198" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",E198)</f>
+      <c r="B198" t="str">
+        <f>_xlfn.CONCAT("Arrive-&gt;",C198)</f>
         <v>Arrive-&gt;S - West Lebanon</v>
       </c>
-      <c r="E198" t="s">
+      <c r="C198" t="s">
         <v>458</v>
       </c>
-      <c r="F198" s="1" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="199" spans="1:6" ht="20.25" x14ac:dyDescent="0.45">
+      <c r="D198" s="1" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A199" t="s">
         <v>198</v>
       </c>
-      <c r="D199" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",E199)</f>
+      <c r="B199" t="str">
+        <f>_xlfn.CONCAT("Arrive-&gt;",C199)</f>
         <v>Arrive-&gt;S - Worcester</v>
       </c>
-      <c r="E199" t="s">
+      <c r="C199" t="s">
         <v>459</v>
       </c>
-      <c r="F199" s="1" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="200" spans="1:6" ht="20.25" x14ac:dyDescent="0.45">
+      <c r="D199" s="1" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A200" t="s">
         <v>199</v>
       </c>
-      <c r="D200" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",E200)</f>
+      <c r="B200" t="str">
+        <f>_xlfn.CONCAT("Arrive-&gt;",C200)</f>
         <v>Arrive-&gt;Shaw Farm</v>
       </c>
-      <c r="E200" t="s">
+      <c r="C200" t="s">
         <v>460</v>
       </c>
-      <c r="F200" s="1" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="201" spans="1:6" ht="20.25" x14ac:dyDescent="0.45">
+      <c r="D200" s="1" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A201" t="s">
         <v>200</v>
       </c>
-      <c r="D201" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",E201)</f>
+      <c r="B201" t="str">
+        <f>_xlfn.CONCAT("Arrive-&gt;",C201)</f>
         <v>Arrive-&gt;T-Boston-Boylston</v>
       </c>
-      <c r="E201" t="s">
+      <c r="C201" t="s">
         <v>461</v>
       </c>
-      <c r="F201" s="1" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="202" spans="1:6" ht="20.25" x14ac:dyDescent="0.45">
+      <c r="D201" s="1" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A202" t="s">
         <v>201</v>
       </c>
-      <c r="D202" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",E202)</f>
+      <c r="B202" t="str">
+        <f>_xlfn.CONCAT("Arrive-&gt;",C202)</f>
         <v>Arrive-&gt;T-Boston-Cambridge St</v>
       </c>
-      <c r="E202" t="s">
+      <c r="C202" t="s">
         <v>462</v>
       </c>
-      <c r="F202" s="1" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="203" spans="1:6" ht="20.25" x14ac:dyDescent="0.45">
+      <c r="D202" s="1" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A203" t="s">
         <v>202</v>
       </c>
-      <c r="D203" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",E203)</f>
+      <c r="B203" t="str">
+        <f>_xlfn.CONCAT("Arrive-&gt;",C203)</f>
         <v>Arrive-&gt;T-Boston-State St</v>
       </c>
-      <c r="E203" t="s">
+      <c r="C203" t="s">
         <v>463</v>
       </c>
-      <c r="F203" s="1" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="204" spans="1:6" ht="20.25" x14ac:dyDescent="0.45">
+      <c r="D203" s="1" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A204" t="s">
         <v>203</v>
       </c>
-      <c r="D204" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",E204)</f>
+      <c r="B204" t="str">
+        <f>_xlfn.CONCAT("Arrive-&gt;",C204)</f>
         <v>Arrive-&gt;T-Cambridge-Broadway</v>
       </c>
-      <c r="E204" t="s">
+      <c r="C204" t="s">
         <v>464</v>
       </c>
-      <c r="F204" s="1" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="205" spans="1:6" ht="20.25" x14ac:dyDescent="0.45">
+      <c r="D204" s="1" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A205" t="s">
         <v>204</v>
       </c>
-      <c r="D205" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",E205)</f>
+      <c r="B205" t="str">
+        <f>_xlfn.CONCAT("Arrive-&gt;",C205)</f>
         <v>Arrive-&gt;T-Charlestown-Main St</v>
       </c>
-      <c r="E205" t="s">
+      <c r="C205" t="s">
         <v>465</v>
       </c>
-      <c r="F205" s="1" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="206" spans="1:6" ht="20.25" x14ac:dyDescent="0.45">
+      <c r="D205" s="1" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A206" t="s">
         <v>205</v>
       </c>
-      <c r="D206" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",E206)</f>
+      <c r="B206" t="str">
+        <f>_xlfn.CONCAT("Arrive-&gt;",C206)</f>
         <v>Arrive-&gt;T-Chelsea-Broadway</v>
       </c>
-      <c r="E206" t="s">
+      <c r="C206" t="s">
         <v>466</v>
       </c>
-      <c r="F206" s="1" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="207" spans="1:6" ht="20.25" x14ac:dyDescent="0.45">
+      <c r="D206" s="1" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A207" t="s">
         <v>206</v>
       </c>
-      <c r="D207" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",E207)</f>
+      <c r="B207" t="str">
+        <f>_xlfn.CONCAT("Arrive-&gt;",C207)</f>
         <v>Arrive-&gt;T-Chelsea-Washington</v>
       </c>
-      <c r="E207" t="s">
+      <c r="C207" t="s">
         <v>467</v>
       </c>
-      <c r="F207" s="1" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="208" spans="1:6" ht="20.25" x14ac:dyDescent="0.45">
+      <c r="D207" s="1" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A208" t="s">
         <v>207</v>
       </c>
-      <c r="D208" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",E208)</f>
+      <c r="B208" t="str">
+        <f>_xlfn.CONCAT("Arrive-&gt;",C208)</f>
         <v>Arrive-&gt;T-Concord-Village St</v>
       </c>
-      <c r="E208" t="s">
+      <c r="C208" t="s">
         <v>468</v>
       </c>
-      <c r="F208" s="1" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="209" spans="1:6" ht="20.25" x14ac:dyDescent="0.45">
+      <c r="D208" s="1" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A209" t="s">
         <v>208</v>
       </c>
-      <c r="D209" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",E209)</f>
+      <c r="B209" t="str">
+        <f>_xlfn.CONCAT("Arrive-&gt;",C209)</f>
         <v>Arrive-&gt;T-Dorchester-1420 Dorchester</v>
       </c>
-      <c r="E209" t="s">
+      <c r="C209" t="s">
         <v>469</v>
       </c>
-      <c r="F209" s="1" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="210" spans="1:6" ht="20.25" x14ac:dyDescent="0.45">
+      <c r="D209" s="1" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A210" t="s">
         <v>209</v>
       </c>
-      <c r="D210" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",E210)</f>
+      <c r="B210" t="str">
+        <f>_xlfn.CONCAT("Arrive-&gt;",C210)</f>
         <v>Arrive-&gt;T-Dorchester-1580 Dorchester</v>
       </c>
-      <c r="E210" t="s">
+      <c r="C210" t="s">
         <v>470</v>
       </c>
-      <c r="F210" s="1" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="211" spans="1:6" ht="20.25" x14ac:dyDescent="0.45">
+      <c r="D210" s="1" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A211" t="s">
         <v>210</v>
       </c>
-      <c r="D211" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",E211)</f>
+      <c r="B211" t="str">
+        <f>_xlfn.CONCAT("Arrive-&gt;",C211)</f>
         <v>Arrive-&gt;T-Dorchester-Neponset Ave</v>
       </c>
-      <c r="E211" t="s">
+      <c r="C211" t="s">
         <v>471</v>
       </c>
-      <c r="F211" s="1" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="212" spans="1:6" ht="20.25" x14ac:dyDescent="0.45">
+      <c r="D211" s="1" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A212" t="s">
         <v>211</v>
       </c>
-      <c r="D212" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",E212)</f>
+      <c r="B212" t="str">
+        <f>_xlfn.CONCAT("Arrive-&gt;",C212)</f>
         <v>Arrive-&gt;T-Dover-Central Ave</v>
       </c>
-      <c r="E212" t="s">
+      <c r="C212" t="s">
         <v>472</v>
       </c>
-      <c r="F212" s="1" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="213" spans="1:6" ht="20.25" x14ac:dyDescent="0.45">
+      <c r="D212" s="1" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A213" t="s">
         <v>212</v>
       </c>
-      <c r="D213" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",E213)</f>
+      <c r="B213" t="str">
+        <f>_xlfn.CONCAT("Arrive-&gt;",C213)</f>
         <v>Arrive-&gt;T-Everett-Broadway</v>
       </c>
-      <c r="E213" t="s">
+      <c r="C213" t="s">
         <v>473</v>
       </c>
-      <c r="F213" s="1" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="214" spans="1:6" ht="20.25" x14ac:dyDescent="0.45">
+      <c r="D213" s="1" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A214" t="s">
         <v>213</v>
       </c>
-      <c r="D214" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",E214)</f>
+      <c r="B214" t="str">
+        <f>_xlfn.CONCAT("Arrive-&gt;",C214)</f>
         <v>Arrive-&gt;T-Everett-Chelsea</v>
       </c>
-      <c r="E214" t="s">
+      <c r="C214" t="s">
         <v>474</v>
       </c>
-      <c r="F214" s="1" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="215" spans="1:6" ht="20.25" x14ac:dyDescent="0.45">
+      <c r="D214" s="1" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A215" t="s">
         <v>214</v>
       </c>
-      <c r="D215" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",E215)</f>
+      <c r="B215" t="str">
+        <f>_xlfn.CONCAT("Arrive-&gt;",C215)</f>
         <v>Arrive-&gt;T-Everett-Main</v>
       </c>
-      <c r="E215" t="s">
+      <c r="C215" t="s">
         <v>475</v>
       </c>
-      <c r="F215" s="1" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="216" spans="1:6" ht="20.25" x14ac:dyDescent="0.45">
+      <c r="D215" s="1" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A216" t="s">
         <v>215</v>
       </c>
-      <c r="D216" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",E216)</f>
+      <c r="B216" t="str">
+        <f>_xlfn.CONCAT("Arrive-&gt;",C216)</f>
         <v>Arrive-&gt;T-Everett-Revere Beach Pkwy</v>
       </c>
-      <c r="E216" t="s">
+      <c r="C216" t="s">
         <v>476</v>
       </c>
-      <c r="F216" s="1" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="217" spans="1:6" ht="20.25" x14ac:dyDescent="0.45">
+      <c r="D216" s="1" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A217" t="s">
         <v>216</v>
       </c>
-      <c r="D217" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",E217)</f>
+      <c r="B217" t="str">
+        <f>_xlfn.CONCAT("Arrive-&gt;",C217)</f>
         <v>Arrive-&gt;T-Fitchberg-Main</v>
       </c>
-      <c r="E217" t="s">
+      <c r="C217" t="s">
         <v>477</v>
       </c>
-      <c r="F217" s="1" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="218" spans="1:6" ht="20.25" x14ac:dyDescent="0.45">
+      <c r="D217" s="1" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A218" t="s">
         <v>217</v>
       </c>
-      <c r="D218" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",E218)</f>
+      <c r="B218" t="str">
+        <f>_xlfn.CONCAT("Arrive-&gt;",C218)</f>
         <v>Arrive-&gt;T-Framingham-Waverly</v>
       </c>
-      <c r="E218" t="s">
+      <c r="C218" t="s">
         <v>478</v>
       </c>
-      <c r="F218" s="1" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="219" spans="1:6" ht="20.25" x14ac:dyDescent="0.45">
+      <c r="D218" s="1" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A219" t="s">
         <v>218</v>
       </c>
-      <c r="D219" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",E219)</f>
+      <c r="B219" t="str">
+        <f>_xlfn.CONCAT("Arrive-&gt;",C219)</f>
         <v>Arrive-&gt;T-Franklin-Union St</v>
       </c>
-      <c r="E219" t="s">
+      <c r="C219" t="s">
         <v>479</v>
       </c>
-      <c r="F219" s="1" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="220" spans="1:6" ht="20.25" x14ac:dyDescent="0.45">
+      <c r="D219" s="1" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A220" t="s">
         <v>219</v>
       </c>
-      <c r="D220" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",E220)</f>
+      <c r="B220" t="str">
+        <f>_xlfn.CONCAT("Arrive-&gt;",C220)</f>
         <v>Arrive-&gt;T-Franklin-West Central St</v>
       </c>
-      <c r="E220" t="s">
+      <c r="C220" t="s">
         <v>480</v>
       </c>
-      <c r="F220" s="1" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="221" spans="1:6" ht="20.25" x14ac:dyDescent="0.45">
+      <c r="D220" s="1" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A221" t="s">
         <v>220</v>
       </c>
-      <c r="D221" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",E221)</f>
+      <c r="B221" t="str">
+        <f>_xlfn.CONCAT("Arrive-&gt;",C221)</f>
         <v>Arrive-&gt;T-Haverhill-Dudley St</v>
       </c>
-      <c r="E221" t="s">
+      <c r="C221" t="s">
         <v>481</v>
       </c>
-      <c r="F221" s="1" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="222" spans="1:6" ht="20.25" x14ac:dyDescent="0.45">
+      <c r="D221" s="1" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A222" t="s">
         <v>221</v>
       </c>
-      <c r="D222" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",E222)</f>
+      <c r="B222" t="str">
+        <f>_xlfn.CONCAT("Arrive-&gt;",C222)</f>
         <v>Arrive-&gt;T-Haverhill-Lafayette</v>
       </c>
-      <c r="E222" t="s">
+      <c r="C222" t="s">
         <v>482</v>
       </c>
-      <c r="F222" s="1" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="223" spans="1:6" ht="20.25" x14ac:dyDescent="0.45">
+      <c r="D222" s="1" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A223" t="s">
         <v>222</v>
       </c>
-      <c r="D223" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",E223)</f>
+      <c r="B223" t="str">
+        <f>_xlfn.CONCAT("Arrive-&gt;",C223)</f>
         <v>Arrive-&gt;The Umbrella Factory</v>
       </c>
-      <c r="E223" t="s">
+      <c r="C223" t="s">
         <v>483</v>
       </c>
-      <c r="F223" s="1" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="224" spans="1:6" ht="20.25" x14ac:dyDescent="0.45">
+      <c r="D223" s="1" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A224" t="s">
         <v>223</v>
       </c>
-      <c r="D224" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",E224)</f>
+      <c r="B224" t="str">
+        <f>_xlfn.CONCAT("Arrive-&gt;",C224)</f>
         <v>Arrive-&gt;T-Kingston-Summer St</v>
       </c>
-      <c r="E224" t="s">
+      <c r="C224" t="s">
         <v>484</v>
       </c>
-      <c r="F224" s="1" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="225" spans="1:6" ht="20.25" x14ac:dyDescent="0.45">
+      <c r="D224" s="1" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A225" t="s">
         <v>224</v>
       </c>
-      <c r="D225" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",E225)</f>
+      <c r="B225" t="str">
+        <f>_xlfn.CONCAT("Arrive-&gt;",C225)</f>
         <v>Arrive-&gt;T-Lawrence-S Union</v>
       </c>
-      <c r="E225" t="s">
+      <c r="C225" t="s">
         <v>485</v>
       </c>
-      <c r="F225" s="1" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="226" spans="1:6" ht="20.25" x14ac:dyDescent="0.45">
+      <c r="D225" s="1" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A226" t="s">
         <v>225</v>
       </c>
-      <c r="D226" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",E226)</f>
+      <c r="B226" t="str">
+        <f>_xlfn.CONCAT("Arrive-&gt;",C226)</f>
         <v>Arrive-&gt;T-Lowell-Bridge</v>
       </c>
-      <c r="E226" t="s">
+      <c r="C226" t="s">
         <v>486</v>
       </c>
-      <c r="F226" s="1" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="227" spans="1:6" ht="20.25" x14ac:dyDescent="0.45">
+      <c r="D226" s="1" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A227" t="s">
         <v>226</v>
       </c>
-      <c r="D227" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",E227)</f>
+      <c r="B227" t="str">
+        <f>_xlfn.CONCAT("Arrive-&gt;",C227)</f>
         <v>Arrive-&gt;T-Lowell-Chelmsford</v>
       </c>
-      <c r="E227" t="s">
+      <c r="C227" t="s">
         <v>487</v>
       </c>
-      <c r="F227" s="1" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="228" spans="1:6" ht="20.25" x14ac:dyDescent="0.45">
+      <c r="D227" s="1" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A228" t="s">
         <v>227</v>
       </c>
-      <c r="D228" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",E228)</f>
+      <c r="B228" t="str">
+        <f>_xlfn.CONCAT("Arrive-&gt;",C228)</f>
         <v>Arrive-&gt;T-Lowell-Gorham</v>
       </c>
-      <c r="E228" t="s">
+      <c r="C228" t="s">
         <v>488</v>
       </c>
-      <c r="F228" s="1" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="229" spans="1:6" ht="20.25" x14ac:dyDescent="0.45">
+      <c r="D228" s="1" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A229" t="s">
         <v>228</v>
       </c>
-      <c r="D229" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",E229)</f>
+      <c r="B229" t="str">
+        <f>_xlfn.CONCAT("Arrive-&gt;",C229)</f>
         <v>Arrive-&gt;T-Marshfield-Plain St</v>
       </c>
-      <c r="E229" t="s">
+      <c r="C229" t="s">
         <v>489</v>
       </c>
-      <c r="F229" s="1" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="230" spans="1:6" ht="20.25" x14ac:dyDescent="0.45">
+      <c r="D229" s="1" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A230" t="s">
         <v>229</v>
       </c>
-      <c r="D230" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",E230)</f>
+      <c r="B230" t="str">
+        <f>_xlfn.CONCAT("Arrive-&gt;",C230)</f>
         <v>Arrive-&gt;T-Medford-Main</v>
       </c>
-      <c r="E230" t="s">
+      <c r="C230" t="s">
         <v>490</v>
       </c>
-      <c r="F230" s="1" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="231" spans="1:6" ht="20.25" x14ac:dyDescent="0.45">
+      <c r="D230" s="1" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A231" t="s">
         <v>230</v>
       </c>
-      <c r="D231" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",E231)</f>
+      <c r="B231" t="str">
+        <f>_xlfn.CONCAT("Arrive-&gt;",C231)</f>
         <v>Arrive-&gt;T-Newton Highlands</v>
       </c>
-      <c r="E231" t="s">
+      <c r="C231" t="s">
         <v>491</v>
       </c>
-      <c r="F231" s="1" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="232" spans="1:6" ht="20.25" x14ac:dyDescent="0.45">
+      <c r="D231" s="1" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A232" t="s">
         <v>231</v>
       </c>
-      <c r="D232" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",E232)</f>
+      <c r="B232" t="str">
+        <f>_xlfn.CONCAT("Arrive-&gt;",C232)</f>
         <v>Arrive-&gt;T-Newton-Washington St</v>
       </c>
-      <c r="E232" t="s">
+      <c r="C232" t="s">
         <v>492</v>
       </c>
-      <c r="F232" s="1" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="233" spans="1:6" ht="20.25" x14ac:dyDescent="0.45">
+      <c r="D232" s="1" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A233" t="s">
         <v>232</v>
       </c>
-      <c r="D233" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",E233)</f>
+      <c r="B233" t="str">
+        <f>_xlfn.CONCAT("Arrive-&gt;",C233)</f>
         <v>Arrive-&gt;T-Newton-Winchester St</v>
       </c>
-      <c r="E233" t="s">
+      <c r="C233" t="s">
         <v>493</v>
       </c>
-      <c r="F233" s="1" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="234" spans="1:6" ht="20.25" x14ac:dyDescent="0.45">
+      <c r="D233" s="1" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A234" t="s">
         <v>233</v>
       </c>
-      <c r="D234" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",E234)</f>
+      <c r="B234" t="str">
+        <f>_xlfn.CONCAT("Arrive-&gt;",C234)</f>
         <v>Arrive-&gt;T-North Weymouth-Bridge St</v>
       </c>
-      <c r="E234" t="s">
+      <c r="C234" t="s">
         <v>494</v>
       </c>
-      <c r="F234" s="1" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="235" spans="1:6" ht="20.25" x14ac:dyDescent="0.45">
+      <c r="D234" s="1" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A235" t="s">
         <v>234</v>
       </c>
-      <c r="D235" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",E235)</f>
+      <c r="B235" t="str">
+        <f>_xlfn.CONCAT("Arrive-&gt;",C235)</f>
         <v>Arrive-&gt;T-North Weymouth-Sea St</v>
       </c>
-      <c r="E235" t="s">
+      <c r="C235" t="s">
         <v>495</v>
       </c>
-      <c r="F235" s="1" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="236" spans="1:6" ht="20.25" x14ac:dyDescent="0.45">
+      <c r="D235" s="1" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A236" t="s">
         <v>235</v>
       </c>
-      <c r="D236" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",E236)</f>
+      <c r="B236" t="str">
+        <f>_xlfn.CONCAT("Arrive-&gt;",C236)</f>
         <v>Arrive-&gt;Toziers (Searsport)</v>
       </c>
-      <c r="E236" t="s">
+      <c r="C236" t="s">
         <v>496</v>
       </c>
-      <c r="F236" s="1" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="237" spans="1:6" ht="20.25" x14ac:dyDescent="0.45">
+      <c r="D236" s="1" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A237" t="s">
         <v>236</v>
       </c>
-      <c r="D237" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",E237)</f>
+      <c r="B237" t="str">
+        <f>_xlfn.CONCAT("Arrive-&gt;",C237)</f>
         <v>Arrive-&gt;T-Peabody-Lowell St</v>
       </c>
-      <c r="E237" t="s">
+      <c r="C237" t="s">
         <v>497</v>
       </c>
-      <c r="F237" s="1" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="238" spans="1:6" ht="20.25" x14ac:dyDescent="0.45">
+      <c r="D237" s="1" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A238" t="s">
         <v>237</v>
       </c>
-      <c r="D238" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",E238)</f>
+      <c r="B238" t="str">
+        <f>_xlfn.CONCAT("Arrive-&gt;",C238)</f>
         <v>Arrive-&gt;T-Peabody-Main</v>
       </c>
-      <c r="E238" t="s">
+      <c r="C238" t="s">
         <v>498</v>
       </c>
-      <c r="F238" s="1" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="239" spans="1:6" ht="20.25" x14ac:dyDescent="0.45">
+      <c r="D238" s="1" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A239" t="s">
         <v>238</v>
       </c>
-      <c r="D239" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",E239)</f>
+      <c r="B239" t="str">
+        <f>_xlfn.CONCAT("Arrive-&gt;",C239)</f>
         <v>Arrive-&gt;T-Quincy-495 Washington St</v>
       </c>
-      <c r="E239" t="s">
+      <c r="C239" t="s">
         <v>499</v>
       </c>
-      <c r="F239" s="1" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="240" spans="1:6" ht="20.25" x14ac:dyDescent="0.45">
+      <c r="D239" s="1" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A240" t="s">
         <v>239</v>
       </c>
-      <c r="D240" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",E240)</f>
+      <c r="B240" t="str">
+        <f>_xlfn.CONCAT("Arrive-&gt;",C240)</f>
         <v>Arrive-&gt;T-Quincy-Adams St</v>
       </c>
-      <c r="E240" t="s">
+      <c r="C240" t="s">
         <v>500</v>
       </c>
-      <c r="F240" s="1" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="241" spans="1:6" ht="20.25" x14ac:dyDescent="0.45">
+      <c r="D240" s="1" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A241" t="s">
         <v>240</v>
       </c>
-      <c r="D241" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",E241)</f>
+      <c r="B241" t="str">
+        <f>_xlfn.CONCAT("Arrive-&gt;",C241)</f>
         <v>Arrive-&gt;T-Quincy-Quincy Ave</v>
       </c>
-      <c r="E241" t="s">
+      <c r="C241" t="s">
         <v>501</v>
       </c>
-      <c r="F241" s="1" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="242" spans="1:6" ht="20.25" x14ac:dyDescent="0.45">
+      <c r="D241" s="1" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A242" t="s">
         <v>241</v>
       </c>
-      <c r="D242" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",E242)</f>
+      <c r="B242" t="str">
+        <f>_xlfn.CONCAT("Arrive-&gt;",C242)</f>
         <v>Arrive-&gt;T-Quincy-Washington St</v>
       </c>
-      <c r="E242" t="s">
+      <c r="C242" t="s">
         <v>502</v>
       </c>
-      <c r="F242" s="1" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="243" spans="1:6" ht="20.25" x14ac:dyDescent="0.45">
+      <c r="D242" s="1" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A243" t="s">
         <v>242</v>
       </c>
-      <c r="D243" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",E243)</f>
+      <c r="B243" t="str">
+        <f>_xlfn.CONCAT("Arrive-&gt;",C243)</f>
         <v>Arrive-&gt;T-Raynham-North Main</v>
       </c>
-      <c r="E243" t="s">
+      <c r="C243" t="s">
         <v>503</v>
       </c>
-      <c r="F243" s="1" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="244" spans="1:6" ht="20.25" x14ac:dyDescent="0.45">
+      <c r="D243" s="1" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A244" t="s">
         <v>243</v>
       </c>
-      <c r="D244" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",E244)</f>
+      <c r="B244" t="str">
+        <f>_xlfn.CONCAT("Arrive-&gt;",C244)</f>
         <v>Arrive-&gt;T-Revere-Beach St</v>
       </c>
-      <c r="E244" t="s">
+      <c r="C244" t="s">
         <v>504</v>
       </c>
-      <c r="F244" s="1" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="245" spans="1:6" ht="20.25" x14ac:dyDescent="0.45">
+      <c r="D244" s="1" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A245" t="s">
         <v>244</v>
       </c>
-      <c r="D245" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",E245)</f>
+      <c r="B245" t="str">
+        <f>_xlfn.CONCAT("Arrive-&gt;",C245)</f>
         <v>Arrive-&gt;T-Revere-Shirly</v>
       </c>
-      <c r="E245" t="s">
+      <c r="C245" t="s">
         <v>505</v>
       </c>
-      <c r="F245" s="1" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="246" spans="1:6" ht="20.25" x14ac:dyDescent="0.45">
+      <c r="D245" s="1" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A246" t="s">
         <v>245</v>
       </c>
-      <c r="D246" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",E246)</f>
+      <c r="B246" t="str">
+        <f>_xlfn.CONCAT("Arrive-&gt;",C246)</f>
         <v>Arrive-&gt;T-Revere-Squire Rd</v>
       </c>
-      <c r="E246" t="s">
+      <c r="C246" t="s">
         <v>506</v>
       </c>
-      <c r="F246" s="1" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="247" spans="1:6" ht="20.25" x14ac:dyDescent="0.45">
+      <c r="D246" s="1" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A247" t="s">
         <v>246</v>
       </c>
-      <c r="D247" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",E247)</f>
+      <c r="B247" t="str">
+        <f>_xlfn.CONCAT("Arrive-&gt;",C247)</f>
         <v>Arrive-&gt;Trinity Terrace</v>
       </c>
-      <c r="E247" t="s">
+      <c r="C247" t="s">
         <v>507</v>
       </c>
-      <c r="F247" s="1" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="248" spans="1:6" ht="20.25" x14ac:dyDescent="0.45">
+      <c r="D247" s="1" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A248" t="s">
         <v>247</v>
       </c>
-      <c r="D248" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",E248)</f>
+      <c r="B248" t="str">
+        <f>_xlfn.CONCAT("Arrive-&gt;",C248)</f>
         <v>Arrive-&gt;T-Saugus-Lincoln Ave</v>
       </c>
-      <c r="E248" t="s">
+      <c r="C248" t="s">
         <v>508</v>
       </c>
-      <c r="F248" s="1" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="249" spans="1:6" ht="20.25" x14ac:dyDescent="0.45">
+      <c r="D248" s="1" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A249" t="s">
         <v>248</v>
       </c>
-      <c r="D249" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",E249)</f>
+      <c r="B249" t="str">
+        <f>_xlfn.CONCAT("Arrive-&gt;",C249)</f>
         <v>Arrive-&gt;T-Somerville-College Ave</v>
       </c>
-      <c r="E249" t="s">
+      <c r="C249" t="s">
         <v>509</v>
       </c>
-      <c r="F249" s="1" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="250" spans="1:6" ht="20.25" x14ac:dyDescent="0.45">
+      <c r="D249" s="1" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A250" t="s">
         <v>249</v>
       </c>
-      <c r="D250" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",E250)</f>
+      <c r="B250" t="str">
+        <f>_xlfn.CONCAT("Arrive-&gt;",C250)</f>
         <v>Arrive-&gt;T-Somerville-Washington St</v>
       </c>
-      <c r="E250" t="s">
+      <c r="C250" t="s">
         <v>510</v>
       </c>
-      <c r="F250" s="1" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="251" spans="1:6" ht="20.25" x14ac:dyDescent="0.45">
+      <c r="D250" s="1" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A251" t="s">
         <v>250</v>
       </c>
-      <c r="D251" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",E251)</f>
+      <c r="B251" t="str">
+        <f>_xlfn.CONCAT("Arrive-&gt;",C251)</f>
         <v>Arrive-&gt;T-South Weymouth-Columbian St</v>
       </c>
-      <c r="E251" t="s">
+      <c r="C251" t="s">
         <v>511</v>
       </c>
-      <c r="F251" s="1" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="252" spans="1:6" ht="20.25" x14ac:dyDescent="0.45">
+      <c r="D251" s="1" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A252" t="s">
         <v>251</v>
       </c>
-      <c r="D252" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",E252)</f>
+      <c r="B252" t="str">
+        <f>_xlfn.CONCAT("Arrive-&gt;",C252)</f>
         <v>Arrive-&gt;T-South Weymouth-Main St</v>
       </c>
-      <c r="E252" t="s">
+      <c r="C252" t="s">
         <v>512</v>
       </c>
-      <c r="F252" s="1" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="253" spans="1:6" ht="20.25" x14ac:dyDescent="0.45">
+      <c r="D252" s="1" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A253" t="s">
         <v>252</v>
       </c>
-      <c r="D253" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",E253)</f>
+      <c r="B253" t="str">
+        <f>_xlfn.CONCAT("Arrive-&gt;",C253)</f>
         <v>Arrive-&gt;T-Taunton-Bay St</v>
       </c>
-      <c r="E253" t="s">
+      <c r="C253" t="s">
         <v>513</v>
       </c>
-      <c r="F253" s="1" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="254" spans="1:6" ht="20.25" x14ac:dyDescent="0.45">
+      <c r="D253" s="1" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A254" t="s">
         <v>253</v>
       </c>
-      <c r="D254" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",E254)</f>
+      <c r="B254" t="str">
+        <f>_xlfn.CONCAT("Arrive-&gt;",C254)</f>
         <v>Arrive-&gt;T-Worchester-Belmont</v>
       </c>
-      <c r="E254" t="s">
+      <c r="C254" t="s">
         <v>514</v>
       </c>
-      <c r="F254" s="1" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="255" spans="1:6" ht="20.25" x14ac:dyDescent="0.45">
+      <c r="D254" s="1" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A255" t="s">
         <v>254</v>
       </c>
-      <c r="D255" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",E255)</f>
+      <c r="B255" t="str">
+        <f>_xlfn.CONCAT("Arrive-&gt;",C255)</f>
         <v>Arrive-&gt;Vista - Laconia</v>
       </c>
-      <c r="E255" t="s">
+      <c r="C255" t="s">
         <v>515</v>
       </c>
-      <c r="F255" s="1" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="256" spans="1:6" ht="20.25" x14ac:dyDescent="0.45">
+      <c r="D255" s="1" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A256" t="s">
         <v>255</v>
       </c>
-      <c r="D256" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",E256)</f>
+      <c r="B256" t="str">
+        <f>_xlfn.CONCAT("Arrive-&gt;",C256)</f>
         <v>Arrive-&gt;V-Mazza Farms</v>
       </c>
-      <c r="E256" t="s">
+      <c r="C256" t="s">
         <v>516</v>
       </c>
-      <c r="F256" s="1" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="257" spans="1:6" ht="20.25" x14ac:dyDescent="0.45">
+      <c r="D256" s="1" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A257" t="s">
         <v>256</v>
       </c>
-      <c r="D257" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",E257)</f>
+      <c r="B257" t="str">
+        <f>_xlfn.CONCAT("Arrive-&gt;",C257)</f>
         <v>Arrive-&gt;Whitneys Family Supermarket (Corinth)</v>
       </c>
-      <c r="E257" t="s">
+      <c r="C257" t="s">
         <v>517</v>
       </c>
-      <c r="F257" s="1" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="258" spans="1:6" ht="20.25" x14ac:dyDescent="0.45">
+      <c r="D257" s="1" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A258" t="s">
         <v>257</v>
       </c>
-      <c r="D258" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",E258)</f>
+      <c r="B258" t="str">
+        <f>_xlfn.CONCAT("Arrive-&gt;",C258)</f>
         <v>Arrive-&gt;Wills Shop and Save</v>
       </c>
-      <c r="E258" t="s">
+      <c r="C258" t="s">
         <v>518</v>
       </c>
-      <c r="F258" s="1" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="259" spans="1:6" ht="20.25" x14ac:dyDescent="0.45">
+      <c r="D258" s="1" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A259" t="s">
         <v>258</v>
       </c>
-      <c r="D259" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",E259)</f>
+      <c r="B259" t="str">
+        <f>_xlfn.CONCAT("Arrive-&gt;",C259)</f>
         <v>Arrive-&gt;Winn Olmsted</v>
       </c>
-      <c r="E259" t="s">
+      <c r="C259" t="s">
         <v>519</v>
       </c>
-      <c r="F259" s="1" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="260" spans="1:6" ht="20.25" x14ac:dyDescent="0.45">
+      <c r="D259" s="1" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="260" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A260" t="s">
         <v>259</v>
       </c>
-      <c r="D260" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",E260)</f>
+      <c r="B260" t="str">
+        <f>_xlfn.CONCAT("Arrive-&gt;",C260)</f>
         <v>Arrive-&gt;Worcester Wreath</v>
       </c>
-      <c r="E260" t="s">
+      <c r="C260" t="s">
         <v>520</v>
       </c>
-      <c r="F260" s="1" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="261" spans="1:6" ht="20.25" x14ac:dyDescent="0.45">
+      <c r="D260" s="1" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="261" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A261" t="s">
         <v>260</v>
       </c>
-      <c r="D261" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",E261)</f>
+      <c r="B261" t="str">
+        <f>_xlfn.CONCAT("Arrive-&gt;",C261)</f>
         <v>Arrive-&gt;Yellow Front (Damariscotta)</v>
       </c>
-      <c r="E261" t="s">
+      <c r="C261" t="s">
         <v>521</v>
       </c>
-      <c r="F261" s="1" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="262" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="D261" s="1" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="262" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A262" t="s">
         <v>261</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:E262">
+    <filterColumn colId="4">
+      <filters blank="1"/>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Alert Arrive-.xlsx
+++ b/Alert Arrive-.xlsx
@@ -2,20 +2,20 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17426"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/bcfff54abdee5478/Documents/GitHub/Truck-Delivery-Status/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pmoulton\Documents\GitHub\Truck-Delivery-Status\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22500" windowHeight="12458"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22500" windowHeight="12465"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$262</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$G$262</definedName>
   </definedNames>
   <calcPr calcId="171027"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="885" uniqueCount="528">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1047" uniqueCount="529">
   <si>
     <t>&lt;select id="pagedSearchFormlessFilter-102-select" size="7" style="width:18em"</t>
   </si>
@@ -1598,9 +1598,6 @@
     <t>kfnextraq@gmail.com</t>
   </si>
   <si>
-    <t>Done</t>
-  </si>
-  <si>
     <t>Name</t>
   </si>
   <si>
@@ -1611,13 +1608,19 @@
   </si>
   <si>
     <t>status</t>
+  </si>
+  <si>
+    <t>NexTraq locationId</t>
+  </si>
+  <si>
+    <t>done</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1630,6 +1633,14 @@
       <color rgb="FF737373"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1655,10 +1666,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1667,8 +1679,10 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1981,4243 +1995,6819 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:E262"/>
+  <sheetPr codeName="Sheet1" filterMode="1"/>
+  <dimension ref="A1:G262"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D107" sqref="D107"/>
+    <sheetView tabSelected="1" topLeftCell="B262" workbookViewId="0">
+      <selection activeCell="G261" sqref="G141:G261"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="64.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="38.46484375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="32.06640625" customWidth="1"/>
-    <col min="4" max="4" width="13.9296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="64.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8" customWidth="1"/>
+    <col min="4" max="4" width="38.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="32" customWidth="1"/>
+    <col min="6" max="6" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>527</v>
+      </c>
+      <c r="D1" t="s">
+        <v>523</v>
+      </c>
+      <c r="E1" t="s">
         <v>524</v>
       </c>
-      <c r="C1" t="s">
+      <c r="F1" t="s">
         <v>525</v>
       </c>
-      <c r="D1" t="s">
+      <c r="G1" t="s">
         <v>526</v>
       </c>
-      <c r="E1" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="20.25" hidden="1" x14ac:dyDescent="0.45">
+    </row>
+    <row r="2" spans="1:7" ht="22.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",C2)</f>
-        <v>Arrive-&gt;A - Ali Baba (Manchester)</v>
-      </c>
-      <c r="C2" s="2" t="s">
+      <c r="B2" t="str">
+        <f>MID(A2,SEARCH(CHAR(34),A2)+1,SEARCH(CHAR(34),A2,SEARCH(CHAR(34),A2)+1)-SEARCH(CHAR(34),A2)-1)</f>
+        <v>2888949</v>
+      </c>
+      <c r="C2" s="4" t="str">
+        <f t="shared" ref="C2:C25" si="0">HYPERLINK(_xlfn.CONCAT("http://go.nextraq.com/admin/location/save.html?locationId=",B2))</f>
+        <v>http://go.nextraq.com/admin/location/save.html?locationId=2888949</v>
+      </c>
+      <c r="D2" s="2" t="str">
+        <f>_xlfn.CONCAT("Depart-&gt;",E2)</f>
+        <v>Depart-&gt;A - Ali Baba (Manchester)</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>522</v>
-      </c>
-      <c r="E2" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="20.25" hidden="1" x14ac:dyDescent="0.45">
+      <c r="F2" s="3" t="s">
+        <v>522</v>
+      </c>
+      <c r="G2" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="22.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",C3)</f>
-        <v>Arrive-&gt;AGNE WAREHOUSE</v>
-      </c>
-      <c r="C3" s="2" t="s">
+      <c r="B3" t="str">
+        <f t="shared" ref="B3:B66" si="1">MID(A3,SEARCH(CHAR(34),A3)+1,SEARCH(CHAR(34),A3,SEARCH(CHAR(34),A3)+1)-SEARCH(CHAR(34),A3)-1)</f>
+        <v>2888976</v>
+      </c>
+      <c r="C3" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>http://go.nextraq.com/admin/location/save.html?locationId=2888976</v>
+      </c>
+      <c r="D3" s="2" t="str">
+        <f t="shared" ref="D3:D66" si="2">_xlfn.CONCAT("Depart-&gt;",E3)</f>
+        <v>Depart-&gt;AGNE WAREHOUSE</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>522</v>
-      </c>
-      <c r="E3" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="20.25" hidden="1" x14ac:dyDescent="0.45">
+      <c r="F3" s="3" t="s">
+        <v>522</v>
+      </c>
+      <c r="G3" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="22.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="2" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",C4)</f>
-        <v>Arrive-&gt;Bow Street Market (Freeport)</v>
-      </c>
-      <c r="C4" s="2" t="s">
+      <c r="B4" t="str">
+        <f t="shared" si="1"/>
+        <v>2888950</v>
+      </c>
+      <c r="C4" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>http://go.nextraq.com/admin/location/save.html?locationId=2888950</v>
+      </c>
+      <c r="D4" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>Depart-&gt;Bow Street Market (Freeport)</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>522</v>
-      </c>
-      <c r="E4" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="20.25" hidden="1" x14ac:dyDescent="0.45">
+      <c r="F4" s="3" t="s">
+        <v>522</v>
+      </c>
+      <c r="G4" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="22.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="2" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",C5)</f>
-        <v>Arrive-&gt;Center Harbor</v>
-      </c>
-      <c r="C5" s="2" t="s">
+      <c r="B5" t="str">
+        <f t="shared" si="1"/>
+        <v>2888977</v>
+      </c>
+      <c r="C5" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>http://go.nextraq.com/admin/location/save.html?locationId=2888977</v>
+      </c>
+      <c r="D5" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>Depart-&gt;Center Harbor</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>522</v>
-      </c>
-      <c r="E5" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="20.25" hidden="1" x14ac:dyDescent="0.45">
+      <c r="F5" s="3" t="s">
+        <v>522</v>
+      </c>
+      <c r="G5" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="22.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="2" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",C6)</f>
-        <v>Arrive-&gt;Danforths (Hermon)</v>
-      </c>
-      <c r="C6" s="2" t="s">
+      <c r="B6" t="str">
+        <f t="shared" si="1"/>
+        <v>2888951</v>
+      </c>
+      <c r="C6" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>http://go.nextraq.com/admin/location/save.html?locationId=2888951</v>
+      </c>
+      <c r="D6" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>Depart-&gt;Danforths (Hermon)</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>522</v>
-      </c>
-      <c r="E6" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="20.25" hidden="1" x14ac:dyDescent="0.45">
+      <c r="F6" s="3" t="s">
+        <v>522</v>
+      </c>
+      <c r="G6" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="22.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="2" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",C7)</f>
-        <v>Arrive-&gt;Edwards (Unity)</v>
-      </c>
-      <c r="C7" s="2" t="s">
+      <c r="B7" t="str">
+        <f t="shared" si="1"/>
+        <v>2888948</v>
+      </c>
+      <c r="C7" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>http://go.nextraq.com/admin/location/save.html?locationId=2888948</v>
+      </c>
+      <c r="D7" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>Depart-&gt;Edwards (Unity)</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="D7" s="3" t="s">
-        <v>522</v>
-      </c>
-      <c r="E7" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="20.25" hidden="1" x14ac:dyDescent="0.45">
+      <c r="F7" s="3" t="s">
+        <v>522</v>
+      </c>
+      <c r="G7" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="22.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="2" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",C8)</f>
-        <v>Arrive-&gt;Food City (Bridgton)</v>
-      </c>
-      <c r="C8" s="2" t="s">
+      <c r="B8" t="str">
+        <f t="shared" si="1"/>
+        <v>2888952</v>
+      </c>
+      <c r="C8" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>http://go.nextraq.com/admin/location/save.html?locationId=2888952</v>
+      </c>
+      <c r="D8" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>Depart-&gt;Food City (Bridgton)</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>522</v>
-      </c>
-      <c r="E8" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="20.25" hidden="1" x14ac:dyDescent="0.45">
+      <c r="F8" s="3" t="s">
+        <v>522</v>
+      </c>
+      <c r="G8" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="22.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="2" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",C9)</f>
-        <v>Arrive-&gt;Food City (Livermore Falls)</v>
-      </c>
-      <c r="C9" s="2" t="s">
+      <c r="B9" t="str">
+        <f t="shared" si="1"/>
+        <v>2888953</v>
+      </c>
+      <c r="C9" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>http://go.nextraq.com/admin/location/save.html?locationId=2888953</v>
+      </c>
+      <c r="D9" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>Depart-&gt;Food City (Livermore Falls)</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>522</v>
-      </c>
-      <c r="E9" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="20.25" hidden="1" x14ac:dyDescent="0.45">
+      <c r="F9" s="3" t="s">
+        <v>522</v>
+      </c>
+      <c r="G9" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="22.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="2" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",C10)</f>
-        <v>Arrive-&gt;Gray Shop N'Save</v>
-      </c>
-      <c r="C10" s="2" t="s">
+      <c r="B10" t="str">
+        <f t="shared" si="1"/>
+        <v>4631538</v>
+      </c>
+      <c r="C10" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>http://go.nextraq.com/admin/location/save.html?locationId=4631538</v>
+      </c>
+      <c r="D10" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>Depart-&gt;Gray Shop N'Save</v>
+      </c>
+      <c r="E10" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>522</v>
-      </c>
-      <c r="E10" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="20.25" hidden="1" x14ac:dyDescent="0.45">
+      <c r="F10" s="3" t="s">
+        <v>522</v>
+      </c>
+      <c r="G10" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="22.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="2" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",C11)</f>
-        <v>Arrive-&gt;Greengarden Farm</v>
-      </c>
-      <c r="C11" s="2" t="s">
+      <c r="B11" t="str">
+        <f t="shared" si="1"/>
+        <v>5048332</v>
+      </c>
+      <c r="C11" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>http://go.nextraq.com/admin/location/save.html?locationId=5048332</v>
+      </c>
+      <c r="D11" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>Depart-&gt;Greengarden Farm</v>
+      </c>
+      <c r="E11" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="D11" s="3" t="s">
-        <v>522</v>
-      </c>
-      <c r="E11" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="20.25" hidden="1" x14ac:dyDescent="0.45">
+      <c r="F11" s="3" t="s">
+        <v>522</v>
+      </c>
+      <c r="G11" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="22.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="2" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",C12)</f>
-        <v>Arrive-&gt;H - Bayside</v>
-      </c>
-      <c r="C12" s="2" t="s">
+      <c r="B12" t="str">
+        <f t="shared" si="1"/>
+        <v>2888826</v>
+      </c>
+      <c r="C12" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>http://go.nextraq.com/admin/location/save.html?locationId=2888826</v>
+      </c>
+      <c r="D12" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>Depart-&gt;H - Bayside</v>
+      </c>
+      <c r="E12" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="D12" s="3" t="s">
-        <v>522</v>
-      </c>
-      <c r="E12" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="20.25" hidden="1" x14ac:dyDescent="0.45">
+      <c r="F12" s="3" t="s">
+        <v>522</v>
+      </c>
+      <c r="G12" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="22.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="2" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",C13)</f>
-        <v>Arrive-&gt;H - Columbia</v>
-      </c>
-      <c r="C13" s="2" t="s">
+      <c r="B13" t="str">
+        <f t="shared" si="1"/>
+        <v>2889207</v>
+      </c>
+      <c r="C13" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>http://go.nextraq.com/admin/location/save.html?locationId=2889207</v>
+      </c>
+      <c r="D13" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>Depart-&gt;H - Columbia</v>
+      </c>
+      <c r="E13" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="D13" s="3" t="s">
-        <v>522</v>
-      </c>
-      <c r="E13" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="20.25" hidden="1" x14ac:dyDescent="0.45">
+      <c r="F13" s="3" t="s">
+        <v>522</v>
+      </c>
+      <c r="G13" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="22.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="2" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",C14)</f>
-        <v>Arrive-&gt;H-Airport Mall</v>
-      </c>
-      <c r="C14" s="2" t="s">
+      <c r="B14" t="str">
+        <f t="shared" si="1"/>
+        <v>2888818</v>
+      </c>
+      <c r="C14" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>http://go.nextraq.com/admin/location/save.html?locationId=2888818</v>
+      </c>
+      <c r="D14" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>Depart-&gt;H-Airport Mall</v>
+      </c>
+      <c r="E14" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>522</v>
-      </c>
-      <c r="E14" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="20.25" hidden="1" x14ac:dyDescent="0.45">
+      <c r="F14" s="3" t="s">
+        <v>522</v>
+      </c>
+      <c r="G14" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="22.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="2" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",C15)</f>
-        <v>Arrive-&gt;H-Alton Bay</v>
-      </c>
-      <c r="C15" s="2" t="s">
+      <c r="B15" t="str">
+        <f t="shared" si="1"/>
+        <v>2888819</v>
+      </c>
+      <c r="C15" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>http://go.nextraq.com/admin/location/save.html?locationId=2888819</v>
+      </c>
+      <c r="D15" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>Depart-&gt;H-Alton Bay</v>
+      </c>
+      <c r="E15" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="D15" s="3" t="s">
-        <v>522</v>
-      </c>
-      <c r="E15" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="20.25" hidden="1" x14ac:dyDescent="0.45">
+      <c r="F15" s="3" t="s">
+        <v>522</v>
+      </c>
+      <c r="G15" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="22.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="2" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",C16)</f>
-        <v>Arrive-&gt;Hanna Corp - Me</v>
-      </c>
-      <c r="C16" s="2" t="s">
+      <c r="B16" t="str">
+        <f t="shared" si="1"/>
+        <v>2888972</v>
+      </c>
+      <c r="C16" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>http://go.nextraq.com/admin/location/save.html?locationId=2888972</v>
+      </c>
+      <c r="D16" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>Depart-&gt;Hanna Corp - Me</v>
+      </c>
+      <c r="E16" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="D16" s="3" t="s">
-        <v>522</v>
-      </c>
-      <c r="E16" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="20.25" hidden="1" x14ac:dyDescent="0.45">
+      <c r="F16" s="3" t="s">
+        <v>522</v>
+      </c>
+      <c r="G16" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="22.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="2" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",C17)</f>
-        <v>Arrive-&gt;Hanna Corp - NY</v>
-      </c>
-      <c r="C17" s="2" t="s">
+      <c r="B17" t="str">
+        <f t="shared" si="1"/>
+        <v>2888973</v>
+      </c>
+      <c r="C17" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>http://go.nextraq.com/admin/location/save.html?locationId=2888973</v>
+      </c>
+      <c r="D17" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>Depart-&gt;Hanna Corp - NY</v>
+      </c>
+      <c r="E17" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>522</v>
-      </c>
-      <c r="E17" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="20.25" hidden="1" x14ac:dyDescent="0.45">
+      <c r="F17" s="3" t="s">
+        <v>522</v>
+      </c>
+      <c r="G17" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="22.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="2" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",C18)</f>
-        <v>Arrive-&gt;Harv-Bedford</v>
-      </c>
-      <c r="C18" s="2" t="s">
+      <c r="B18" t="str">
+        <f t="shared" si="1"/>
+        <v>2888967</v>
+      </c>
+      <c r="C18" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>http://go.nextraq.com/admin/location/save.html?locationId=2888967</v>
+      </c>
+      <c r="D18" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>Depart-&gt;Harv-Bedford</v>
+      </c>
+      <c r="E18" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>522</v>
-      </c>
-      <c r="E18" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="20.25" hidden="1" x14ac:dyDescent="0.45">
+      <c r="F18" s="3" t="s">
+        <v>522</v>
+      </c>
+      <c r="G18" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="22.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="2" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",C19)</f>
-        <v>Arrive-&gt;Harvest Coop Cambridge</v>
-      </c>
-      <c r="C19" s="2" t="s">
+      <c r="B19" t="str">
+        <f t="shared" si="1"/>
+        <v>2888969</v>
+      </c>
+      <c r="C19" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>http://go.nextraq.com/admin/location/save.html?locationId=2888969</v>
+      </c>
+      <c r="D19" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>Depart-&gt;Harvest Coop Cambridge</v>
+      </c>
+      <c r="E19" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="D19" s="3" t="s">
-        <v>522</v>
-      </c>
-      <c r="E19" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="20.25" hidden="1" x14ac:dyDescent="0.45">
+      <c r="F19" s="3" t="s">
+        <v>522</v>
+      </c>
+      <c r="G19" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="22.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="2" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",C20)</f>
-        <v>Arrive-&gt;Harvest Coop Jp</v>
-      </c>
-      <c r="C20" s="2" t="s">
+      <c r="B20" t="str">
+        <f t="shared" si="1"/>
+        <v>2888970</v>
+      </c>
+      <c r="C20" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>http://go.nextraq.com/admin/location/save.html?locationId=2888970</v>
+      </c>
+      <c r="D20" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>Depart-&gt;Harvest Coop Jp</v>
+      </c>
+      <c r="E20" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>522</v>
-      </c>
-      <c r="E20" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="20.25" hidden="1" x14ac:dyDescent="0.45">
+      <c r="F20" s="3" t="s">
+        <v>522</v>
+      </c>
+      <c r="G20" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="22.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="2" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",C21)</f>
-        <v>Arrive-&gt;Harvester Mkt</v>
-      </c>
-      <c r="C21" s="2" t="s">
+      <c r="B21" t="str">
+        <f t="shared" si="1"/>
+        <v>2888978</v>
+      </c>
+      <c r="C21" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>http://go.nextraq.com/admin/location/save.html?locationId=2888978</v>
+      </c>
+      <c r="D21" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>Depart-&gt;Harvester Mkt</v>
+      </c>
+      <c r="E21" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>522</v>
-      </c>
-      <c r="E21" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="20.25" hidden="1" x14ac:dyDescent="0.45">
+      <c r="F21" s="3" t="s">
+        <v>522</v>
+      </c>
+      <c r="G21" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="22.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>21</v>
       </c>
-      <c r="B22" s="2" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",C22)</f>
-        <v>Arrive-&gt;Harv-Hollis</v>
-      </c>
-      <c r="C22" s="2" t="s">
+      <c r="B22" t="str">
+        <f t="shared" si="1"/>
+        <v>2888968</v>
+      </c>
+      <c r="C22" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>http://go.nextraq.com/admin/location/save.html?locationId=2888968</v>
+      </c>
+      <c r="D22" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>Depart-&gt;Harv-Hollis</v>
+      </c>
+      <c r="E22" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>522</v>
-      </c>
-      <c r="E22" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="20.25" hidden="1" x14ac:dyDescent="0.45">
+      <c r="F22" s="3" t="s">
+        <v>522</v>
+      </c>
+      <c r="G22" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="22.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>22</v>
       </c>
-      <c r="B23" s="2" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",C23)</f>
-        <v>Arrive-&gt;H-Athol</v>
-      </c>
-      <c r="C23" s="2" t="s">
+      <c r="B23" t="str">
+        <f t="shared" si="1"/>
+        <v>2888820</v>
+      </c>
+      <c r="C23" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>http://go.nextraq.com/admin/location/save.html?locationId=2888820</v>
+      </c>
+      <c r="D23" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>Depart-&gt;H-Athol</v>
+      </c>
+      <c r="E23" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="D23" s="3" t="s">
-        <v>522</v>
-      </c>
-      <c r="E23" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="20.25" hidden="1" x14ac:dyDescent="0.45">
+      <c r="F23" s="3" t="s">
+        <v>522</v>
+      </c>
+      <c r="G23" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="22.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>23</v>
       </c>
-      <c r="B24" s="2" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",C24)</f>
-        <v>Arrive-&gt;H-Auburn</v>
-      </c>
-      <c r="C24" s="2" t="s">
+      <c r="B24" t="str">
+        <f t="shared" si="1"/>
+        <v>2888821</v>
+      </c>
+      <c r="C24" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>http://go.nextraq.com/admin/location/save.html?locationId=2888821</v>
+      </c>
+      <c r="D24" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>Depart-&gt;H-Auburn</v>
+      </c>
+      <c r="E24" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="D24" s="3" t="s">
-        <v>522</v>
-      </c>
-      <c r="E24" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="20.25" hidden="1" x14ac:dyDescent="0.45">
+      <c r="F24" s="3" t="s">
+        <v>522</v>
+      </c>
+      <c r="G24" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="22.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>24</v>
       </c>
-      <c r="B25" s="2" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",C25)</f>
-        <v>Arrive-&gt;H-Augusta - Cony</v>
-      </c>
-      <c r="C25" s="2" t="s">
+      <c r="B25" t="str">
+        <f t="shared" si="1"/>
+        <v>2888823</v>
+      </c>
+      <c r="C25" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>http://go.nextraq.com/admin/location/save.html?locationId=2888823</v>
+      </c>
+      <c r="D25" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>Depart-&gt;H-Augusta - Cony</v>
+      </c>
+      <c r="E25" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="D25" s="3" t="s">
-        <v>522</v>
-      </c>
-      <c r="E25" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="20.25" hidden="1" x14ac:dyDescent="0.45">
+      <c r="F25" s="3" t="s">
+        <v>522</v>
+      </c>
+      <c r="G25" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="22.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>25</v>
       </c>
-      <c r="B26" s="2" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",C26)</f>
-        <v>Arrive-&gt;H-Augusta - Whitten Rd</v>
-      </c>
-      <c r="C26" s="2" t="s">
+      <c r="B26" t="str">
+        <f t="shared" si="1"/>
+        <v>2888822</v>
+      </c>
+      <c r="C26" s="4" t="str">
+        <f>HYPERLINK(_xlfn.CONCAT("http://go.nextraq.com/admin/location/save.html?locationId=",B26))</f>
+        <v>http://go.nextraq.com/admin/location/save.html?locationId=2888822</v>
+      </c>
+      <c r="D26" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>Depart-&gt;H-Augusta - Whitten Rd</v>
+      </c>
+      <c r="E26" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>522</v>
-      </c>
-      <c r="E26" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="20.25" hidden="1" x14ac:dyDescent="0.45">
+      <c r="F26" s="3" t="s">
+        <v>522</v>
+      </c>
+      <c r="G26" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="22.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>26</v>
       </c>
-      <c r="B27" s="2" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",C27)</f>
-        <v>Arrive-&gt;H-Ayer</v>
-      </c>
-      <c r="C27" s="2" t="s">
+      <c r="B27" t="str">
+        <f t="shared" si="1"/>
+        <v>2888824</v>
+      </c>
+      <c r="C27" s="4" t="str">
+        <f t="shared" ref="C27:C90" si="3">HYPERLINK(_xlfn.CONCAT("http://go.nextraq.com/admin/location/save.html?locationId=",B27))</f>
+        <v>http://go.nextraq.com/admin/location/save.html?locationId=2888824</v>
+      </c>
+      <c r="D27" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>Depart-&gt;H-Ayer</v>
+      </c>
+      <c r="E27" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>522</v>
-      </c>
-      <c r="E27" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="20.25" hidden="1" x14ac:dyDescent="0.45">
+      <c r="F27" s="3" t="s">
+        <v>522</v>
+      </c>
+      <c r="G27" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="22.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>27</v>
       </c>
-      <c r="B28" s="2" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",C28)</f>
-        <v>Arrive-&gt;H-Bar Harbor</v>
-      </c>
-      <c r="C28" s="2" t="s">
+      <c r="B28" t="str">
+        <f t="shared" si="1"/>
+        <v>2888825</v>
+      </c>
+      <c r="C28" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>http://go.nextraq.com/admin/location/save.html?locationId=2888825</v>
+      </c>
+      <c r="D28" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>Depart-&gt;H-Bar Harbor</v>
+      </c>
+      <c r="E28" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="D28" s="3" t="s">
-        <v>522</v>
-      </c>
-      <c r="E28" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="20.25" hidden="1" x14ac:dyDescent="0.45">
+      <c r="F28" s="3" t="s">
+        <v>522</v>
+      </c>
+      <c r="G28" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="22.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>28</v>
       </c>
-      <c r="B29" s="2" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",C29)</f>
-        <v>Arrive-&gt;H-Barre</v>
-      </c>
-      <c r="C29" s="2" t="s">
+      <c r="B29" t="str">
+        <f t="shared" si="1"/>
+        <v>5250398</v>
+      </c>
+      <c r="C29" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>http://go.nextraq.com/admin/location/save.html?locationId=5250398</v>
+      </c>
+      <c r="D29" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>Depart-&gt;H-Barre</v>
+      </c>
+      <c r="E29" s="2" t="s">
         <v>289</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>522</v>
-      </c>
-      <c r="E29" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="20.25" hidden="1" x14ac:dyDescent="0.45">
+      <c r="F29" s="3" t="s">
+        <v>522</v>
+      </c>
+      <c r="G29" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="22.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>29</v>
       </c>
-      <c r="B30" s="2" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",C30)</f>
-        <v>Arrive-&gt;H-Bedford - Colby Ct</v>
-      </c>
-      <c r="C30" s="2" t="s">
+      <c r="B30" t="str">
+        <f t="shared" si="1"/>
+        <v>2888828</v>
+      </c>
+      <c r="C30" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>http://go.nextraq.com/admin/location/save.html?locationId=2888828</v>
+      </c>
+      <c r="D30" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>Depart-&gt;H-Bedford - Colby Ct</v>
+      </c>
+      <c r="E30" s="2" t="s">
         <v>290</v>
       </c>
-      <c r="D30" s="3" t="s">
-        <v>522</v>
-      </c>
-      <c r="E30" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" ht="20.25" hidden="1" x14ac:dyDescent="0.45">
+      <c r="F30" s="3" t="s">
+        <v>522</v>
+      </c>
+      <c r="G30" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="22.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>30</v>
       </c>
-      <c r="B31" s="2" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",C31)</f>
-        <v>Arrive-&gt;H-Bedford - Rt 101</v>
-      </c>
-      <c r="C31" s="2" t="s">
+      <c r="B31" t="str">
+        <f t="shared" si="1"/>
+        <v>2888827</v>
+      </c>
+      <c r="C31" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>http://go.nextraq.com/admin/location/save.html?locationId=2888827</v>
+      </c>
+      <c r="D31" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>Depart-&gt;H-Bedford - Rt 101</v>
+      </c>
+      <c r="E31" s="2" t="s">
         <v>291</v>
       </c>
-      <c r="D31" s="3" t="s">
-        <v>522</v>
-      </c>
-      <c r="E31" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" ht="20.25" hidden="1" x14ac:dyDescent="0.45">
+      <c r="F31" s="3" t="s">
+        <v>522</v>
+      </c>
+      <c r="G31" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="22.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>31</v>
       </c>
-      <c r="B32" s="2" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",C32)</f>
-        <v>Arrive-&gt;H-Bedford Kilton Rd</v>
-      </c>
-      <c r="C32" s="2" t="s">
+      <c r="B32" t="str">
+        <f t="shared" si="1"/>
+        <v>5081069</v>
+      </c>
+      <c r="C32" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>http://go.nextraq.com/admin/location/save.html?locationId=5081069</v>
+      </c>
+      <c r="D32" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>Depart-&gt;H-Bedford Kilton Rd</v>
+      </c>
+      <c r="E32" s="2" t="s">
         <v>292</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>522</v>
-      </c>
-      <c r="E32" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" ht="20.25" hidden="1" x14ac:dyDescent="0.45">
+      <c r="F32" s="3" t="s">
+        <v>522</v>
+      </c>
+      <c r="G32" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="22.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>32</v>
       </c>
-      <c r="B33" s="2" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",C33)</f>
-        <v>Arrive-&gt;H-Belfast</v>
-      </c>
-      <c r="C33" s="2" t="s">
+      <c r="B33" t="str">
+        <f t="shared" si="1"/>
+        <v>2888829</v>
+      </c>
+      <c r="C33" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>http://go.nextraq.com/admin/location/save.html?locationId=2888829</v>
+      </c>
+      <c r="D33" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>Depart-&gt;H-Belfast</v>
+      </c>
+      <c r="E33" s="2" t="s">
         <v>293</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>522</v>
-      </c>
-      <c r="E33" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" ht="20.25" hidden="1" x14ac:dyDescent="0.45">
+      <c r="F33" s="3" t="s">
+        <v>522</v>
+      </c>
+      <c r="G33" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="22.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>33</v>
       </c>
-      <c r="B34" s="2" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",C34)</f>
-        <v>Arrive-&gt;H-Bethel</v>
-      </c>
-      <c r="C34" s="2" t="s">
+      <c r="B34" t="str">
+        <f t="shared" si="1"/>
+        <v>2888830</v>
+      </c>
+      <c r="C34" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>http://go.nextraq.com/admin/location/save.html?locationId=2888830</v>
+      </c>
+      <c r="D34" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>Depart-&gt;H-Bethel</v>
+      </c>
+      <c r="E34" s="2" t="s">
         <v>294</v>
       </c>
-      <c r="D34" s="3" t="s">
-        <v>522</v>
-      </c>
-      <c r="E34" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" ht="20.25" hidden="1" x14ac:dyDescent="0.45">
+      <c r="F34" s="3" t="s">
+        <v>522</v>
+      </c>
+      <c r="G34" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="22.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>34</v>
       </c>
-      <c r="B35" s="2" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",C35)</f>
-        <v>Arrive-&gt;H-Biddeford</v>
-      </c>
-      <c r="C35" s="2" t="s">
+      <c r="B35" t="str">
+        <f t="shared" si="1"/>
+        <v>2888831</v>
+      </c>
+      <c r="C35" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>http://go.nextraq.com/admin/location/save.html?locationId=2888831</v>
+      </c>
+      <c r="D35" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>Depart-&gt;H-Biddeford</v>
+      </c>
+      <c r="E35" s="2" t="s">
         <v>295</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>522</v>
-      </c>
-      <c r="E35" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" ht="20.25" hidden="1" x14ac:dyDescent="0.45">
+      <c r="F35" s="3" t="s">
+        <v>522</v>
+      </c>
+      <c r="G35" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="22.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>35</v>
       </c>
-      <c r="B36" s="2" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",C36)</f>
-        <v>Arrive-&gt;H-Boothbay</v>
-      </c>
-      <c r="C36" s="2" t="s">
+      <c r="B36" t="str">
+        <f t="shared" si="1"/>
+        <v>2888832</v>
+      </c>
+      <c r="C36" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>http://go.nextraq.com/admin/location/save.html?locationId=2888832</v>
+      </c>
+      <c r="D36" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>Depart-&gt;H-Boothbay</v>
+      </c>
+      <c r="E36" s="2" t="s">
         <v>296</v>
       </c>
-      <c r="D36" s="3" t="s">
-        <v>522</v>
-      </c>
-      <c r="E36" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" ht="20.25" hidden="1" x14ac:dyDescent="0.45">
+      <c r="F36" s="3" t="s">
+        <v>522</v>
+      </c>
+      <c r="G36" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="22.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>36</v>
       </c>
-      <c r="B37" s="2" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",C37)</f>
-        <v>Arrive-&gt;H-Bradford</v>
-      </c>
-      <c r="C37" s="2" t="s">
+      <c r="B37" t="str">
+        <f t="shared" si="1"/>
+        <v>2888833</v>
+      </c>
+      <c r="C37" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>http://go.nextraq.com/admin/location/save.html?locationId=2888833</v>
+      </c>
+      <c r="D37" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>Depart-&gt;H-Bradford</v>
+      </c>
+      <c r="E37" s="2" t="s">
         <v>297</v>
       </c>
-      <c r="D37" s="3" t="s">
-        <v>522</v>
-      </c>
-      <c r="E37" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" ht="20.25" hidden="1" x14ac:dyDescent="0.45">
+      <c r="F37" s="3" t="s">
+        <v>522</v>
+      </c>
+      <c r="G37" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="22.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>37</v>
       </c>
-      <c r="B38" s="2" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",C38)</f>
-        <v>Arrive-&gt;H-Brattleboro</v>
-      </c>
-      <c r="C38" s="2" t="s">
+      <c r="B38" t="str">
+        <f t="shared" si="1"/>
+        <v>2888834</v>
+      </c>
+      <c r="C38" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>http://go.nextraq.com/admin/location/save.html?locationId=2888834</v>
+      </c>
+      <c r="D38" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>Depart-&gt;H-Brattleboro</v>
+      </c>
+      <c r="E38" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="D38" s="3" t="s">
-        <v>522</v>
-      </c>
-      <c r="E38" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" ht="20.25" hidden="1" x14ac:dyDescent="0.45">
+      <c r="F38" s="3" t="s">
+        <v>522</v>
+      </c>
+      <c r="G38" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="22.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>38</v>
       </c>
-      <c r="B39" s="2" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",C39)</f>
-        <v>Arrive-&gt;H-Brewer</v>
-      </c>
-      <c r="C39" s="2" t="s">
+      <c r="B39" t="str">
+        <f t="shared" si="1"/>
+        <v>2888835</v>
+      </c>
+      <c r="C39" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>http://go.nextraq.com/admin/location/save.html?locationId=2888835</v>
+      </c>
+      <c r="D39" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>Depart-&gt;H-Brewer</v>
+      </c>
+      <c r="E39" s="2" t="s">
         <v>299</v>
       </c>
-      <c r="D39" s="3" t="s">
-        <v>522</v>
-      </c>
-      <c r="E39" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" ht="20.25" hidden="1" x14ac:dyDescent="0.45">
+      <c r="F39" s="3" t="s">
+        <v>522</v>
+      </c>
+      <c r="G39" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="22.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>39</v>
       </c>
-      <c r="B40" s="2" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",C40)</f>
-        <v>Arrive-&gt;H-Bridgton</v>
-      </c>
-      <c r="C40" s="2" t="s">
+      <c r="B40" t="str">
+        <f t="shared" si="1"/>
+        <v>2888836</v>
+      </c>
+      <c r="C40" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>http://go.nextraq.com/admin/location/save.html?locationId=2888836</v>
+      </c>
+      <c r="D40" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>Depart-&gt;H-Bridgton</v>
+      </c>
+      <c r="E40" s="2" t="s">
         <v>300</v>
       </c>
-      <c r="D40" s="3" t="s">
-        <v>522</v>
-      </c>
-      <c r="E40" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" ht="20.25" hidden="1" x14ac:dyDescent="0.45">
+      <c r="F40" s="3" t="s">
+        <v>522</v>
+      </c>
+      <c r="G40" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="22.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>40</v>
       </c>
-      <c r="B41" s="2" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",C41)</f>
-        <v>Arrive-&gt;H-Bristol</v>
-      </c>
-      <c r="C41" s="2" t="s">
+      <c r="B41" t="str">
+        <f t="shared" si="1"/>
+        <v>2888837</v>
+      </c>
+      <c r="C41" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>http://go.nextraq.com/admin/location/save.html?locationId=2888837</v>
+      </c>
+      <c r="D41" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>Depart-&gt;H-Bristol</v>
+      </c>
+      <c r="E41" s="2" t="s">
         <v>301</v>
       </c>
-      <c r="D41" s="3" t="s">
-        <v>522</v>
-      </c>
-      <c r="E41" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" ht="20.25" hidden="1" x14ac:dyDescent="0.45">
+      <c r="F41" s="3" t="s">
+        <v>522</v>
+      </c>
+      <c r="G41" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="22.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>41</v>
       </c>
-      <c r="B42" s="2" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",C42)</f>
-        <v>Arrive-&gt;H-Broadway</v>
-      </c>
-      <c r="C42" s="2" t="s">
+      <c r="B42" t="str">
+        <f t="shared" si="1"/>
+        <v>2888838</v>
+      </c>
+      <c r="C42" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>http://go.nextraq.com/admin/location/save.html?locationId=2888838</v>
+      </c>
+      <c r="D42" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>Depart-&gt;H-Broadway</v>
+      </c>
+      <c r="E42" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="D42" s="3" t="s">
-        <v>522</v>
-      </c>
-      <c r="E42" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" ht="20.25" hidden="1" x14ac:dyDescent="0.45">
+      <c r="F42" s="3" t="s">
+        <v>522</v>
+      </c>
+      <c r="G42" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="22.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>42</v>
       </c>
-      <c r="B43" s="2" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",C43)</f>
-        <v>Arrive-&gt;H-Brunswick</v>
-      </c>
-      <c r="C43" s="2" t="s">
+      <c r="B43" t="str">
+        <f t="shared" si="1"/>
+        <v>2888839</v>
+      </c>
+      <c r="C43" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>http://go.nextraq.com/admin/location/save.html?locationId=2888839</v>
+      </c>
+      <c r="D43" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>Depart-&gt;H-Brunswick</v>
+      </c>
+      <c r="E43" s="2" t="s">
         <v>303</v>
       </c>
-      <c r="D43" s="3" t="s">
-        <v>522</v>
-      </c>
-      <c r="E43" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" ht="20.25" hidden="1" x14ac:dyDescent="0.45">
+      <c r="F43" s="3" t="s">
+        <v>522</v>
+      </c>
+      <c r="G43" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="22.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>43</v>
       </c>
-      <c r="B44" s="2" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",C44)</f>
-        <v>Arrive-&gt;H-Bucksport</v>
-      </c>
-      <c r="C44" s="2" t="s">
+      <c r="B44" t="str">
+        <f t="shared" si="1"/>
+        <v>2888840</v>
+      </c>
+      <c r="C44" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>http://go.nextraq.com/admin/location/save.html?locationId=2888840</v>
+      </c>
+      <c r="D44" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>Depart-&gt;H-Bucksport</v>
+      </c>
+      <c r="E44" s="2" t="s">
         <v>304</v>
       </c>
-      <c r="D44" s="3" t="s">
-        <v>522</v>
-      </c>
-      <c r="E44" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" ht="20.25" hidden="1" x14ac:dyDescent="0.45">
+      <c r="F44" s="3" t="s">
+        <v>522</v>
+      </c>
+      <c r="G44" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="22.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>44</v>
       </c>
-      <c r="B45" s="2" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",C45)</f>
-        <v>Arrive-&gt;H-Buxton</v>
-      </c>
-      <c r="C45" s="2" t="s">
+      <c r="B45" t="str">
+        <f t="shared" si="1"/>
+        <v>2888841</v>
+      </c>
+      <c r="C45" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>http://go.nextraq.com/admin/location/save.html?locationId=2888841</v>
+      </c>
+      <c r="D45" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>Depart-&gt;H-Buxton</v>
+      </c>
+      <c r="E45" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="D45" s="3" t="s">
-        <v>522</v>
-      </c>
-      <c r="E45" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" ht="20.25" hidden="1" x14ac:dyDescent="0.45">
+      <c r="F45" s="3" t="s">
+        <v>522</v>
+      </c>
+      <c r="G45" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="22.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>45</v>
       </c>
-      <c r="B46" s="2" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",C46)</f>
-        <v>Arrive-&gt;H-Camden</v>
-      </c>
-      <c r="C46" s="2" t="s">
+      <c r="B46" t="str">
+        <f t="shared" si="1"/>
+        <v>2888842</v>
+      </c>
+      <c r="C46" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>http://go.nextraq.com/admin/location/save.html?locationId=2888842</v>
+      </c>
+      <c r="D46" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>Depart-&gt;H-Camden</v>
+      </c>
+      <c r="E46" s="2" t="s">
         <v>306</v>
       </c>
-      <c r="D46" s="3" t="s">
-        <v>522</v>
-      </c>
-      <c r="E46" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" ht="20.25" hidden="1" x14ac:dyDescent="0.45">
+      <c r="F46" s="3" t="s">
+        <v>522</v>
+      </c>
+      <c r="G46" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="22.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>46</v>
       </c>
-      <c r="B47" s="2" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",C47)</f>
-        <v>Arrive-&gt;H-Caribou</v>
-      </c>
-      <c r="C47" s="2" t="s">
+      <c r="B47" t="str">
+        <f t="shared" si="1"/>
+        <v>4047217</v>
+      </c>
+      <c r="C47" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>http://go.nextraq.com/admin/location/save.html?locationId=4047217</v>
+      </c>
+      <c r="D47" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>Depart-&gt;H-Caribou</v>
+      </c>
+      <c r="E47" s="2" t="s">
         <v>307</v>
       </c>
-      <c r="D47" s="3" t="s">
-        <v>522</v>
-      </c>
-      <c r="E47" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" ht="20.25" hidden="1" x14ac:dyDescent="0.45">
+      <c r="F47" s="3" t="s">
+        <v>522</v>
+      </c>
+      <c r="G47" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="22.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>47</v>
       </c>
-      <c r="B48" s="2" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",C48)</f>
-        <v>Arrive-&gt;H-Chelmsford</v>
-      </c>
-      <c r="C48" s="2" t="s">
+      <c r="B48" t="str">
+        <f t="shared" si="1"/>
+        <v>2888843</v>
+      </c>
+      <c r="C48" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>http://go.nextraq.com/admin/location/save.html?locationId=2888843</v>
+      </c>
+      <c r="D48" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>Depart-&gt;H-Chelmsford</v>
+      </c>
+      <c r="E48" s="2" t="s">
         <v>308</v>
       </c>
-      <c r="D48" s="3" t="s">
-        <v>522</v>
-      </c>
-      <c r="E48" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" ht="20.25" hidden="1" x14ac:dyDescent="0.45">
+      <c r="F48" s="3" t="s">
+        <v>522</v>
+      </c>
+      <c r="G48" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="22.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>48</v>
       </c>
-      <c r="B49" s="2" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",C49)</f>
-        <v>Arrive-&gt;H-China</v>
-      </c>
-      <c r="C49" s="2" t="s">
+      <c r="B49" t="str">
+        <f t="shared" si="1"/>
+        <v>2888844</v>
+      </c>
+      <c r="C49" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>http://go.nextraq.com/admin/location/save.html?locationId=2888844</v>
+      </c>
+      <c r="D49" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>Depart-&gt;H-China</v>
+      </c>
+      <c r="E49" s="2" t="s">
         <v>309</v>
       </c>
-      <c r="D49" s="3" t="s">
-        <v>522</v>
-      </c>
-      <c r="E49" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" ht="20.25" hidden="1" x14ac:dyDescent="0.45">
+      <c r="F49" s="3" t="s">
+        <v>522</v>
+      </c>
+      <c r="G49" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="22.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>49</v>
       </c>
-      <c r="B50" s="2" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",C50)</f>
-        <v>Arrive-&gt;H-Claremont</v>
-      </c>
-      <c r="C50" s="2" t="s">
+      <c r="B50" t="str">
+        <f t="shared" si="1"/>
+        <v>2888845</v>
+      </c>
+      <c r="C50" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>http://go.nextraq.com/admin/location/save.html?locationId=2888845</v>
+      </c>
+      <c r="D50" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>Depart-&gt;H-Claremont</v>
+      </c>
+      <c r="E50" s="2" t="s">
         <v>310</v>
       </c>
-      <c r="D50" s="3" t="s">
-        <v>522</v>
-      </c>
-      <c r="E50" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" ht="20.25" hidden="1" x14ac:dyDescent="0.45">
+      <c r="F50" s="3" t="s">
+        <v>522</v>
+      </c>
+      <c r="G50" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" ht="22.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>50</v>
       </c>
-      <c r="B51" s="2" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",C51)</f>
-        <v>Arrive-&gt;H-Clinton</v>
-      </c>
-      <c r="C51" s="2" t="s">
+      <c r="B51" t="str">
+        <f t="shared" si="1"/>
+        <v>2888846</v>
+      </c>
+      <c r="C51" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>http://go.nextraq.com/admin/location/save.html?locationId=2888846</v>
+      </c>
+      <c r="D51" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>Depart-&gt;H-Clinton</v>
+      </c>
+      <c r="E51" s="2" t="s">
         <v>311</v>
       </c>
-      <c r="D51" s="3" t="s">
-        <v>522</v>
-      </c>
-      <c r="E51" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" ht="20.25" hidden="1" x14ac:dyDescent="0.45">
+      <c r="F51" s="3" t="s">
+        <v>522</v>
+      </c>
+      <c r="G51" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" ht="22.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>51</v>
       </c>
-      <c r="B52" s="2" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",C52)</f>
-        <v>Arrive-&gt;H-Concord</v>
-      </c>
-      <c r="C52" s="2" t="s">
+      <c r="B52" t="str">
+        <f t="shared" si="1"/>
+        <v>2888847</v>
+      </c>
+      <c r="C52" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>http://go.nextraq.com/admin/location/save.html?locationId=2888847</v>
+      </c>
+      <c r="D52" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>Depart-&gt;H-Concord</v>
+      </c>
+      <c r="E52" s="2" t="s">
         <v>312</v>
       </c>
-      <c r="D52" s="3" t="s">
-        <v>522</v>
-      </c>
-      <c r="E52" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" ht="20.25" hidden="1" x14ac:dyDescent="0.45">
+      <c r="F52" s="3" t="s">
+        <v>522</v>
+      </c>
+      <c r="G52" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" ht="22.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>52</v>
       </c>
-      <c r="B53" s="2" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",C53)</f>
-        <v>Arrive-&gt;H-Cornish</v>
-      </c>
-      <c r="C53" s="2" t="s">
+      <c r="B53" t="str">
+        <f t="shared" si="1"/>
+        <v>2888848</v>
+      </c>
+      <c r="C53" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>http://go.nextraq.com/admin/location/save.html?locationId=2888848</v>
+      </c>
+      <c r="D53" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>Depart-&gt;H-Cornish</v>
+      </c>
+      <c r="E53" s="2" t="s">
         <v>313</v>
       </c>
-      <c r="D53" s="3" t="s">
-        <v>522</v>
-      </c>
-      <c r="E53" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" ht="20.25" hidden="1" x14ac:dyDescent="0.45">
+      <c r="F53" s="3" t="s">
+        <v>522</v>
+      </c>
+      <c r="G53" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" ht="22.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>53</v>
       </c>
-      <c r="B54" s="2" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",C54)</f>
-        <v>Arrive-&gt;H-Damariscotta</v>
-      </c>
-      <c r="C54" s="2" t="s">
+      <c r="B54" t="str">
+        <f t="shared" si="1"/>
+        <v>2888849</v>
+      </c>
+      <c r="C54" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>http://go.nextraq.com/admin/location/save.html?locationId=2888849</v>
+      </c>
+      <c r="D54" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>Depart-&gt;H-Damariscotta</v>
+      </c>
+      <c r="E54" s="2" t="s">
         <v>314</v>
       </c>
-      <c r="D54" s="3" t="s">
-        <v>522</v>
-      </c>
-      <c r="E54" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" ht="20.25" hidden="1" x14ac:dyDescent="0.45">
+      <c r="F54" s="3" t="s">
+        <v>522</v>
+      </c>
+      <c r="G54" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" ht="22.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>54</v>
       </c>
-      <c r="B55" s="2" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",C55)</f>
-        <v>Arrive-&gt;H-Derry</v>
-      </c>
-      <c r="C55" s="2" t="s">
+      <c r="B55" t="str">
+        <f t="shared" si="1"/>
+        <v>2888850</v>
+      </c>
+      <c r="C55" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>http://go.nextraq.com/admin/location/save.html?locationId=2888850</v>
+      </c>
+      <c r="D55" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>Depart-&gt;H-Derry</v>
+      </c>
+      <c r="E55" s="2" t="s">
         <v>315</v>
       </c>
-      <c r="D55" s="3" t="s">
-        <v>522</v>
-      </c>
-      <c r="E55" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" ht="20.25" hidden="1" x14ac:dyDescent="0.45">
+      <c r="F55" s="3" t="s">
+        <v>522</v>
+      </c>
+      <c r="G55" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" ht="22.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>55</v>
       </c>
-      <c r="B56" s="2" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",C56)</f>
-        <v>Arrive-&gt;H-Dexter Buds</v>
-      </c>
-      <c r="C56" s="2" t="s">
+      <c r="B56" t="str">
+        <f t="shared" si="1"/>
+        <v>2888851</v>
+      </c>
+      <c r="C56" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>http://go.nextraq.com/admin/location/save.html?locationId=2888851</v>
+      </c>
+      <c r="D56" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>Depart-&gt;H-Dexter Buds</v>
+      </c>
+      <c r="E56" s="2" t="s">
         <v>316</v>
       </c>
-      <c r="D56" s="3" t="s">
-        <v>522</v>
-      </c>
-      <c r="E56" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" ht="20.25" hidden="1" x14ac:dyDescent="0.45">
+      <c r="F56" s="3" t="s">
+        <v>522</v>
+      </c>
+      <c r="G56" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" ht="22.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>56</v>
       </c>
-      <c r="B57" s="2" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",C57)</f>
-        <v>Arrive-&gt;H-Dover - Hall St</v>
-      </c>
-      <c r="C57" s="2" t="s">
+      <c r="B57" t="str">
+        <f t="shared" si="1"/>
+        <v>2888852</v>
+      </c>
+      <c r="C57" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>http://go.nextraq.com/admin/location/save.html?locationId=2888852</v>
+      </c>
+      <c r="D57" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>Depart-&gt;H-Dover - Hall St</v>
+      </c>
+      <c r="E57" s="2" t="s">
         <v>317</v>
       </c>
-      <c r="D57" s="3" t="s">
-        <v>522</v>
-      </c>
-      <c r="E57" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" ht="20.25" hidden="1" x14ac:dyDescent="0.45">
+      <c r="F57" s="3" t="s">
+        <v>522</v>
+      </c>
+      <c r="G57" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" ht="22.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>57</v>
       </c>
-      <c r="B58" s="2" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",C58)</f>
-        <v>Arrive-&gt;H-Doverfields</v>
-      </c>
-      <c r="C58" s="2" t="s">
+      <c r="B58" t="str">
+        <f t="shared" si="1"/>
+        <v>2888853</v>
+      </c>
+      <c r="C58" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>http://go.nextraq.com/admin/location/save.html?locationId=2888853</v>
+      </c>
+      <c r="D58" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>Depart-&gt;H-Doverfields</v>
+      </c>
+      <c r="E58" s="2" t="s">
         <v>318</v>
       </c>
-      <c r="D58" s="3" t="s">
-        <v>522</v>
-      </c>
-      <c r="E58" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" ht="20.25" hidden="1" x14ac:dyDescent="0.45">
+      <c r="F58" s="3" t="s">
+        <v>522</v>
+      </c>
+      <c r="G58" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" ht="22.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>58</v>
       </c>
-      <c r="B59" s="2" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",C59)</f>
-        <v>Arrive-&gt;H-Dracut</v>
-      </c>
-      <c r="C59" s="2" t="s">
+      <c r="B59" t="str">
+        <f t="shared" si="1"/>
+        <v>2888854</v>
+      </c>
+      <c r="C59" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>http://go.nextraq.com/admin/location/save.html?locationId=2888854</v>
+      </c>
+      <c r="D59" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>Depart-&gt;H-Dracut</v>
+      </c>
+      <c r="E59" s="2" t="s">
         <v>319</v>
       </c>
-      <c r="D59" s="3" t="s">
-        <v>522</v>
-      </c>
-      <c r="E59" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" ht="20.25" hidden="1" x14ac:dyDescent="0.45">
+      <c r="F59" s="3" t="s">
+        <v>522</v>
+      </c>
+      <c r="G59" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" ht="22.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>59</v>
       </c>
-      <c r="B60" s="2" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",C60)</f>
-        <v>Arrive-&gt;H-Durham</v>
-      </c>
-      <c r="C60" s="2" t="s">
+      <c r="B60" t="str">
+        <f t="shared" si="1"/>
+        <v>4669879</v>
+      </c>
+      <c r="C60" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>http://go.nextraq.com/admin/location/save.html?locationId=4669879</v>
+      </c>
+      <c r="D60" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>Depart-&gt;H-Durham</v>
+      </c>
+      <c r="E60" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="D60" s="3" t="s">
-        <v>522</v>
-      </c>
-      <c r="E60" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" ht="20.25" hidden="1" x14ac:dyDescent="0.45">
+      <c r="F60" s="3" t="s">
+        <v>522</v>
+      </c>
+      <c r="G60" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" ht="22.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>60</v>
       </c>
-      <c r="B61" s="2" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",C61)</f>
-        <v>Arrive-&gt;H-Easton</v>
-      </c>
-      <c r="C61" s="2" t="s">
+      <c r="B61" t="str">
+        <f t="shared" si="1"/>
+        <v>2888855</v>
+      </c>
+      <c r="C61" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>http://go.nextraq.com/admin/location/save.html?locationId=2888855</v>
+      </c>
+      <c r="D61" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>Depart-&gt;H-Easton</v>
+      </c>
+      <c r="E61" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="D61" s="3" t="s">
-        <v>522</v>
-      </c>
-      <c r="E61" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" ht="20.25" hidden="1" x14ac:dyDescent="0.45">
+      <c r="F61" s="3" t="s">
+        <v>522</v>
+      </c>
+      <c r="G61" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" ht="22.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>61</v>
       </c>
-      <c r="B62" s="2" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",C62)</f>
-        <v>Arrive-&gt;H-Ellsworth</v>
-      </c>
-      <c r="C62" s="2" t="s">
+      <c r="B62" t="str">
+        <f t="shared" si="1"/>
+        <v>2888856</v>
+      </c>
+      <c r="C62" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>http://go.nextraq.com/admin/location/save.html?locationId=2888856</v>
+      </c>
+      <c r="D62" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>Depart-&gt;H-Ellsworth</v>
+      </c>
+      <c r="E62" s="2" t="s">
         <v>322</v>
       </c>
-      <c r="D62" s="3" t="s">
-        <v>522</v>
-      </c>
-      <c r="E62" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" ht="20.25" hidden="1" x14ac:dyDescent="0.45">
+      <c r="F62" s="3" t="s">
+        <v>522</v>
+      </c>
+      <c r="G62" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" ht="22.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>62</v>
       </c>
-      <c r="B63" s="2" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",C63)</f>
-        <v>Arrive-&gt;H-Exeter</v>
-      </c>
-      <c r="C63" s="2" t="s">
+      <c r="B63" t="str">
+        <f t="shared" si="1"/>
+        <v>3035046</v>
+      </c>
+      <c r="C63" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>http://go.nextraq.com/admin/location/save.html?locationId=3035046</v>
+      </c>
+      <c r="D63" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>Depart-&gt;H-Exeter</v>
+      </c>
+      <c r="E63" s="2" t="s">
         <v>323</v>
       </c>
-      <c r="D63" s="3" t="s">
-        <v>522</v>
-      </c>
-      <c r="E63" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" ht="20.25" hidden="1" x14ac:dyDescent="0.45">
+      <c r="F63" s="3" t="s">
+        <v>522</v>
+      </c>
+      <c r="G63" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" ht="22.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>63</v>
       </c>
-      <c r="B64" s="2" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",C64)</f>
-        <v>Arrive-&gt;H-Falmouth</v>
-      </c>
-      <c r="C64" s="2" t="s">
+      <c r="B64" t="str">
+        <f t="shared" si="1"/>
+        <v>2888857</v>
+      </c>
+      <c r="C64" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>http://go.nextraq.com/admin/location/save.html?locationId=2888857</v>
+      </c>
+      <c r="D64" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>Depart-&gt;H-Falmouth</v>
+      </c>
+      <c r="E64" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="D64" s="3" t="s">
-        <v>522</v>
-      </c>
-      <c r="E64" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" ht="20.25" hidden="1" x14ac:dyDescent="0.45">
+      <c r="F64" s="3" t="s">
+        <v>522</v>
+      </c>
+      <c r="G64" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" ht="22.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>64</v>
       </c>
-      <c r="B65" s="2" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",C65)</f>
-        <v>Arrive-&gt;H-Farmington</v>
-      </c>
-      <c r="C65" s="2" t="s">
+      <c r="B65" t="str">
+        <f t="shared" si="1"/>
+        <v>2888858</v>
+      </c>
+      <c r="C65" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>http://go.nextraq.com/admin/location/save.html?locationId=2888858</v>
+      </c>
+      <c r="D65" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>Depart-&gt;H-Farmington</v>
+      </c>
+      <c r="E65" s="2" t="s">
         <v>325</v>
       </c>
-      <c r="D65" s="3" t="s">
-        <v>522</v>
-      </c>
-      <c r="E65" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" ht="20.25" hidden="1" x14ac:dyDescent="0.45">
+      <c r="F65" s="3" t="s">
+        <v>522</v>
+      </c>
+      <c r="G65" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" ht="22.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>65</v>
       </c>
-      <c r="B66" s="2" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",C66)</f>
-        <v>Arrive-&gt;H-Forest Ave (Portland)</v>
-      </c>
-      <c r="C66" s="2" t="s">
+      <c r="B66" t="str">
+        <f t="shared" si="1"/>
+        <v>2888859</v>
+      </c>
+      <c r="C66" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>http://go.nextraq.com/admin/location/save.html?locationId=2888859</v>
+      </c>
+      <c r="D66" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>Depart-&gt;H-Forest Ave (Portland)</v>
+      </c>
+      <c r="E66" s="2" t="s">
         <v>326</v>
       </c>
-      <c r="D66" s="3" t="s">
-        <v>522</v>
-      </c>
-      <c r="E66" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" ht="20.25" hidden="1" x14ac:dyDescent="0.45">
+      <c r="F66" s="3" t="s">
+        <v>522</v>
+      </c>
+      <c r="G66" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" ht="22.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>66</v>
       </c>
-      <c r="B67" s="2" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",C67)</f>
-        <v>Arrive-&gt;H-Franklin</v>
-      </c>
-      <c r="C67" s="2" t="s">
+      <c r="B67" t="str">
+        <f t="shared" ref="B67:B130" si="4">MID(A67,SEARCH(CHAR(34),A67)+1,SEARCH(CHAR(34),A67,SEARCH(CHAR(34),A67)+1)-SEARCH(CHAR(34),A67)-1)</f>
+        <v>2888860</v>
+      </c>
+      <c r="C67" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>http://go.nextraq.com/admin/location/save.html?locationId=2888860</v>
+      </c>
+      <c r="D67" s="2" t="str">
+        <f t="shared" ref="D67:D130" si="5">_xlfn.CONCAT("Depart-&gt;",E67)</f>
+        <v>Depart-&gt;H-Franklin</v>
+      </c>
+      <c r="E67" s="2" t="s">
         <v>327</v>
       </c>
-      <c r="D67" s="3" t="s">
-        <v>522</v>
-      </c>
-      <c r="E67" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" ht="20.25" hidden="1" x14ac:dyDescent="0.45">
+      <c r="F67" s="3" t="s">
+        <v>522</v>
+      </c>
+      <c r="G67" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" ht="22.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>67</v>
       </c>
-      <c r="B68" s="2" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",C68)</f>
-        <v>Arrive-&gt;H-Gardiner Me</v>
-      </c>
-      <c r="C68" s="2" t="s">
+      <c r="B68" t="str">
+        <f t="shared" si="4"/>
+        <v>2888861</v>
+      </c>
+      <c r="C68" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>http://go.nextraq.com/admin/location/save.html?locationId=2888861</v>
+      </c>
+      <c r="D68" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>Depart-&gt;H-Gardiner Me</v>
+      </c>
+      <c r="E68" s="2" t="s">
         <v>328</v>
       </c>
-      <c r="D68" s="3" t="s">
-        <v>522</v>
-      </c>
-      <c r="E68" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" ht="20.25" hidden="1" x14ac:dyDescent="0.45">
+      <c r="F68" s="3" t="s">
+        <v>522</v>
+      </c>
+      <c r="G68" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" ht="22.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>68</v>
       </c>
-      <c r="B69" s="2" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",C69)</f>
-        <v>Arrive-&gt;H-Gardner Ma</v>
-      </c>
-      <c r="C69" s="2" t="s">
+      <c r="B69" t="str">
+        <f t="shared" si="4"/>
+        <v>2888862</v>
+      </c>
+      <c r="C69" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>http://go.nextraq.com/admin/location/save.html?locationId=2888862</v>
+      </c>
+      <c r="D69" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>Depart-&gt;H-Gardner Ma</v>
+      </c>
+      <c r="E69" s="2" t="s">
         <v>329</v>
       </c>
-      <c r="D69" s="3" t="s">
-        <v>522</v>
-      </c>
-      <c r="E69" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" ht="20.25" hidden="1" x14ac:dyDescent="0.45">
+      <c r="F69" s="3" t="s">
+        <v>522</v>
+      </c>
+      <c r="G69" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" ht="22.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>69</v>
       </c>
-      <c r="B70" s="2" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",C70)</f>
-        <v>Arrive-&gt;H-Gilford</v>
-      </c>
-      <c r="C70" s="2" t="s">
+      <c r="B70" t="str">
+        <f t="shared" si="4"/>
+        <v>2888863</v>
+      </c>
+      <c r="C70" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>http://go.nextraq.com/admin/location/save.html?locationId=2888863</v>
+      </c>
+      <c r="D70" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>Depart-&gt;H-Gilford</v>
+      </c>
+      <c r="E70" s="2" t="s">
         <v>330</v>
       </c>
-      <c r="D70" s="3" t="s">
-        <v>522</v>
-      </c>
-      <c r="E70" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" ht="20.25" hidden="1" x14ac:dyDescent="0.45">
+      <c r="F70" s="3" t="s">
+        <v>522</v>
+      </c>
+      <c r="G70" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" ht="22.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>70</v>
       </c>
-      <c r="B71" s="2" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",C71)</f>
-        <v>Arrive-&gt;H-Glen</v>
-      </c>
-      <c r="C71" s="2" t="s">
+      <c r="B71" t="str">
+        <f t="shared" si="4"/>
+        <v>2888864</v>
+      </c>
+      <c r="C71" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>http://go.nextraq.com/admin/location/save.html?locationId=2888864</v>
+      </c>
+      <c r="D71" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>Depart-&gt;H-Glen</v>
+      </c>
+      <c r="E71" s="2" t="s">
         <v>331</v>
       </c>
-      <c r="D71" s="3" t="s">
-        <v>522</v>
-      </c>
-      <c r="E71" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" ht="20.25" hidden="1" x14ac:dyDescent="0.45">
+      <c r="F71" s="3" t="s">
+        <v>522</v>
+      </c>
+      <c r="G71" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" ht="22.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>71</v>
       </c>
-      <c r="B72" s="2" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",C72)</f>
-        <v>Arrive-&gt;H-Goffstown</v>
-      </c>
-      <c r="C72" s="2" t="s">
+      <c r="B72" t="str">
+        <f t="shared" si="4"/>
+        <v>2888865</v>
+      </c>
+      <c r="C72" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>http://go.nextraq.com/admin/location/save.html?locationId=2888865</v>
+      </c>
+      <c r="D72" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>Depart-&gt;H-Goffstown</v>
+      </c>
+      <c r="E72" s="2" t="s">
         <v>332</v>
       </c>
-      <c r="D72" s="3" t="s">
-        <v>522</v>
-      </c>
-      <c r="E72" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" ht="20.25" hidden="1" x14ac:dyDescent="0.45">
+      <c r="F72" s="3" t="s">
+        <v>522</v>
+      </c>
+      <c r="G72" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" ht="22.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>72</v>
       </c>
-      <c r="B73" s="2" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",C73)</f>
-        <v>Arrive-&gt;H-Gorham</v>
-      </c>
-      <c r="C73" s="2" t="s">
+      <c r="B73" t="str">
+        <f t="shared" si="4"/>
+        <v>2888866</v>
+      </c>
+      <c r="C73" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>http://go.nextraq.com/admin/location/save.html?locationId=2888866</v>
+      </c>
+      <c r="D73" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>Depart-&gt;H-Gorham</v>
+      </c>
+      <c r="E73" s="2" t="s">
         <v>333</v>
       </c>
-      <c r="D73" s="3" t="s">
-        <v>522</v>
-      </c>
-      <c r="E73" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" ht="20.25" hidden="1" x14ac:dyDescent="0.45">
+      <c r="F73" s="3" t="s">
+        <v>522</v>
+      </c>
+      <c r="G73" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" ht="22.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>73</v>
       </c>
-      <c r="B74" s="2" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",C74)</f>
-        <v>Arrive-&gt;H-Gray</v>
-      </c>
-      <c r="C74" s="2" t="s">
+      <c r="B74" t="str">
+        <f t="shared" si="4"/>
+        <v>2888867</v>
+      </c>
+      <c r="C74" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>http://go.nextraq.com/admin/location/save.html?locationId=2888867</v>
+      </c>
+      <c r="D74" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>Depart-&gt;H-Gray</v>
+      </c>
+      <c r="E74" s="2" t="s">
         <v>334</v>
       </c>
-      <c r="D74" s="3" t="s">
-        <v>522</v>
-      </c>
-      <c r="E74" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" ht="20.25" hidden="1" x14ac:dyDescent="0.45">
+      <c r="F74" s="3" t="s">
+        <v>522</v>
+      </c>
+      <c r="G74" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" ht="22.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>74</v>
       </c>
-      <c r="B75" s="2" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",C75)</f>
-        <v>Arrive-&gt;H-Hampden</v>
-      </c>
-      <c r="C75" s="2" t="s">
+      <c r="B75" t="str">
+        <f t="shared" si="4"/>
+        <v>2888947</v>
+      </c>
+      <c r="C75" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>http://go.nextraq.com/admin/location/save.html?locationId=2888947</v>
+      </c>
+      <c r="D75" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>Depart-&gt;H-Hampden</v>
+      </c>
+      <c r="E75" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="D75" s="3" t="s">
-        <v>522</v>
-      </c>
-      <c r="E75" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" ht="20.25" hidden="1" x14ac:dyDescent="0.45">
+      <c r="F75" s="3" t="s">
+        <v>522</v>
+      </c>
+      <c r="G75" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" ht="22.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>75</v>
       </c>
-      <c r="B76" s="2" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",C76)</f>
-        <v>Arrive-&gt;H-Hampstead</v>
-      </c>
-      <c r="C76" s="2" t="s">
+      <c r="B76" t="str">
+        <f t="shared" si="4"/>
+        <v>2888868</v>
+      </c>
+      <c r="C76" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>http://go.nextraq.com/admin/location/save.html?locationId=2888868</v>
+      </c>
+      <c r="D76" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>Depart-&gt;H-Hampstead</v>
+      </c>
+      <c r="E76" s="2" t="s">
         <v>336</v>
       </c>
-      <c r="D76" s="3" t="s">
-        <v>522</v>
-      </c>
-      <c r="E76" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" ht="20.25" hidden="1" x14ac:dyDescent="0.45">
+      <c r="F76" s="3" t="s">
+        <v>522</v>
+      </c>
+      <c r="G76" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" ht="22.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>76</v>
       </c>
-      <c r="B77" s="2" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",C77)</f>
-        <v>Arrive-&gt;H-Hanover St (Manchester)</v>
-      </c>
-      <c r="C77" s="2" t="s">
+      <c r="B77" t="str">
+        <f t="shared" si="4"/>
+        <v>2888869</v>
+      </c>
+      <c r="C77" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>http://go.nextraq.com/admin/location/save.html?locationId=2888869</v>
+      </c>
+      <c r="D77" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>Depart-&gt;H-Hanover St (Manchester)</v>
+      </c>
+      <c r="E77" s="2" t="s">
         <v>337</v>
       </c>
-      <c r="D77" s="3" t="s">
-        <v>522</v>
-      </c>
-      <c r="E77" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" ht="20.25" hidden="1" x14ac:dyDescent="0.45">
+      <c r="F77" s="3" t="s">
+        <v>522</v>
+      </c>
+      <c r="G77" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" ht="22.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>77</v>
       </c>
-      <c r="B78" s="2" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",C78)</f>
-        <v>Arrive-&gt;H-Hogan Rd (Bangor)</v>
-      </c>
-      <c r="C78" s="2" t="s">
+      <c r="B78" t="str">
+        <f t="shared" si="4"/>
+        <v>2888870</v>
+      </c>
+      <c r="C78" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>http://go.nextraq.com/admin/location/save.html?locationId=2888870</v>
+      </c>
+      <c r="D78" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>Depart-&gt;H-Hogan Rd (Bangor)</v>
+      </c>
+      <c r="E78" s="2" t="s">
         <v>338</v>
       </c>
-      <c r="D78" s="3" t="s">
-        <v>522</v>
-      </c>
-      <c r="E78" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" ht="20.25" hidden="1" x14ac:dyDescent="0.45">
+      <c r="F78" s="3" t="s">
+        <v>522</v>
+      </c>
+      <c r="G78" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" ht="22.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>78</v>
       </c>
-      <c r="B79" s="2" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",C79)</f>
-        <v>Arrive-&gt;H-Hooksett</v>
-      </c>
-      <c r="C79" s="2" t="s">
+      <c r="B79" t="str">
+        <f t="shared" si="4"/>
+        <v>2888871</v>
+      </c>
+      <c r="C79" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>http://go.nextraq.com/admin/location/save.html?locationId=2888871</v>
+      </c>
+      <c r="D79" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>Depart-&gt;H-Hooksett</v>
+      </c>
+      <c r="E79" s="2" t="s">
         <v>339</v>
       </c>
-      <c r="D79" s="3" t="s">
-        <v>522</v>
-      </c>
-      <c r="E79" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" ht="20.25" hidden="1" x14ac:dyDescent="0.45">
+      <c r="F79" s="3" t="s">
+        <v>522</v>
+      </c>
+      <c r="G79" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" ht="22.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>79</v>
       </c>
-      <c r="B80" s="2" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",C80)</f>
-        <v>Arrive-&gt;H-Houlton</v>
-      </c>
-      <c r="C80" s="2" t="s">
+      <c r="B80" t="str">
+        <f t="shared" si="4"/>
+        <v>4047145</v>
+      </c>
+      <c r="C80" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>http://go.nextraq.com/admin/location/save.html?locationId=4047145</v>
+      </c>
+      <c r="D80" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>Depart-&gt;H-Houlton</v>
+      </c>
+      <c r="E80" s="2" t="s">
         <v>340</v>
       </c>
-      <c r="D80" s="3" t="s">
-        <v>522</v>
-      </c>
-      <c r="E80" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" ht="20.25" hidden="1" x14ac:dyDescent="0.45">
+      <c r="F80" s="3" t="s">
+        <v>522</v>
+      </c>
+      <c r="G80" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" ht="22.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>80</v>
       </c>
-      <c r="B81" s="2" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",C81)</f>
-        <v>Arrive-&gt;H-Hudson MA</v>
-      </c>
-      <c r="C81" s="2" t="s">
+      <c r="B81" t="str">
+        <f t="shared" si="4"/>
+        <v>2888872</v>
+      </c>
+      <c r="C81" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>http://go.nextraq.com/admin/location/save.html?locationId=2888872</v>
+      </c>
+      <c r="D81" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>Depart-&gt;H-Hudson MA</v>
+      </c>
+      <c r="E81" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>522</v>
-      </c>
-      <c r="E81" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" ht="20.25" hidden="1" x14ac:dyDescent="0.45">
+      <c r="F81" s="3" t="s">
+        <v>522</v>
+      </c>
+      <c r="G81" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" ht="22.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>81</v>
       </c>
-      <c r="B82" s="2" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",C82)</f>
-        <v>Arrive-&gt;H-Hudson NH</v>
-      </c>
-      <c r="C82" s="2" t="s">
+      <c r="B82" t="str">
+        <f t="shared" si="4"/>
+        <v>2888873</v>
+      </c>
+      <c r="C82" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>http://go.nextraq.com/admin/location/save.html?locationId=2888873</v>
+      </c>
+      <c r="D82" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>Depart-&gt;H-Hudson NH</v>
+      </c>
+      <c r="E82" s="2" t="s">
         <v>342</v>
       </c>
-      <c r="D82" s="3" t="s">
-        <v>522</v>
-      </c>
-      <c r="E82" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" ht="20.25" hidden="1" x14ac:dyDescent="0.45">
+      <c r="F82" s="3" t="s">
+        <v>522</v>
+      </c>
+      <c r="G82" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" ht="22.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>82</v>
       </c>
-      <c r="B83" s="2" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",C83)</f>
-        <v>Arrive-&gt;H-Jay  Me</v>
-      </c>
-      <c r="C83" s="2" t="s">
+      <c r="B83" t="str">
+        <f t="shared" si="4"/>
+        <v>2888874</v>
+      </c>
+      <c r="C83" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>http://go.nextraq.com/admin/location/save.html?locationId=2888874</v>
+      </c>
+      <c r="D83" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>Depart-&gt;H-Jay  Me</v>
+      </c>
+      <c r="E83" s="2" t="s">
         <v>343</v>
       </c>
-      <c r="D83" s="3" t="s">
-        <v>522</v>
-      </c>
-      <c r="E83" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" ht="20.25" hidden="1" x14ac:dyDescent="0.45">
+      <c r="F83" s="3" t="s">
+        <v>522</v>
+      </c>
+      <c r="G83" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" ht="22.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>83</v>
       </c>
-      <c r="B84" s="2" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",C84)</f>
-        <v>Arrive-&gt;H-John Devine (Manchester)</v>
-      </c>
-      <c r="C84" s="2" t="s">
+      <c r="B84" t="str">
+        <f t="shared" si="4"/>
+        <v>2888875</v>
+      </c>
+      <c r="C84" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>http://go.nextraq.com/admin/location/save.html?locationId=2888875</v>
+      </c>
+      <c r="D84" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>Depart-&gt;H-John Devine (Manchester)</v>
+      </c>
+      <c r="E84" s="2" t="s">
         <v>344</v>
       </c>
-      <c r="D84" s="3" t="s">
-        <v>522</v>
-      </c>
-      <c r="E84" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" ht="20.25" hidden="1" x14ac:dyDescent="0.45">
+      <c r="F84" s="3" t="s">
+        <v>522</v>
+      </c>
+      <c r="G84" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" ht="22.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>84</v>
       </c>
-      <c r="B85" s="2" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",C85)</f>
-        <v>Arrive-&gt;H-Keene</v>
-      </c>
-      <c r="C85" s="2" t="s">
+      <c r="B85" t="str">
+        <f t="shared" si="4"/>
+        <v>2888876</v>
+      </c>
+      <c r="C85" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>http://go.nextraq.com/admin/location/save.html?locationId=2888876</v>
+      </c>
+      <c r="D85" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>Depart-&gt;H-Keene</v>
+      </c>
+      <c r="E85" s="2" t="s">
         <v>345</v>
       </c>
-      <c r="D85" s="3" t="s">
-        <v>522</v>
-      </c>
-      <c r="E85" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" ht="20.25" hidden="1" x14ac:dyDescent="0.45">
+      <c r="F85" s="3" t="s">
+        <v>522</v>
+      </c>
+      <c r="G85" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" ht="22.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>85</v>
       </c>
-      <c r="B86" s="2" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",C86)</f>
-        <v>Arrive-&gt;H-Kennebunk</v>
-      </c>
-      <c r="C86" s="2" t="s">
+      <c r="B86" t="str">
+        <f t="shared" si="4"/>
+        <v>2888877</v>
+      </c>
+      <c r="C86" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>http://go.nextraq.com/admin/location/save.html?locationId=2888877</v>
+      </c>
+      <c r="D86" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>Depart-&gt;H-Kennebunk</v>
+      </c>
+      <c r="E86" s="2" t="s">
         <v>346</v>
       </c>
-      <c r="D86" s="3" t="s">
-        <v>522</v>
-      </c>
-      <c r="E86" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" ht="20.25" hidden="1" x14ac:dyDescent="0.45">
+      <c r="F86" s="3" t="s">
+        <v>522</v>
+      </c>
+      <c r="G86" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" ht="22.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>86</v>
       </c>
-      <c r="B87" s="2" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",C87)</f>
-        <v>Arrive-&gt;H-Kingston</v>
-      </c>
-      <c r="C87" s="2" t="s">
+      <c r="B87" t="str">
+        <f t="shared" si="4"/>
+        <v>2888878</v>
+      </c>
+      <c r="C87" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>http://go.nextraq.com/admin/location/save.html?locationId=2888878</v>
+      </c>
+      <c r="D87" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>Depart-&gt;H-Kingston</v>
+      </c>
+      <c r="E87" s="2" t="s">
         <v>347</v>
       </c>
-      <c r="D87" s="3" t="s">
-        <v>522</v>
-      </c>
-      <c r="E87" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" ht="20.25" hidden="1" x14ac:dyDescent="0.45">
+      <c r="F87" s="3" t="s">
+        <v>522</v>
+      </c>
+      <c r="G87" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" ht="22.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>87</v>
       </c>
-      <c r="B88" s="2" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",C88)</f>
-        <v>Arrive-&gt;H-Leominster - Lancaster</v>
-      </c>
-      <c r="C88" s="2" t="s">
+      <c r="B88" t="str">
+        <f t="shared" si="4"/>
+        <v>2888879</v>
+      </c>
+      <c r="C88" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>http://go.nextraq.com/admin/location/save.html?locationId=2888879</v>
+      </c>
+      <c r="D88" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>Depart-&gt;H-Leominster - Lancaster</v>
+      </c>
+      <c r="E88" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="D88" s="3" t="s">
-        <v>522</v>
-      </c>
-      <c r="E88" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" ht="20.25" hidden="1" x14ac:dyDescent="0.45">
+      <c r="F88" s="3" t="s">
+        <v>522</v>
+      </c>
+      <c r="G88" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" ht="22.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>88</v>
       </c>
-      <c r="B89" s="2" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",C89)</f>
-        <v>Arrive-&gt;H-Leominster - Twin City</v>
-      </c>
-      <c r="C89" s="2" t="s">
+      <c r="B89" t="str">
+        <f t="shared" si="4"/>
+        <v>2888880</v>
+      </c>
+      <c r="C89" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>http://go.nextraq.com/admin/location/save.html?locationId=2888880</v>
+      </c>
+      <c r="D89" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>Depart-&gt;H-Leominster - Twin City</v>
+      </c>
+      <c r="E89" s="2" t="s">
         <v>349</v>
       </c>
-      <c r="D89" s="3" t="s">
-        <v>522</v>
-      </c>
-      <c r="E89" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" ht="20.25" hidden="1" x14ac:dyDescent="0.45">
+      <c r="F89" s="3" t="s">
+        <v>522</v>
+      </c>
+      <c r="G89" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" ht="22.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>89</v>
       </c>
-      <c r="B90" s="2" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",C90)</f>
-        <v>Arrive-&gt;H-Lewiston</v>
-      </c>
-      <c r="C90" s="2" t="s">
+      <c r="B90" t="str">
+        <f t="shared" si="4"/>
+        <v>2888881</v>
+      </c>
+      <c r="C90" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>http://go.nextraq.com/admin/location/save.html?locationId=2888881</v>
+      </c>
+      <c r="D90" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>Depart-&gt;H-Lewiston</v>
+      </c>
+      <c r="E90" s="2" t="s">
         <v>350</v>
       </c>
-      <c r="D90" s="3" t="s">
-        <v>522</v>
-      </c>
-      <c r="E90" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" ht="20.25" hidden="1" x14ac:dyDescent="0.45">
+      <c r="F90" s="3" t="s">
+        <v>522</v>
+      </c>
+      <c r="G90" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" ht="22.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>90</v>
       </c>
-      <c r="B91" s="2" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",C91)</f>
-        <v>Arrive-&gt;H-Lincoln</v>
-      </c>
-      <c r="C91" s="2" t="s">
+      <c r="B91" t="str">
+        <f t="shared" si="4"/>
+        <v>2888882</v>
+      </c>
+      <c r="C91" s="4" t="str">
+        <f t="shared" ref="C91:C154" si="6">HYPERLINK(_xlfn.CONCAT("http://go.nextraq.com/admin/location/save.html?locationId=",B91))</f>
+        <v>http://go.nextraq.com/admin/location/save.html?locationId=2888882</v>
+      </c>
+      <c r="D91" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>Depart-&gt;H-Lincoln</v>
+      </c>
+      <c r="E91" s="2" t="s">
         <v>351</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>522</v>
-      </c>
-      <c r="E91" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" ht="20.25" hidden="1" x14ac:dyDescent="0.45">
+      <c r="F91" s="3" t="s">
+        <v>522</v>
+      </c>
+      <c r="G91" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" ht="22.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>91</v>
       </c>
-      <c r="B92" s="2" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",C92)</f>
-        <v>Arrive-&gt;H-Londonderry</v>
-      </c>
-      <c r="C92" s="2" t="s">
+      <c r="B92" t="str">
+        <f t="shared" si="4"/>
+        <v>2888883</v>
+      </c>
+      <c r="C92" s="4" t="str">
+        <f t="shared" si="6"/>
+        <v>http://go.nextraq.com/admin/location/save.html?locationId=2888883</v>
+      </c>
+      <c r="D92" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>Depart-&gt;H-Londonderry</v>
+      </c>
+      <c r="E92" s="2" t="s">
         <v>352</v>
       </c>
-      <c r="D92" s="3" t="s">
-        <v>522</v>
-      </c>
-      <c r="E92" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" ht="20.25" hidden="1" x14ac:dyDescent="0.45">
+      <c r="F92" s="3" t="s">
+        <v>522</v>
+      </c>
+      <c r="G92" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" ht="22.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>92</v>
       </c>
-      <c r="B93" s="2" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",C93)</f>
-        <v>Arrive-&gt;H-Lowell</v>
-      </c>
-      <c r="C93" s="2" t="s">
+      <c r="B93" t="str">
+        <f t="shared" si="4"/>
+        <v>2888884</v>
+      </c>
+      <c r="C93" s="4" t="str">
+        <f t="shared" si="6"/>
+        <v>http://go.nextraq.com/admin/location/save.html?locationId=2888884</v>
+      </c>
+      <c r="D93" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>Depart-&gt;H-Lowell</v>
+      </c>
+      <c r="E93" s="2" t="s">
         <v>353</v>
       </c>
-      <c r="D93" s="3" t="s">
-        <v>522</v>
-      </c>
-      <c r="E93" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" ht="20.25" hidden="1" x14ac:dyDescent="0.45">
+      <c r="F93" s="3" t="s">
+        <v>522</v>
+      </c>
+      <c r="G93" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" ht="22.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>93</v>
       </c>
-      <c r="B94" s="2" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",C94)</f>
-        <v>Arrive-&gt;H-Lunenburg</v>
-      </c>
-      <c r="C94" s="2" t="s">
+      <c r="B94" t="str">
+        <f t="shared" si="4"/>
+        <v>2888885</v>
+      </c>
+      <c r="C94" s="4" t="str">
+        <f t="shared" si="6"/>
+        <v>http://go.nextraq.com/admin/location/save.html?locationId=2888885</v>
+      </c>
+      <c r="D94" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>Depart-&gt;H-Lunenburg</v>
+      </c>
+      <c r="E94" s="2" t="s">
         <v>354</v>
       </c>
-      <c r="D94" s="3" t="s">
-        <v>522</v>
-      </c>
-      <c r="E94" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" ht="20.25" hidden="1" x14ac:dyDescent="0.45">
+      <c r="F94" s="3" t="s">
+        <v>522</v>
+      </c>
+      <c r="G94" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" ht="22.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>94</v>
       </c>
-      <c r="B95" s="2" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",C95)</f>
-        <v>Arrive-&gt;H-Machias</v>
-      </c>
-      <c r="C95" s="2" t="s">
+      <c r="B95" t="str">
+        <f t="shared" si="4"/>
+        <v>2888886</v>
+      </c>
+      <c r="C95" s="4" t="str">
+        <f t="shared" si="6"/>
+        <v>http://go.nextraq.com/admin/location/save.html?locationId=2888886</v>
+      </c>
+      <c r="D95" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>Depart-&gt;H-Machias</v>
+      </c>
+      <c r="E95" s="2" t="s">
         <v>355</v>
       </c>
-      <c r="D95" s="3" t="s">
-        <v>522</v>
-      </c>
-      <c r="E95" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" ht="20.25" hidden="1" x14ac:dyDescent="0.45">
+      <c r="F95" s="3" t="s">
+        <v>522</v>
+      </c>
+      <c r="G95" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" ht="22.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>95</v>
       </c>
-      <c r="B96" s="2" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",C96)</f>
-        <v>Arrive-&gt;H-Madison</v>
-      </c>
-      <c r="C96" s="2" t="s">
+      <c r="B96" t="str">
+        <f t="shared" si="4"/>
+        <v>2888887</v>
+      </c>
+      <c r="C96" s="4" t="str">
+        <f t="shared" si="6"/>
+        <v>http://go.nextraq.com/admin/location/save.html?locationId=2888887</v>
+      </c>
+      <c r="D96" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>Depart-&gt;H-Madison</v>
+      </c>
+      <c r="E96" s="2" t="s">
         <v>356</v>
       </c>
-      <c r="D96" s="3" t="s">
-        <v>522</v>
-      </c>
-      <c r="E96" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" ht="20.25" hidden="1" x14ac:dyDescent="0.45">
+      <c r="F96" s="3" t="s">
+        <v>522</v>
+      </c>
+      <c r="G96" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" ht="22.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>96</v>
       </c>
-      <c r="B97" s="2" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",C97)</f>
-        <v>Arrive-&gt;H-Maine Mall</v>
-      </c>
-      <c r="C97" s="2" t="s">
+      <c r="B97" t="str">
+        <f t="shared" si="4"/>
+        <v>2888889</v>
+      </c>
+      <c r="C97" s="4" t="str">
+        <f t="shared" si="6"/>
+        <v>http://go.nextraq.com/admin/location/save.html?locationId=2888889</v>
+      </c>
+      <c r="D97" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>Depart-&gt;H-Maine Mall</v>
+      </c>
+      <c r="E97" s="2" t="s">
         <v>357</v>
       </c>
-      <c r="D97" s="3" t="s">
-        <v>522</v>
-      </c>
-      <c r="E97" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" ht="20.25" hidden="1" x14ac:dyDescent="0.45">
+      <c r="F97" s="3" t="s">
+        <v>522</v>
+      </c>
+      <c r="G97" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" ht="22.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>97</v>
       </c>
-      <c r="B98" s="2" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",C98)</f>
-        <v>Arrive-&gt;H-Marlborough</v>
-      </c>
-      <c r="C98" s="2" t="s">
+      <c r="B98" t="str">
+        <f t="shared" si="4"/>
+        <v>2888888</v>
+      </c>
+      <c r="C98" s="4" t="str">
+        <f t="shared" si="6"/>
+        <v>http://go.nextraq.com/admin/location/save.html?locationId=2888888</v>
+      </c>
+      <c r="D98" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>Depart-&gt;H-Marlborough</v>
+      </c>
+      <c r="E98" s="2" t="s">
         <v>358</v>
       </c>
-      <c r="D98" s="3" t="s">
-        <v>522</v>
-      </c>
-      <c r="E98" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" ht="20.25" hidden="1" x14ac:dyDescent="0.45">
+      <c r="F98" s="3" t="s">
+        <v>522</v>
+      </c>
+      <c r="G98" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" ht="22.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>98</v>
       </c>
-      <c r="B99" s="2" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",C99)</f>
-        <v>Arrive-&gt;H-Meredith</v>
-      </c>
-      <c r="C99" s="2" t="s">
+      <c r="B99" t="str">
+        <f t="shared" si="4"/>
+        <v>2888890</v>
+      </c>
+      <c r="C99" s="4" t="str">
+        <f t="shared" si="6"/>
+        <v>http://go.nextraq.com/admin/location/save.html?locationId=2888890</v>
+      </c>
+      <c r="D99" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>Depart-&gt;H-Meredith</v>
+      </c>
+      <c r="E99" s="2" t="s">
         <v>359</v>
       </c>
-      <c r="D99" s="3" t="s">
-        <v>522</v>
-      </c>
-      <c r="E99" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5" ht="20.25" hidden="1" x14ac:dyDescent="0.45">
+      <c r="F99" s="3" t="s">
+        <v>522</v>
+      </c>
+      <c r="G99" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" ht="22.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>99</v>
       </c>
-      <c r="B100" s="2" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",C100)</f>
-        <v>Arrive-&gt;H-Middleboro</v>
-      </c>
-      <c r="C100" s="2" t="s">
+      <c r="B100" t="str">
+        <f t="shared" si="4"/>
+        <v>2888891</v>
+      </c>
+      <c r="C100" s="4" t="str">
+        <f t="shared" si="6"/>
+        <v>http://go.nextraq.com/admin/location/save.html?locationId=2888891</v>
+      </c>
+      <c r="D100" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>Depart-&gt;H-Middleboro</v>
+      </c>
+      <c r="E100" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="D100" s="3" t="s">
-        <v>522</v>
-      </c>
-      <c r="E100" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F100" s="3" t="s">
+        <v>522</v>
+      </c>
+      <c r="G100" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" ht="22.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>100</v>
       </c>
       <c r="B101" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",C101)</f>
-        <v>Arrive-&gt;H-Milford</v>
-      </c>
-      <c r="C101" t="s">
+        <f t="shared" si="4"/>
+        <v>2888892</v>
+      </c>
+      <c r="C101" s="4" t="str">
+        <f t="shared" si="6"/>
+        <v>http://go.nextraq.com/admin/location/save.html?locationId=2888892</v>
+      </c>
+      <c r="D101" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>Depart-&gt;H-Milford</v>
+      </c>
+      <c r="E101" t="s">
         <v>361</v>
       </c>
-      <c r="D101" s="1" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F101" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="G101" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" ht="22.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>101</v>
       </c>
       <c r="B102" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",C102)</f>
-        <v>Arrive-&gt;H-Mill Creek</v>
-      </c>
-      <c r="C102" t="s">
+        <f t="shared" si="4"/>
+        <v>2888893</v>
+      </c>
+      <c r="C102" s="4" t="str">
+        <f t="shared" si="6"/>
+        <v>http://go.nextraq.com/admin/location/save.html?locationId=2888893</v>
+      </c>
+      <c r="D102" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>Depart-&gt;H-Mill Creek</v>
+      </c>
+      <c r="E102" t="s">
         <v>362</v>
       </c>
-      <c r="D102" s="1" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F102" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="G102" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" ht="22.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>102</v>
       </c>
       <c r="B103" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",C103)</f>
-        <v>Arrive-&gt;H-Millinocket - Central Ave</v>
-      </c>
-      <c r="C103" t="s">
+        <f t="shared" si="4"/>
+        <v>2888894</v>
+      </c>
+      <c r="C103" s="4" t="str">
+        <f t="shared" si="6"/>
+        <v>http://go.nextraq.com/admin/location/save.html?locationId=2888894</v>
+      </c>
+      <c r="D103" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>Depart-&gt;H-Millinocket - Central Ave</v>
+      </c>
+      <c r="E103" t="s">
         <v>363</v>
       </c>
-      <c r="D103" s="1" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F103" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="G103" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" ht="22.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>103</v>
       </c>
       <c r="B104" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",C104)</f>
-        <v>Arrive-&gt;H-Millinocket (Lounsbury'S)</v>
-      </c>
-      <c r="C104" t="s">
+        <f t="shared" si="4"/>
+        <v>2888895</v>
+      </c>
+      <c r="C104" s="4" t="str">
+        <f t="shared" si="6"/>
+        <v>http://go.nextraq.com/admin/location/save.html?locationId=2888895</v>
+      </c>
+      <c r="D104" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>Depart-&gt;H-Millinocket (Lounsbury'S)</v>
+      </c>
+      <c r="E104" t="s">
         <v>364</v>
       </c>
-      <c r="D104" s="1" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F104" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="G104" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" ht="22.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>104</v>
       </c>
       <c r="B105" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",C105)</f>
-        <v>Arrive-&gt;H-Nashua</v>
-      </c>
-      <c r="C105" t="s">
+        <f t="shared" si="4"/>
+        <v>2888896</v>
+      </c>
+      <c r="C105" s="4" t="str">
+        <f t="shared" si="6"/>
+        <v>http://go.nextraq.com/admin/location/save.html?locationId=2888896</v>
+      </c>
+      <c r="D105" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>Depart-&gt;H-Nashua</v>
+      </c>
+      <c r="E105" t="s">
         <v>365</v>
       </c>
-      <c r="D105" s="1" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F105" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="G105" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" ht="22.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>105</v>
       </c>
       <c r="B106" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",C106)</f>
-        <v>Arrive-&gt;H-New London</v>
-      </c>
-      <c r="C106" t="s">
+        <f t="shared" si="4"/>
+        <v>2888897</v>
+      </c>
+      <c r="C106" s="4" t="str">
+        <f t="shared" si="6"/>
+        <v>http://go.nextraq.com/admin/location/save.html?locationId=2888897</v>
+      </c>
+      <c r="D106" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>Depart-&gt;H-New London</v>
+      </c>
+      <c r="E106" t="s">
         <v>366</v>
       </c>
-      <c r="D106" s="1" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F106" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="G106" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" ht="22.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>106</v>
       </c>
       <c r="B107" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",C107)</f>
-        <v>Arrive-&gt;H-Newport Buds</v>
-      </c>
-      <c r="C107" t="s">
+        <f t="shared" si="4"/>
+        <v>2888898</v>
+      </c>
+      <c r="C107" s="4" t="str">
+        <f t="shared" si="6"/>
+        <v>http://go.nextraq.com/admin/location/save.html?locationId=2888898</v>
+      </c>
+      <c r="D107" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>Depart-&gt;H-Newport Buds</v>
+      </c>
+      <c r="E107" t="s">
         <v>367</v>
       </c>
-      <c r="D107" s="1" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F107" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="G107" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" ht="22.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>107</v>
       </c>
       <c r="B108" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",C108)</f>
-        <v>Arrive-&gt;H-North Berwick</v>
-      </c>
-      <c r="C108" t="s">
+        <f t="shared" si="4"/>
+        <v>4270388</v>
+      </c>
+      <c r="C108" s="4" t="str">
+        <f t="shared" si="6"/>
+        <v>http://go.nextraq.com/admin/location/save.html?locationId=4270388</v>
+      </c>
+      <c r="D108" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>Depart-&gt;H-North Berwick</v>
+      </c>
+      <c r="E108" t="s">
         <v>368</v>
       </c>
-      <c r="D108" s="1" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F108" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="G108" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" ht="22.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>108</v>
       </c>
       <c r="B109" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",C109)</f>
-        <v>Arrive-&gt;H-North Brookfield</v>
-      </c>
-      <c r="C109" t="s">
+        <f t="shared" si="4"/>
+        <v>2888899</v>
+      </c>
+      <c r="C109" s="4" t="str">
+        <f t="shared" si="6"/>
+        <v>http://go.nextraq.com/admin/location/save.html?locationId=2888899</v>
+      </c>
+      <c r="D109" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>Depart-&gt;H-North Brookfield</v>
+      </c>
+      <c r="E109" t="s">
         <v>369</v>
       </c>
-      <c r="D109" s="1" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F109" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="G109" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" ht="22.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>109</v>
       </c>
       <c r="B110" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",C110)</f>
-        <v>Arrive-&gt;H-North Conway</v>
-      </c>
-      <c r="C110" t="s">
+        <f t="shared" si="4"/>
+        <v>2888900</v>
+      </c>
+      <c r="C110" s="4" t="str">
+        <f t="shared" si="6"/>
+        <v>http://go.nextraq.com/admin/location/save.html?locationId=2888900</v>
+      </c>
+      <c r="D110" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>Depart-&gt;H-North Conway</v>
+      </c>
+      <c r="E110" t="s">
         <v>370</v>
       </c>
-      <c r="D110" s="1" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F110" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="G110" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" ht="22.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>110</v>
       </c>
       <c r="B111" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",C111)</f>
-        <v>Arrive-&gt;H-Northwood</v>
-      </c>
-      <c r="C111" t="s">
+        <f t="shared" si="4"/>
+        <v>2888901</v>
+      </c>
+      <c r="C111" s="4" t="str">
+        <f t="shared" si="6"/>
+        <v>http://go.nextraq.com/admin/location/save.html?locationId=2888901</v>
+      </c>
+      <c r="D111" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>Depart-&gt;H-Northwood</v>
+      </c>
+      <c r="E111" t="s">
         <v>371</v>
       </c>
-      <c r="D111" s="1" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F111" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="G111" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" ht="22.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>111</v>
       </c>
       <c r="B112" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",C112)</f>
-        <v>Arrive-&gt;H-Norwell</v>
-      </c>
-      <c r="C112" t="s">
+        <f t="shared" si="4"/>
+        <v>2888902</v>
+      </c>
+      <c r="C112" s="4" t="str">
+        <f t="shared" si="6"/>
+        <v>http://go.nextraq.com/admin/location/save.html?locationId=2888902</v>
+      </c>
+      <c r="D112" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>Depart-&gt;H-Norwell</v>
+      </c>
+      <c r="E112" t="s">
         <v>372</v>
       </c>
-      <c r="D112" s="1" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="F112" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="G112" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" ht="22.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>112</v>
       </c>
       <c r="B113" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",C113)</f>
-        <v>Arrive-&gt;H-Norwood</v>
-      </c>
-      <c r="C113" t="s">
+        <f t="shared" si="4"/>
+        <v>2888903</v>
+      </c>
+      <c r="C113" s="4" t="str">
+        <f t="shared" si="6"/>
+        <v>http://go.nextraq.com/admin/location/save.html?locationId=2888903</v>
+      </c>
+      <c r="D113" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>Depart-&gt;H-Norwood</v>
+      </c>
+      <c r="E113" t="s">
         <v>373</v>
       </c>
-      <c r="D113" s="1" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="F113" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="G113" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" ht="22.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>113</v>
       </c>
       <c r="B114" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",C114)</f>
-        <v>Arrive-&gt;H-Old Orchard Beach</v>
-      </c>
-      <c r="C114" t="s">
+        <f t="shared" si="4"/>
+        <v>2888904</v>
+      </c>
+      <c r="C114" s="4" t="str">
+        <f t="shared" si="6"/>
+        <v>http://go.nextraq.com/admin/location/save.html?locationId=2888904</v>
+      </c>
+      <c r="D114" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>Depart-&gt;H-Old Orchard Beach</v>
+      </c>
+      <c r="E114" t="s">
         <v>374</v>
       </c>
-      <c r="D114" s="1" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="F114" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="G114" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" ht="22.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>114</v>
       </c>
       <c r="B115" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",C115)</f>
-        <v>Arrive-&gt;H-Old Town</v>
-      </c>
-      <c r="C115" t="s">
+        <f t="shared" si="4"/>
+        <v>2888905</v>
+      </c>
+      <c r="C115" s="4" t="str">
+        <f t="shared" si="6"/>
+        <v>http://go.nextraq.com/admin/location/save.html?locationId=2888905</v>
+      </c>
+      <c r="D115" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>Depart-&gt;H-Old Town</v>
+      </c>
+      <c r="E115" t="s">
         <v>375</v>
       </c>
-      <c r="D115" s="1" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="F115" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="G115" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" ht="22.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>115</v>
       </c>
       <c r="B116" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",C116)</f>
-        <v>Arrive-&gt;H-Ossipee</v>
-      </c>
-      <c r="C116" t="s">
+        <f t="shared" si="4"/>
+        <v>2888906</v>
+      </c>
+      <c r="C116" s="4" t="str">
+        <f t="shared" si="6"/>
+        <v>http://go.nextraq.com/admin/location/save.html?locationId=2888906</v>
+      </c>
+      <c r="D116" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>Depart-&gt;H-Ossipee</v>
+      </c>
+      <c r="E116" t="s">
         <v>376</v>
       </c>
-      <c r="D116" s="1" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="F116" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="G116" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" ht="22.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>116</v>
       </c>
       <c r="B117" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",C117)</f>
-        <v>Arrive-&gt;H-Oxford</v>
-      </c>
-      <c r="C117" t="s">
+        <f t="shared" si="4"/>
+        <v>2888907</v>
+      </c>
+      <c r="C117" s="4" t="str">
+        <f t="shared" si="6"/>
+        <v>http://go.nextraq.com/admin/location/save.html?locationId=2888907</v>
+      </c>
+      <c r="D117" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>Depart-&gt;H-Oxford</v>
+      </c>
+      <c r="E117" t="s">
         <v>377</v>
       </c>
-      <c r="D117" s="1" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="F117" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="G117" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" ht="22.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>117</v>
       </c>
       <c r="B118" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",C118)</f>
-        <v>Arrive-&gt;H-Peabody</v>
-      </c>
-      <c r="C118" t="s">
+        <f t="shared" si="4"/>
+        <v>2888908</v>
+      </c>
+      <c r="C118" s="4" t="str">
+        <f t="shared" si="6"/>
+        <v>http://go.nextraq.com/admin/location/save.html?locationId=2888908</v>
+      </c>
+      <c r="D118" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>Depart-&gt;H-Peabody</v>
+      </c>
+      <c r="E118" t="s">
         <v>378</v>
       </c>
-      <c r="D118" s="1" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="F118" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="G118" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" ht="22.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>118</v>
       </c>
       <c r="B119" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",C119)</f>
-        <v>Arrive-&gt;H-Pelham</v>
-      </c>
-      <c r="C119" t="s">
+        <f t="shared" si="4"/>
+        <v>2888909</v>
+      </c>
+      <c r="C119" s="4" t="str">
+        <f t="shared" si="6"/>
+        <v>http://go.nextraq.com/admin/location/save.html?locationId=2888909</v>
+      </c>
+      <c r="D119" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>Depart-&gt;H-Pelham</v>
+      </c>
+      <c r="E119" t="s">
         <v>379</v>
       </c>
-      <c r="D119" s="1" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="F119" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="G119" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" ht="22.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>119</v>
       </c>
       <c r="B120" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",C120)</f>
-        <v>Arrive-&gt;H-Pittsfield Buds</v>
-      </c>
-      <c r="C120" t="s">
+        <f t="shared" si="4"/>
+        <v>2888910</v>
+      </c>
+      <c r="C120" s="4" t="str">
+        <f t="shared" si="6"/>
+        <v>http://go.nextraq.com/admin/location/save.html?locationId=2888910</v>
+      </c>
+      <c r="D120" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>Depart-&gt;H-Pittsfield Buds</v>
+      </c>
+      <c r="E120" t="s">
         <v>380</v>
       </c>
-      <c r="D120" s="1" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="F120" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="G120" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" ht="22.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>120</v>
       </c>
       <c r="B121" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",C121)</f>
-        <v>Arrive-&gt;H-Plymouth</v>
-      </c>
-      <c r="C121" t="s">
+        <f t="shared" si="4"/>
+        <v>2888911</v>
+      </c>
+      <c r="C121" s="4" t="str">
+        <f t="shared" si="6"/>
+        <v>http://go.nextraq.com/admin/location/save.html?locationId=2888911</v>
+      </c>
+      <c r="D121" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>Depart-&gt;H-Plymouth</v>
+      </c>
+      <c r="E121" t="s">
         <v>381</v>
       </c>
-      <c r="D121" s="1" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="F121" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="G121" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" ht="22.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>121</v>
       </c>
       <c r="B122" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",C122)</f>
-        <v>Arrive-&gt;H-Portsmouth</v>
-      </c>
-      <c r="C122" t="s">
+        <f t="shared" si="4"/>
+        <v>2888913</v>
+      </c>
+      <c r="C122" s="4" t="str">
+        <f t="shared" si="6"/>
+        <v>http://go.nextraq.com/admin/location/save.html?locationId=2888913</v>
+      </c>
+      <c r="D122" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>Depart-&gt;H-Portsmouth</v>
+      </c>
+      <c r="E122" t="s">
         <v>382</v>
       </c>
-      <c r="D122" s="1" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="F122" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="G122" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" ht="22.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>122</v>
       </c>
       <c r="B123" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",C123)</f>
-        <v>Arrive-&gt;H-Presque Isle</v>
-      </c>
-      <c r="C123" t="s">
+        <f t="shared" si="4"/>
+        <v>4056064</v>
+      </c>
+      <c r="C123" s="4" t="str">
+        <f t="shared" si="6"/>
+        <v>http://go.nextraq.com/admin/location/save.html?locationId=4056064</v>
+      </c>
+      <c r="D123" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>Depart-&gt;H-Presque Isle</v>
+      </c>
+      <c r="E123" t="s">
         <v>383</v>
       </c>
-      <c r="D123" s="1" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="F123" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="G123" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" ht="22.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>123</v>
       </c>
       <c r="B124" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",C124)</f>
-        <v>Arrive-&gt;H-Quincy</v>
-      </c>
-      <c r="C124" t="s">
+        <f t="shared" si="4"/>
+        <v>2888914</v>
+      </c>
+      <c r="C124" s="4" t="str">
+        <f t="shared" si="6"/>
+        <v>http://go.nextraq.com/admin/location/save.html?locationId=2888914</v>
+      </c>
+      <c r="D124" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>Depart-&gt;H-Quincy</v>
+      </c>
+      <c r="E124" t="s">
         <v>384</v>
       </c>
-      <c r="D124" s="1" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="F124" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="G124" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" ht="22.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>124</v>
       </c>
       <c r="B125" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",C125)</f>
-        <v>Arrive-&gt;H-Raymond</v>
-      </c>
-      <c r="C125" t="s">
+        <f t="shared" si="4"/>
+        <v>2888915</v>
+      </c>
+      <c r="C125" s="4" t="str">
+        <f t="shared" si="6"/>
+        <v>http://go.nextraq.com/admin/location/save.html?locationId=2888915</v>
+      </c>
+      <c r="D125" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>Depart-&gt;H-Raymond</v>
+      </c>
+      <c r="E125" t="s">
         <v>385</v>
       </c>
-      <c r="D125" s="1" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="F125" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="G125" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" ht="22.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>125</v>
       </c>
       <c r="B126" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",C126)</f>
-        <v>Arrive-&gt;H-Rindge</v>
-      </c>
-      <c r="C126" t="s">
+        <f t="shared" si="4"/>
+        <v>2888916</v>
+      </c>
+      <c r="C126" s="4" t="str">
+        <f t="shared" si="6"/>
+        <v>http://go.nextraq.com/admin/location/save.html?locationId=2888916</v>
+      </c>
+      <c r="D126" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>Depart-&gt;H-Rindge</v>
+      </c>
+      <c r="E126" t="s">
         <v>386</v>
       </c>
-      <c r="D126" s="1" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="F126" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="G126" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" ht="22.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>126</v>
       </c>
       <c r="B127" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",C127)</f>
-        <v>Arrive-&gt;H-Riverside</v>
-      </c>
-      <c r="C127" t="s">
+        <f t="shared" si="4"/>
+        <v>2888917</v>
+      </c>
+      <c r="C127" s="4" t="str">
+        <f t="shared" si="6"/>
+        <v>http://go.nextraq.com/admin/location/save.html?locationId=2888917</v>
+      </c>
+      <c r="D127" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>Depart-&gt;H-Riverside</v>
+      </c>
+      <c r="E127" t="s">
         <v>387</v>
       </c>
-      <c r="D127" s="1" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="F127" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="G127" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" ht="22.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>127</v>
       </c>
       <c r="B128" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",C128)</f>
-        <v>Arrive-&gt;H-Rochester - Lilac Mall</v>
-      </c>
-      <c r="C128" t="s">
+        <f t="shared" si="4"/>
+        <v>2888918</v>
+      </c>
+      <c r="C128" s="4" t="str">
+        <f t="shared" si="6"/>
+        <v>http://go.nextraq.com/admin/location/save.html?locationId=2888918</v>
+      </c>
+      <c r="D128" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>Depart-&gt;H-Rochester - Lilac Mall</v>
+      </c>
+      <c r="E128" t="s">
         <v>388</v>
       </c>
-      <c r="D128" s="1" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="F128" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="G128" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" ht="22.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>128</v>
       </c>
       <c r="B129" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",C129)</f>
-        <v>Arrive-&gt;H-Rochester - N Main</v>
-      </c>
-      <c r="C129" t="s">
+        <f t="shared" si="4"/>
+        <v>2888919</v>
+      </c>
+      <c r="C129" s="4" t="str">
+        <f t="shared" si="6"/>
+        <v>http://go.nextraq.com/admin/location/save.html?locationId=2888919</v>
+      </c>
+      <c r="D129" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>Depart-&gt;H-Rochester - N Main</v>
+      </c>
+      <c r="E129" t="s">
         <v>389</v>
       </c>
-      <c r="D129" s="1" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="F129" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="G129" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" ht="22.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>129</v>
       </c>
       <c r="B130" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",C130)</f>
-        <v>Arrive-&gt;H-Rockland</v>
-      </c>
-      <c r="C130" t="s">
+        <f t="shared" si="4"/>
+        <v>2888920</v>
+      </c>
+      <c r="C130" s="4" t="str">
+        <f t="shared" si="6"/>
+        <v>http://go.nextraq.com/admin/location/save.html?locationId=2888920</v>
+      </c>
+      <c r="D130" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>Depart-&gt;H-Rockland</v>
+      </c>
+      <c r="E130" t="s">
         <v>390</v>
       </c>
-      <c r="D130" s="1" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="F130" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="G130" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" ht="22.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>130</v>
       </c>
       <c r="B131" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",C131)</f>
-        <v>Arrive-&gt;H-Rumford</v>
-      </c>
-      <c r="C131" t="s">
+        <f t="shared" ref="B131:B194" si="7">MID(A131,SEARCH(CHAR(34),A131)+1,SEARCH(CHAR(34),A131,SEARCH(CHAR(34),A131)+1)-SEARCH(CHAR(34),A131)-1)</f>
+        <v>2888921</v>
+      </c>
+      <c r="C131" s="4" t="str">
+        <f t="shared" si="6"/>
+        <v>http://go.nextraq.com/admin/location/save.html?locationId=2888921</v>
+      </c>
+      <c r="D131" s="2" t="str">
+        <f t="shared" ref="D131:D194" si="8">_xlfn.CONCAT("Depart-&gt;",E131)</f>
+        <v>Depart-&gt;H-Rumford</v>
+      </c>
+      <c r="E131" t="s">
         <v>391</v>
       </c>
-      <c r="D131" s="1" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="F131" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="G131" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" ht="22.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>131</v>
       </c>
       <c r="B132" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",C132)</f>
-        <v>Arrive-&gt;H-Saco</v>
-      </c>
-      <c r="C132" t="s">
+        <f t="shared" si="7"/>
+        <v>2888922</v>
+      </c>
+      <c r="C132" s="4" t="str">
+        <f t="shared" si="6"/>
+        <v>http://go.nextraq.com/admin/location/save.html?locationId=2888922</v>
+      </c>
+      <c r="D132" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>Depart-&gt;H-Saco</v>
+      </c>
+      <c r="E132" t="s">
         <v>392</v>
       </c>
-      <c r="D132" s="1" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="F132" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="G132" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" ht="22.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>132</v>
       </c>
       <c r="B133" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",C133)</f>
-        <v>Arrive-&gt;H-Sanford</v>
-      </c>
-      <c r="C133" t="s">
+        <f t="shared" si="7"/>
+        <v>2888923</v>
+      </c>
+      <c r="C133" s="4" t="str">
+        <f t="shared" si="6"/>
+        <v>http://go.nextraq.com/admin/location/save.html?locationId=2888923</v>
+      </c>
+      <c r="D133" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>Depart-&gt;H-Sanford</v>
+      </c>
+      <c r="E133" t="s">
         <v>393</v>
       </c>
-      <c r="D133" s="1" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="F133" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="G133" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" ht="22.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>133</v>
       </c>
       <c r="B134" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",C134)</f>
-        <v>Arrive-&gt;H-Saugus</v>
-      </c>
-      <c r="C134" t="s">
+        <f t="shared" si="7"/>
+        <v>2888924</v>
+      </c>
+      <c r="C134" s="4" t="str">
+        <f t="shared" si="6"/>
+        <v>http://go.nextraq.com/admin/location/save.html?locationId=2888924</v>
+      </c>
+      <c r="D134" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>Depart-&gt;H-Saugus</v>
+      </c>
+      <c r="E134" t="s">
         <v>394</v>
       </c>
-      <c r="D134" s="1" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="F134" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="G134" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" ht="22.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>134</v>
       </c>
       <c r="B135" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",C135)</f>
-        <v>Arrive-&gt;H-Scarborough</v>
-      </c>
-      <c r="C135" t="s">
+        <f t="shared" si="7"/>
+        <v>2888925</v>
+      </c>
+      <c r="C135" s="4" t="str">
+        <f t="shared" si="6"/>
+        <v>http://go.nextraq.com/admin/location/save.html?locationId=2888925</v>
+      </c>
+      <c r="D135" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>Depart-&gt;H-Scarborough</v>
+      </c>
+      <c r="E135" t="s">
         <v>395</v>
       </c>
-      <c r="D135" s="1" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="F135" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="G135" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" ht="22.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>135</v>
       </c>
       <c r="B136" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",C136)</f>
-        <v>Arrive-&gt;H-Seacoast (Hampton)</v>
-      </c>
-      <c r="C136" t="s">
+        <f t="shared" si="7"/>
+        <v>2888926</v>
+      </c>
+      <c r="C136" s="4" t="str">
+        <f t="shared" si="6"/>
+        <v>http://go.nextraq.com/admin/location/save.html?locationId=2888926</v>
+      </c>
+      <c r="D136" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>Depart-&gt;H-Seacoast (Hampton)</v>
+      </c>
+      <c r="E136" t="s">
         <v>396</v>
       </c>
-      <c r="D136" s="1" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="F136" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="G136" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" ht="22.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>136</v>
       </c>
       <c r="B137" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",C137)</f>
-        <v>Arrive-&gt;H-Skowhegan</v>
-      </c>
-      <c r="C137" t="s">
+        <f t="shared" si="7"/>
+        <v>2888927</v>
+      </c>
+      <c r="C137" s="4" t="str">
+        <f t="shared" si="6"/>
+        <v>http://go.nextraq.com/admin/location/save.html?locationId=2888927</v>
+      </c>
+      <c r="D137" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>Depart-&gt;H-Skowhegan</v>
+      </c>
+      <c r="E137" t="s">
         <v>397</v>
       </c>
-      <c r="D137" s="1" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="F137" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="G137" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" ht="22.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>137</v>
       </c>
       <c r="B138" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",C138)</f>
-        <v>Arrive-&gt;H-Standish</v>
-      </c>
-      <c r="C138" t="s">
+        <f t="shared" si="7"/>
+        <v>2888928</v>
+      </c>
+      <c r="C138" s="4" t="str">
+        <f t="shared" si="6"/>
+        <v>http://go.nextraq.com/admin/location/save.html?locationId=2888928</v>
+      </c>
+      <c r="D138" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>Depart-&gt;H-Standish</v>
+      </c>
+      <c r="E138" t="s">
         <v>398</v>
       </c>
-      <c r="D138" s="1" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="F138" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="G138" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" ht="22.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>138</v>
       </c>
       <c r="B139" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",C139)</f>
-        <v>Arrive-&gt;H-Taunton</v>
-      </c>
-      <c r="C139" t="s">
+        <f t="shared" si="7"/>
+        <v>2888929</v>
+      </c>
+      <c r="C139" s="4" t="str">
+        <f t="shared" si="6"/>
+        <v>http://go.nextraq.com/admin/location/save.html?locationId=2888929</v>
+      </c>
+      <c r="D139" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>Depart-&gt;H-Taunton</v>
+      </c>
+      <c r="E139" t="s">
         <v>399</v>
       </c>
-      <c r="D139" s="1" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="F139" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="G139" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" ht="22.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>139</v>
       </c>
       <c r="B140" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",C140)</f>
-        <v>Arrive-&gt;H-Topsham</v>
-      </c>
-      <c r="C140" t="s">
+        <f t="shared" si="7"/>
+        <v>2888930</v>
+      </c>
+      <c r="C140" s="4" t="str">
+        <f t="shared" si="6"/>
+        <v>http://go.nextraq.com/admin/location/save.html?locationId=2888930</v>
+      </c>
+      <c r="D140" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>Depart-&gt;H-Topsham</v>
+      </c>
+      <c r="E140" t="s">
         <v>400</v>
       </c>
-      <c r="D140" s="1" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="F140" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="G140" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" ht="22.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>140</v>
       </c>
       <c r="B141" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",C141)</f>
-        <v>Arrive-&gt;H-Townsend</v>
-      </c>
-      <c r="C141" t="s">
+        <f t="shared" si="7"/>
+        <v>2888931</v>
+      </c>
+      <c r="C141" s="4" t="str">
+        <f t="shared" si="6"/>
+        <v>http://go.nextraq.com/admin/location/save.html?locationId=2888931</v>
+      </c>
+      <c r="D141" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>Depart-&gt;H-Townsend</v>
+      </c>
+      <c r="E141" t="s">
         <v>401</v>
       </c>
-      <c r="D141" s="1" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="F141" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="G141" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" ht="22.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>141</v>
       </c>
       <c r="B142" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",C142)</f>
-        <v>Arrive-&gt;H-Tradewinds - (Blue Hill)</v>
-      </c>
-      <c r="C142" t="s">
+        <f t="shared" si="7"/>
+        <v>2888971</v>
+      </c>
+      <c r="C142" s="4" t="str">
+        <f t="shared" si="6"/>
+        <v>http://go.nextraq.com/admin/location/save.html?locationId=2888971</v>
+      </c>
+      <c r="D142" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>Depart-&gt;H-Tradewinds - (Blue Hill)</v>
+      </c>
+      <c r="E142" t="s">
         <v>402</v>
       </c>
-      <c r="D142" s="1" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="F142" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="G142" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" ht="22.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>142</v>
       </c>
       <c r="B143" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",C143)</f>
-        <v>Arrive-&gt;H-Turner</v>
-      </c>
-      <c r="C143" t="s">
+        <f t="shared" si="7"/>
+        <v>2888932</v>
+      </c>
+      <c r="C143" s="4" t="str">
+        <f t="shared" si="6"/>
+        <v>http://go.nextraq.com/admin/location/save.html?locationId=2888932</v>
+      </c>
+      <c r="D143" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>Depart-&gt;H-Turner</v>
+      </c>
+      <c r="E143" t="s">
         <v>403</v>
       </c>
-      <c r="D143" s="1" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="F143" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="G143" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" ht="22.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>143</v>
       </c>
       <c r="B144" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",C144)</f>
-        <v>Arrive-&gt;H-Uxbridge</v>
-      </c>
-      <c r="C144" t="s">
+        <f t="shared" si="7"/>
+        <v>2888933</v>
+      </c>
+      <c r="C144" s="4" t="str">
+        <f t="shared" si="6"/>
+        <v>http://go.nextraq.com/admin/location/save.html?locationId=2888933</v>
+      </c>
+      <c r="D144" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>Depart-&gt;H-Uxbridge</v>
+      </c>
+      <c r="E144" t="s">
         <v>404</v>
       </c>
-      <c r="D144" s="1" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="F144" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="G144" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" ht="22.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>144</v>
       </c>
       <c r="B145" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",C145)</f>
-        <v>Arrive-&gt;H-Waldoboro</v>
-      </c>
-      <c r="C145" t="s">
+        <f t="shared" si="7"/>
+        <v>2888934</v>
+      </c>
+      <c r="C145" s="4" t="str">
+        <f t="shared" si="6"/>
+        <v>http://go.nextraq.com/admin/location/save.html?locationId=2888934</v>
+      </c>
+      <c r="D145" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>Depart-&gt;H-Waldoboro</v>
+      </c>
+      <c r="E145" t="s">
         <v>405</v>
       </c>
-      <c r="D145" s="1" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="F145" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="G145" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" ht="22.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>145</v>
       </c>
       <c r="B146" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",C146)</f>
-        <v>Arrive-&gt;H-Waltham</v>
-      </c>
-      <c r="C146" t="s">
+        <f t="shared" si="7"/>
+        <v>2888935</v>
+      </c>
+      <c r="C146" s="4" t="str">
+        <f t="shared" si="6"/>
+        <v>http://go.nextraq.com/admin/location/save.html?locationId=2888935</v>
+      </c>
+      <c r="D146" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>Depart-&gt;H-Waltham</v>
+      </c>
+      <c r="E146" t="s">
         <v>406</v>
       </c>
-      <c r="D146" s="1" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="F146" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="G146" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" ht="22.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>146</v>
       </c>
       <c r="B147" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",C147)</f>
-        <v>Arrive-&gt;H-Waterboro</v>
-      </c>
-      <c r="C147" t="s">
+        <f t="shared" si="7"/>
+        <v>2888936</v>
+      </c>
+      <c r="C147" s="4" t="str">
+        <f t="shared" si="6"/>
+        <v>http://go.nextraq.com/admin/location/save.html?locationId=2888936</v>
+      </c>
+      <c r="D147" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>Depart-&gt;H-Waterboro</v>
+      </c>
+      <c r="E147" t="s">
         <v>407</v>
       </c>
-      <c r="D147" s="1" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="F147" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="G147" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" ht="22.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>147</v>
       </c>
       <c r="B148" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",C148)</f>
-        <v>Arrive-&gt;H-Waterville - Elm</v>
-      </c>
-      <c r="C148" t="s">
+        <f t="shared" si="7"/>
+        <v>2888937</v>
+      </c>
+      <c r="C148" s="4" t="str">
+        <f t="shared" si="6"/>
+        <v>http://go.nextraq.com/admin/location/save.html?locationId=2888937</v>
+      </c>
+      <c r="D148" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>Depart-&gt;H-Waterville - Elm</v>
+      </c>
+      <c r="E148" t="s">
         <v>408</v>
       </c>
-      <c r="D148" s="1" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="F148" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="G148" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" ht="22.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>148</v>
       </c>
       <c r="B149" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",C149)</f>
-        <v>Arrive-&gt;H-Waterville- JFK</v>
-      </c>
-      <c r="C149" t="s">
+        <f t="shared" si="7"/>
+        <v>2888938</v>
+      </c>
+      <c r="C149" s="4" t="str">
+        <f t="shared" si="6"/>
+        <v>http://go.nextraq.com/admin/location/save.html?locationId=2888938</v>
+      </c>
+      <c r="D149" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>Depart-&gt;H-Waterville- JFK</v>
+      </c>
+      <c r="E149" t="s">
         <v>409</v>
       </c>
-      <c r="D149" s="1" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="F149" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="G149" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" ht="22.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>149</v>
       </c>
       <c r="B150" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",C150)</f>
-        <v>Arrive-&gt;H-Wells</v>
-      </c>
-      <c r="C150" t="s">
+        <f t="shared" si="7"/>
+        <v>2888939</v>
+      </c>
+      <c r="C150" s="4" t="str">
+        <f t="shared" si="6"/>
+        <v>http://go.nextraq.com/admin/location/save.html?locationId=2888939</v>
+      </c>
+      <c r="D150" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>Depart-&gt;H-Wells</v>
+      </c>
+      <c r="E150" t="s">
         <v>410</v>
       </c>
-      <c r="D150" s="1" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="F150" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="G150" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" ht="22.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>150</v>
       </c>
       <c r="B151" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",C151)</f>
-        <v>Arrive-&gt;H-West Lebanon</v>
-      </c>
-      <c r="C151" t="s">
+        <f t="shared" si="7"/>
+        <v>2888941</v>
+      </c>
+      <c r="C151" s="4" t="str">
+        <f t="shared" si="6"/>
+        <v>http://go.nextraq.com/admin/location/save.html?locationId=2888941</v>
+      </c>
+      <c r="D151" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>Depart-&gt;H-West Lebanon</v>
+      </c>
+      <c r="E151" t="s">
         <v>411</v>
       </c>
-      <c r="D151" s="1" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="F151" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="G151" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" ht="22.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>151</v>
       </c>
       <c r="B152" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",C152)</f>
-        <v>Arrive-&gt;H-Westbrook</v>
-      </c>
-      <c r="C152" t="s">
+        <f t="shared" si="7"/>
+        <v>2888940</v>
+      </c>
+      <c r="C152" s="4" t="str">
+        <f t="shared" si="6"/>
+        <v>http://go.nextraq.com/admin/location/save.html?locationId=2888940</v>
+      </c>
+      <c r="D152" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>Depart-&gt;H-Westbrook</v>
+      </c>
+      <c r="E152" t="s">
         <v>412</v>
       </c>
-      <c r="D152" s="1" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="F152" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="G152" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" ht="22.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>152</v>
       </c>
       <c r="B153" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",C153)</f>
-        <v>Arrive-&gt;H-Willow St (Augusta)</v>
-      </c>
-      <c r="C153" t="s">
+        <f t="shared" si="7"/>
+        <v>2888942</v>
+      </c>
+      <c r="C153" s="4" t="str">
+        <f t="shared" si="6"/>
+        <v>http://go.nextraq.com/admin/location/save.html?locationId=2888942</v>
+      </c>
+      <c r="D153" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>Depart-&gt;H-Willow St (Augusta)</v>
+      </c>
+      <c r="E153" t="s">
         <v>413</v>
       </c>
-      <c r="D153" s="1" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="F153" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="G153" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" ht="22.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>153</v>
       </c>
       <c r="B154" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",C154)</f>
-        <v>Arrive-&gt;H-Windham</v>
-      </c>
-      <c r="C154" t="s">
+        <f t="shared" si="7"/>
+        <v>2888943</v>
+      </c>
+      <c r="C154" s="4" t="str">
+        <f t="shared" si="6"/>
+        <v>http://go.nextraq.com/admin/location/save.html?locationId=2888943</v>
+      </c>
+      <c r="D154" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>Depart-&gt;H-Windham</v>
+      </c>
+      <c r="E154" t="s">
         <v>414</v>
       </c>
-      <c r="D154" s="1" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="F154" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="G154" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" ht="22.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>154</v>
       </c>
       <c r="B155" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",C155)</f>
-        <v>Arrive-&gt;H-Winthrop</v>
-      </c>
-      <c r="C155" t="s">
+        <f t="shared" si="7"/>
+        <v>2888944</v>
+      </c>
+      <c r="C155" s="4" t="str">
+        <f t="shared" ref="C155:C218" si="9">HYPERLINK(_xlfn.CONCAT("http://go.nextraq.com/admin/location/save.html?locationId=",B155))</f>
+        <v>http://go.nextraq.com/admin/location/save.html?locationId=2888944</v>
+      </c>
+      <c r="D155" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>Depart-&gt;H-Winthrop</v>
+      </c>
+      <c r="E155" t="s">
         <v>415</v>
       </c>
-      <c r="D155" s="1" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="F155" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="G155" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" ht="22.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>155</v>
       </c>
       <c r="B156" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",C156)</f>
-        <v>Arrive-&gt;H-Yarmouth</v>
-      </c>
-      <c r="C156" t="s">
+        <f t="shared" si="7"/>
+        <v>2888945</v>
+      </c>
+      <c r="C156" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>http://go.nextraq.com/admin/location/save.html?locationId=2888945</v>
+      </c>
+      <c r="D156" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>Depart-&gt;H-Yarmouth</v>
+      </c>
+      <c r="E156" t="s">
         <v>416</v>
       </c>
-      <c r="D156" s="1" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="F156" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="G156" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" ht="22.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>156</v>
       </c>
       <c r="B157" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",C157)</f>
-        <v>Arrive-&gt;H-York</v>
-      </c>
-      <c r="C157" t="s">
+        <f t="shared" si="7"/>
+        <v>2888946</v>
+      </c>
+      <c r="C157" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>http://go.nextraq.com/admin/location/save.html?locationId=2888946</v>
+      </c>
+      <c r="D157" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>Depart-&gt;H-York</v>
+      </c>
+      <c r="E157" t="s">
         <v>417</v>
       </c>
-      <c r="D157" s="1" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="F157" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="G157" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" ht="22.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>157</v>
       </c>
       <c r="B158" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",C158)</f>
-        <v>Arrive-&gt;IFS</v>
-      </c>
-      <c r="C158" t="s">
+        <f t="shared" si="7"/>
+        <v>2888813</v>
+      </c>
+      <c r="C158" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>http://go.nextraq.com/admin/location/save.html?locationId=2888813</v>
+      </c>
+      <c r="D158" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>Depart-&gt;IFS</v>
+      </c>
+      <c r="E158" t="s">
         <v>418</v>
       </c>
-      <c r="D158" s="1" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="F158" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="G158" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" ht="22.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>158</v>
       </c>
       <c r="B159" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",C159)</f>
-        <v>Arrive-&gt;IGA - Central (Winchendon)</v>
-      </c>
-      <c r="C159" t="s">
+        <f t="shared" si="7"/>
+        <v>2888955</v>
+      </c>
+      <c r="C159" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>http://go.nextraq.com/admin/location/save.html?locationId=2888955</v>
+      </c>
+      <c r="D159" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>Depart-&gt;IGA - Central (Winchendon)</v>
+      </c>
+      <c r="E159" t="s">
         <v>419</v>
       </c>
-      <c r="D159" s="1" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="F159" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="G159" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" ht="22.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>159</v>
       </c>
       <c r="B160" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",C160)</f>
-        <v>Arrive-&gt;IGA - Goggins (Randolph)</v>
-      </c>
-      <c r="C160" t="s">
+        <f t="shared" si="7"/>
+        <v>2888956</v>
+      </c>
+      <c r="C160" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>http://go.nextraq.com/admin/location/save.html?locationId=2888956</v>
+      </c>
+      <c r="D160" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>Depart-&gt;IGA - Goggins (Randolph)</v>
+      </c>
+      <c r="E160" t="s">
         <v>420</v>
       </c>
-      <c r="D160" s="1" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="F160" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="G160" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7" ht="22.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>160</v>
       </c>
       <c r="B161" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",C161)</f>
-        <v>Arrive-&gt;IGA - Pangburn (Millinocket)</v>
-      </c>
-      <c r="C161" t="s">
+        <f t="shared" si="7"/>
+        <v>2888957</v>
+      </c>
+      <c r="C161" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>http://go.nextraq.com/admin/location/save.html?locationId=2888957</v>
+      </c>
+      <c r="D161" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>Depart-&gt;IGA - Pangburn (Millinocket)</v>
+      </c>
+      <c r="E161" t="s">
         <v>421</v>
       </c>
-      <c r="D161" s="1" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="F161" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="G161" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7" ht="22.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>161</v>
       </c>
       <c r="B162" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",C162)</f>
-        <v>Arrive-&gt;IGA - Pond Cove (Cape Elizabeth)</v>
-      </c>
-      <c r="C162" t="s">
+        <f t="shared" si="7"/>
+        <v>2888958</v>
+      </c>
+      <c r="C162" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>http://go.nextraq.com/admin/location/save.html?locationId=2888958</v>
+      </c>
+      <c r="D162" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>Depart-&gt;IGA - Pond Cove (Cape Elizabeth)</v>
+      </c>
+      <c r="E162" t="s">
         <v>422</v>
       </c>
-      <c r="D162" s="1" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="F162" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="G162" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7" ht="22.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>162</v>
       </c>
       <c r="B163" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",C163)</f>
-        <v>Arrive-&gt;IGA - Trenton (Trenton)</v>
-      </c>
-      <c r="C163" t="s">
+        <f t="shared" si="7"/>
+        <v>2888959</v>
+      </c>
+      <c r="C163" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>http://go.nextraq.com/admin/location/save.html?locationId=2888959</v>
+      </c>
+      <c r="D163" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>Depart-&gt;IGA - Trenton (Trenton)</v>
+      </c>
+      <c r="E163" t="s">
         <v>423</v>
       </c>
-      <c r="D163" s="1" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="F163" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="G163" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7" ht="22.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>163</v>
       </c>
       <c r="B164" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",C164)</f>
-        <v>Arrive-&gt;Irving Houlton Big Stop</v>
-      </c>
-      <c r="C164" t="s">
+        <f t="shared" si="7"/>
+        <v>4348798</v>
+      </c>
+      <c r="C164" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>http://go.nextraq.com/admin/location/save.html?locationId=4348798</v>
+      </c>
+      <c r="D164" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>Depart-&gt;Irving Houlton Big Stop</v>
+      </c>
+      <c r="E164" t="s">
         <v>424</v>
       </c>
-      <c r="D164" s="1" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="F164" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="G164" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7" ht="22.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>164</v>
       </c>
       <c r="B165" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",C165)</f>
-        <v>Arrive-&gt;K - Concord</v>
-      </c>
-      <c r="C165" t="s">
+        <f t="shared" si="7"/>
+        <v>2889048</v>
+      </c>
+      <c r="C165" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>http://go.nextraq.com/admin/location/save.html?locationId=2889048</v>
+      </c>
+      <c r="D165" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>Depart-&gt;K - Concord</v>
+      </c>
+      <c r="E165" t="s">
         <v>425</v>
       </c>
-      <c r="D165" s="1" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="F165" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="G165" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7" ht="22.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>165</v>
       </c>
       <c r="B166" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",C166)</f>
-        <v>Arrive-&gt;K - Dover - Central Ave</v>
-      </c>
-      <c r="C166" t="s">
+        <f t="shared" si="7"/>
+        <v>2889049</v>
+      </c>
+      <c r="C166" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>http://go.nextraq.com/admin/location/save.html?locationId=2889049</v>
+      </c>
+      <c r="D166" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>Depart-&gt;K - Dover - Central Ave</v>
+      </c>
+      <c r="E166" t="s">
         <v>426</v>
       </c>
-      <c r="D166" s="1" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="F166" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="G166" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7" ht="22.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>166</v>
       </c>
       <c r="B167" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",C167)</f>
-        <v>Arrive-&gt;K - Hanover St</v>
-      </c>
-      <c r="C167" t="s">
+        <f t="shared" si="7"/>
+        <v>2889050</v>
+      </c>
+      <c r="C167" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>http://go.nextraq.com/admin/location/save.html?locationId=2889050</v>
+      </c>
+      <c r="D167" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>Depart-&gt;K - Hanover St</v>
+      </c>
+      <c r="E167" t="s">
         <v>427</v>
       </c>
-      <c r="D167" s="1" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="F167" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="G167" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7" ht="22.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>167</v>
       </c>
       <c r="B168" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",C168)</f>
-        <v>Arrive-&gt;K - Lee</v>
-      </c>
-      <c r="C168" t="s">
+        <f t="shared" si="7"/>
+        <v>2889051</v>
+      </c>
+      <c r="C168" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>http://go.nextraq.com/admin/location/save.html?locationId=2889051</v>
+      </c>
+      <c r="D168" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>Depart-&gt;K - Lee</v>
+      </c>
+      <c r="E168" t="s">
         <v>428</v>
       </c>
-      <c r="D168" s="1" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="F168" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="G168" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7" ht="22.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>168</v>
       </c>
       <c r="B169" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",C169)</f>
-        <v>Arrive-&gt;K- South Willow St</v>
-      </c>
-      <c r="C169" t="s">
+        <f t="shared" si="7"/>
+        <v>2889052</v>
+      </c>
+      <c r="C169" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>http://go.nextraq.com/admin/location/save.html?locationId=2889052</v>
+      </c>
+      <c r="D169" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>Depart-&gt;K- South Willow St</v>
+      </c>
+      <c r="E169" t="s">
         <v>429</v>
       </c>
-      <c r="D169" s="1" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="F169" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="G169" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7" ht="22.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>169</v>
       </c>
       <c r="B170" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",C170)</f>
-        <v>Arrive-&gt;Kris - Way South Portland</v>
-      </c>
-      <c r="C170" t="s">
+        <f t="shared" si="7"/>
+        <v>4641676</v>
+      </c>
+      <c r="C170" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>http://go.nextraq.com/admin/location/save.html?locationId=4641676</v>
+      </c>
+      <c r="D170" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>Depart-&gt;Kris - Way South Portland</v>
+      </c>
+      <c r="E170" t="s">
         <v>430</v>
       </c>
-      <c r="D170" s="1" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="F170" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="G170" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7" ht="22.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>170</v>
       </c>
       <c r="B171" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",C171)</f>
-        <v>Arrive-&gt;Lovell Lake Sanbornville</v>
-      </c>
-      <c r="C171" t="s">
+        <f t="shared" si="7"/>
+        <v>2888979</v>
+      </c>
+      <c r="C171" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>http://go.nextraq.com/admin/location/save.html?locationId=2888979</v>
+      </c>
+      <c r="D171" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>Depart-&gt;Lovell Lake Sanbornville</v>
+      </c>
+      <c r="E171" t="s">
         <v>431</v>
       </c>
-      <c r="D171" s="1" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="F171" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="G171" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7" ht="22.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>171</v>
       </c>
       <c r="B172" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",C172)</f>
-        <v>Arrive-&gt;Manafords - Jonesport</v>
-      </c>
-      <c r="C172" t="s">
+        <f t="shared" si="7"/>
+        <v>2888960</v>
+      </c>
+      <c r="C172" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>http://go.nextraq.com/admin/location/save.html?locationId=2888960</v>
+      </c>
+      <c r="D172" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>Depart-&gt;Manafords - Jonesport</v>
+      </c>
+      <c r="E172" t="s">
         <v>432</v>
       </c>
-      <c r="D172" s="1" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="F172" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="G172" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7" ht="22.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>172</v>
       </c>
       <c r="B173" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",C173)</f>
-        <v>Arrive-&gt;Mk-Danvers</v>
-      </c>
-      <c r="C173" t="s">
+        <f t="shared" si="7"/>
+        <v>3098684</v>
+      </c>
+      <c r="C173" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>http://go.nextraq.com/admin/location/save.html?locationId=3098684</v>
+      </c>
+      <c r="D173" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>Depart-&gt;Mk-Danvers</v>
+      </c>
+      <c r="E173" t="s">
         <v>433</v>
       </c>
-      <c r="D173" s="1" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="F173" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="G173" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7" ht="22.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>173</v>
       </c>
       <c r="B174" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",C174)</f>
-        <v>Arrive-&gt;Mk-Everett</v>
-      </c>
-      <c r="C174" t="s">
+        <f t="shared" si="7"/>
+        <v>3098567</v>
+      </c>
+      <c r="C174" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>http://go.nextraq.com/admin/location/save.html?locationId=3098567</v>
+      </c>
+      <c r="D174" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>Depart-&gt;Mk-Everett</v>
+      </c>
+      <c r="E174" t="s">
         <v>434</v>
       </c>
-      <c r="D174" s="1" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="F174" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="G174" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7" ht="22.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>174</v>
       </c>
       <c r="B175" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",C175)</f>
-        <v>Arrive-&gt;Nature's Way</v>
-      </c>
-      <c r="C175" t="s">
+        <f t="shared" si="7"/>
+        <v>2888980</v>
+      </c>
+      <c r="C175" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>http://go.nextraq.com/admin/location/save.html?locationId=2888980</v>
+      </c>
+      <c r="D175" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>Depart-&gt;Nature's Way</v>
+      </c>
+      <c r="E175" t="s">
         <v>435</v>
       </c>
-      <c r="D175" s="1" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="F175" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="G175" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7" ht="22.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>175</v>
       </c>
       <c r="B176" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",C176)</f>
-        <v>Arrive-&gt;Onset Village Market (Onset)</v>
-      </c>
-      <c r="C176" t="s">
+        <f t="shared" si="7"/>
+        <v>2888961</v>
+      </c>
+      <c r="C176" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>http://go.nextraq.com/admin/location/save.html?locationId=2888961</v>
+      </c>
+      <c r="D176" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>Depart-&gt;Onset Village Market (Onset)</v>
+      </c>
+      <c r="E176" t="s">
         <v>436</v>
       </c>
-      <c r="D176" s="1" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="F176" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="G176" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7" ht="22.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>176</v>
       </c>
       <c r="B177" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",C177)</f>
-        <v>Arrive-&gt;Overnight Stop Location - Bangor</v>
-      </c>
-      <c r="C177" t="s">
+        <f t="shared" si="7"/>
+        <v>2891384</v>
+      </c>
+      <c r="C177" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>http://go.nextraq.com/admin/location/save.html?locationId=2891384</v>
+      </c>
+      <c r="D177" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>Depart-&gt;Overnight Stop Location - Bangor</v>
+      </c>
+      <c r="E177" t="s">
         <v>437</v>
       </c>
-      <c r="D177" s="1" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="F177" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="G177" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7" ht="22.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>177</v>
       </c>
       <c r="B178" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",C178)</f>
-        <v>Arrive-&gt;Overnight Stop Location - Ellsworth</v>
-      </c>
-      <c r="C178" t="s">
+        <f t="shared" si="7"/>
+        <v>2891328</v>
+      </c>
+      <c r="C178" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>http://go.nextraq.com/admin/location/save.html?locationId=2891328</v>
+      </c>
+      <c r="D178" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>Depart-&gt;Overnight Stop Location - Ellsworth</v>
+      </c>
+      <c r="E178" t="s">
         <v>438</v>
       </c>
-      <c r="D178" s="1" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="F178" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="G178" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7" ht="22.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>178</v>
       </c>
       <c r="B179" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",C179)</f>
-        <v>Arrive-&gt;Overnight Stop Location - Newport</v>
-      </c>
-      <c r="C179" t="s">
+        <f t="shared" si="7"/>
+        <v>2891394</v>
+      </c>
+      <c r="C179" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>http://go.nextraq.com/admin/location/save.html?locationId=2891394</v>
+      </c>
+      <c r="D179" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>Depart-&gt;Overnight Stop Location - Newport</v>
+      </c>
+      <c r="E179" t="s">
         <v>439</v>
       </c>
-      <c r="D179" s="1" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="F179" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="G179" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7" ht="22.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>179</v>
       </c>
       <c r="B180" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",C180)</f>
-        <v>Arrive-&gt;Pequet Highlands</v>
-      </c>
-      <c r="C180" t="s">
+        <f t="shared" si="7"/>
+        <v>4034412</v>
+      </c>
+      <c r="C180" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>http://go.nextraq.com/admin/location/save.html?locationId=4034412</v>
+      </c>
+      <c r="D180" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>Depart-&gt;Pequet Highlands</v>
+      </c>
+      <c r="E180" t="s">
         <v>440</v>
       </c>
-      <c r="D180" s="1" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="F180" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="G180" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7" ht="22.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>180</v>
       </c>
       <c r="B181" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",C181)</f>
-        <v>Arrive-&gt;Plumb Market (Rochester)</v>
-      </c>
-      <c r="C181" t="s">
+        <f t="shared" si="7"/>
+        <v>2888962</v>
+      </c>
+      <c r="C181" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>http://go.nextraq.com/admin/location/save.html?locationId=2888962</v>
+      </c>
+      <c r="D181" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>Depart-&gt;Plumb Market (Rochester)</v>
+      </c>
+      <c r="E181" t="s">
         <v>441</v>
       </c>
-      <c r="D181" s="1" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="F181" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="G181" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7" ht="22.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>181</v>
       </c>
       <c r="B182" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",C182)</f>
-        <v>Arrive-&gt;Putnam Gardens</v>
-      </c>
-      <c r="C182" t="s">
+        <f t="shared" si="7"/>
+        <v>4034403</v>
+      </c>
+      <c r="C182" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>http://go.nextraq.com/admin/location/save.html?locationId=4034403</v>
+      </c>
+      <c r="D182" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>Depart-&gt;Putnam Gardens</v>
+      </c>
+      <c r="E182" t="s">
         <v>442</v>
       </c>
-      <c r="D182" s="1" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="F182" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="G182" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7" ht="22.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>182</v>
       </c>
       <c r="B183" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",C183)</f>
-        <v>Arrive-&gt;Redwood Terrace Apartment</v>
-      </c>
-      <c r="C183" t="s">
+        <f t="shared" si="7"/>
+        <v>4034413</v>
+      </c>
+      <c r="C183" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>http://go.nextraq.com/admin/location/save.html?locationId=4034413</v>
+      </c>
+      <c r="D183" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>Depart-&gt;Redwood Terrace Apartment</v>
+      </c>
+      <c r="E183" t="s">
         <v>443</v>
       </c>
-      <c r="D183" s="1" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="F183" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="G183" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7" ht="22.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>183</v>
       </c>
       <c r="B184" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",C184)</f>
-        <v>Arrive-&gt;Roseland Nursery</v>
-      </c>
-      <c r="C184" t="s">
+        <f t="shared" si="7"/>
+        <v>4100229</v>
+      </c>
+      <c r="C184" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>http://go.nextraq.com/admin/location/save.html?locationId=4100229</v>
+      </c>
+      <c r="D184" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>Depart-&gt;Roseland Nursery</v>
+      </c>
+      <c r="E184" t="s">
         <v>444</v>
       </c>
-      <c r="D184" s="1" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="F184" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="G184" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7" ht="22.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>184</v>
       </c>
       <c r="B185" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",C185)</f>
-        <v>Arrive-&gt;S - Bangor</v>
-      </c>
-      <c r="C185" t="s">
+        <f t="shared" si="7"/>
+        <v>2888982</v>
+      </c>
+      <c r="C185" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>http://go.nextraq.com/admin/location/save.html?locationId=2888982</v>
+      </c>
+      <c r="D185" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>Depart-&gt;S - Bangor</v>
+      </c>
+      <c r="E185" t="s">
         <v>445</v>
       </c>
-      <c r="D185" s="1" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="F185" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="G185" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7" ht="22.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>185</v>
       </c>
       <c r="B186" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",C186)</f>
-        <v>Arrive-&gt;S - Dover Foxcroft</v>
-      </c>
-      <c r="C186" t="s">
+        <f t="shared" si="7"/>
+        <v>2888983</v>
+      </c>
+      <c r="C186" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>http://go.nextraq.com/admin/location/save.html?locationId=2888983</v>
+      </c>
+      <c r="D186" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>Depart-&gt;S - Dover Foxcroft</v>
+      </c>
+      <c r="E186" t="s">
         <v>446</v>
       </c>
-      <c r="D186" s="1" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="F186" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="G186" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7" ht="22.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>186</v>
       </c>
       <c r="B187" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",C187)</f>
-        <v>Arrive-&gt;S - Gloucester</v>
-      </c>
-      <c r="C187" t="s">
+        <f t="shared" si="7"/>
+        <v>2888984</v>
+      </c>
+      <c r="C187" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>http://go.nextraq.com/admin/location/save.html?locationId=2888984</v>
+      </c>
+      <c r="D187" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>Depart-&gt;S - Gloucester</v>
+      </c>
+      <c r="E187" t="s">
         <v>447</v>
       </c>
-      <c r="D187" s="1" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="F187" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="G187" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7" ht="22.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>187</v>
       </c>
       <c r="B188" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",C188)</f>
-        <v>Arrive-&gt;S - HydePark</v>
-      </c>
-      <c r="C188" t="s">
+        <f t="shared" si="7"/>
+        <v>2888985</v>
+      </c>
+      <c r="C188" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>http://go.nextraq.com/admin/location/save.html?locationId=2888985</v>
+      </c>
+      <c r="D188" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>Depart-&gt;S - HydePark</v>
+      </c>
+      <c r="E188" t="s">
         <v>448</v>
       </c>
-      <c r="D188" s="1" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="F188" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="G188" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7" ht="22.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>188</v>
       </c>
       <c r="B189" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",C189)</f>
-        <v>Arrive-&gt;S - Keene</v>
-      </c>
-      <c r="C189" t="s">
+        <f t="shared" si="7"/>
+        <v>2888986</v>
+      </c>
+      <c r="C189" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>http://go.nextraq.com/admin/location/save.html?locationId=2888986</v>
+      </c>
+      <c r="D189" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>Depart-&gt;S - Keene</v>
+      </c>
+      <c r="E189" t="s">
         <v>449</v>
       </c>
-      <c r="D189" s="1" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="F189" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="G189" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7" ht="22.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>189</v>
       </c>
       <c r="B190" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",C190)</f>
-        <v>Arrive-&gt;S - Leominster</v>
-      </c>
-      <c r="C190" t="s">
+        <f t="shared" si="7"/>
+        <v>2888987</v>
+      </c>
+      <c r="C190" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>http://go.nextraq.com/admin/location/save.html?locationId=2888987</v>
+      </c>
+      <c r="D190" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>Depart-&gt;S - Leominster</v>
+      </c>
+      <c r="E190" t="s">
         <v>450</v>
       </c>
-      <c r="D190" s="1" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="F190" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="G190" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7" ht="22.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>190</v>
       </c>
       <c r="B191" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",C191)</f>
-        <v>Arrive-&gt;S - Lynn</v>
-      </c>
-      <c r="C191" t="s">
+        <f t="shared" si="7"/>
+        <v>2888988</v>
+      </c>
+      <c r="C191" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>http://go.nextraq.com/admin/location/save.html?locationId=2888988</v>
+      </c>
+      <c r="D191" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>Depart-&gt;S - Lynn</v>
+      </c>
+      <c r="E191" t="s">
         <v>451</v>
       </c>
-      <c r="D191" s="1" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="F191" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="G191" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7" ht="22.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>191</v>
       </c>
       <c r="B192" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",C192)</f>
-        <v>Arrive-&gt;S - Manchester</v>
-      </c>
-      <c r="C192" t="s">
+        <f t="shared" si="7"/>
+        <v>2888989</v>
+      </c>
+      <c r="C192" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>http://go.nextraq.com/admin/location/save.html?locationId=2888989</v>
+      </c>
+      <c r="D192" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>Depart-&gt;S - Manchester</v>
+      </c>
+      <c r="E192" t="s">
         <v>452</v>
       </c>
-      <c r="D192" s="1" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="F192" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="G192" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7" ht="22.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>192</v>
       </c>
       <c r="B193" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",C193)</f>
-        <v>Arrive-&gt;S - Medford</v>
-      </c>
-      <c r="C193" t="s">
+        <f t="shared" si="7"/>
+        <v>2888990</v>
+      </c>
+      <c r="C193" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>http://go.nextraq.com/admin/location/save.html?locationId=2888990</v>
+      </c>
+      <c r="D193" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>Depart-&gt;S - Medford</v>
+      </c>
+      <c r="E193" t="s">
         <v>453</v>
       </c>
-      <c r="D193" s="1" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="F193" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="G193" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7" ht="22.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>193</v>
       </c>
       <c r="B194" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",C194)</f>
-        <v>Arrive-&gt;S - Salem</v>
-      </c>
-      <c r="C194" t="s">
+        <f t="shared" si="7"/>
+        <v>2888991</v>
+      </c>
+      <c r="C194" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>http://go.nextraq.com/admin/location/save.html?locationId=2888991</v>
+      </c>
+      <c r="D194" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>Depart-&gt;S - Salem</v>
+      </c>
+      <c r="E194" t="s">
         <v>454</v>
       </c>
-      <c r="D194" s="1" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="F194" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="G194" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7" ht="22.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>194</v>
       </c>
       <c r="B195" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",C195)</f>
-        <v>Arrive-&gt;S - Seabrook</v>
-      </c>
-      <c r="C195" t="s">
+        <f t="shared" ref="B195:B258" si="10">MID(A195,SEARCH(CHAR(34),A195)+1,SEARCH(CHAR(34),A195,SEARCH(CHAR(34),A195)+1)-SEARCH(CHAR(34),A195)-1)</f>
+        <v>2888992</v>
+      </c>
+      <c r="C195" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>http://go.nextraq.com/admin/location/save.html?locationId=2888992</v>
+      </c>
+      <c r="D195" s="2" t="str">
+        <f t="shared" ref="D195:D258" si="11">_xlfn.CONCAT("Depart-&gt;",E195)</f>
+        <v>Depart-&gt;S - Seabrook</v>
+      </c>
+      <c r="E195" t="s">
         <v>455</v>
       </c>
-      <c r="D195" s="1" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="F195" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="G195" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7" ht="22.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>195</v>
       </c>
       <c r="B196" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",C196)</f>
-        <v>Arrive-&gt;S - Tilton</v>
-      </c>
-      <c r="C196" t="s">
+        <f t="shared" si="10"/>
+        <v>2888993</v>
+      </c>
+      <c r="C196" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>http://go.nextraq.com/admin/location/save.html?locationId=2888993</v>
+      </c>
+      <c r="D196" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>Depart-&gt;S - Tilton</v>
+      </c>
+      <c r="E196" t="s">
         <v>456</v>
       </c>
-      <c r="D196" s="1" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="F196" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="G196" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7" ht="22.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>196</v>
       </c>
       <c r="B197" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",C197)</f>
-        <v>Arrive-&gt;S - Webster</v>
-      </c>
-      <c r="C197" t="s">
+        <f t="shared" si="10"/>
+        <v>2888995</v>
+      </c>
+      <c r="C197" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>http://go.nextraq.com/admin/location/save.html?locationId=2888995</v>
+      </c>
+      <c r="D197" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>Depart-&gt;S - Webster</v>
+      </c>
+      <c r="E197" t="s">
         <v>457</v>
       </c>
-      <c r="D197" s="1" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="F197" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="G197" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7" ht="22.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>197</v>
       </c>
       <c r="B198" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",C198)</f>
-        <v>Arrive-&gt;S - West Lebanon</v>
-      </c>
-      <c r="C198" t="s">
+        <f t="shared" si="10"/>
+        <v>2888994</v>
+      </c>
+      <c r="C198" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>http://go.nextraq.com/admin/location/save.html?locationId=2888994</v>
+      </c>
+      <c r="D198" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>Depart-&gt;S - West Lebanon</v>
+      </c>
+      <c r="E198" t="s">
         <v>458</v>
       </c>
-      <c r="D198" s="1" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="F198" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="G198" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7" ht="22.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>198</v>
       </c>
       <c r="B199" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",C199)</f>
-        <v>Arrive-&gt;S - Worcester</v>
-      </c>
-      <c r="C199" t="s">
+        <f t="shared" si="10"/>
+        <v>2888996</v>
+      </c>
+      <c r="C199" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>http://go.nextraq.com/admin/location/save.html?locationId=2888996</v>
+      </c>
+      <c r="D199" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>Depart-&gt;S - Worcester</v>
+      </c>
+      <c r="E199" t="s">
         <v>459</v>
       </c>
-      <c r="D199" s="1" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="F199" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="G199" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7" ht="22.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>199</v>
       </c>
       <c r="B200" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",C200)</f>
-        <v>Arrive-&gt;Shaw Farm</v>
-      </c>
-      <c r="C200" t="s">
+        <f t="shared" si="10"/>
+        <v>2888963</v>
+      </c>
+      <c r="C200" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>http://go.nextraq.com/admin/location/save.html?locationId=2888963</v>
+      </c>
+      <c r="D200" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>Depart-&gt;Shaw Farm</v>
+      </c>
+      <c r="E200" t="s">
         <v>460</v>
       </c>
-      <c r="D200" s="1" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="F200" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="G200" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7" ht="22.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>200</v>
       </c>
       <c r="B201" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",C201)</f>
-        <v>Arrive-&gt;T-Boston-Boylston</v>
-      </c>
-      <c r="C201" t="s">
+        <f t="shared" si="10"/>
+        <v>2888997</v>
+      </c>
+      <c r="C201" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>http://go.nextraq.com/admin/location/save.html?locationId=2888997</v>
+      </c>
+      <c r="D201" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>Depart-&gt;T-Boston-Boylston</v>
+      </c>
+      <c r="E201" t="s">
         <v>461</v>
       </c>
-      <c r="D201" s="1" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="F201" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="G201" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="202" spans="1:7" ht="22.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>201</v>
       </c>
       <c r="B202" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",C202)</f>
-        <v>Arrive-&gt;T-Boston-Cambridge St</v>
-      </c>
-      <c r="C202" t="s">
+        <f t="shared" si="10"/>
+        <v>2888998</v>
+      </c>
+      <c r="C202" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>http://go.nextraq.com/admin/location/save.html?locationId=2888998</v>
+      </c>
+      <c r="D202" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>Depart-&gt;T-Boston-Cambridge St</v>
+      </c>
+      <c r="E202" t="s">
         <v>462</v>
       </c>
-      <c r="D202" s="1" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="F202" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="G202" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="203" spans="1:7" ht="22.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>202</v>
       </c>
       <c r="B203" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",C203)</f>
-        <v>Arrive-&gt;T-Boston-State St</v>
-      </c>
-      <c r="C203" t="s">
+        <f t="shared" si="10"/>
+        <v>2888999</v>
+      </c>
+      <c r="C203" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>http://go.nextraq.com/admin/location/save.html?locationId=2888999</v>
+      </c>
+      <c r="D203" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>Depart-&gt;T-Boston-State St</v>
+      </c>
+      <c r="E203" t="s">
         <v>463</v>
       </c>
-      <c r="D203" s="1" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="F203" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="G203" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="204" spans="1:7" ht="22.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>203</v>
       </c>
       <c r="B204" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",C204)</f>
-        <v>Arrive-&gt;T-Cambridge-Broadway</v>
-      </c>
-      <c r="C204" t="s">
+        <f t="shared" si="10"/>
+        <v>2889000</v>
+      </c>
+      <c r="C204" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>http://go.nextraq.com/admin/location/save.html?locationId=2889000</v>
+      </c>
+      <c r="D204" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>Depart-&gt;T-Cambridge-Broadway</v>
+      </c>
+      <c r="E204" t="s">
         <v>464</v>
       </c>
-      <c r="D204" s="1" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="F204" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="G204" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="205" spans="1:7" ht="22.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>204</v>
       </c>
       <c r="B205" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",C205)</f>
-        <v>Arrive-&gt;T-Charlestown-Main St</v>
-      </c>
-      <c r="C205" t="s">
+        <f t="shared" si="10"/>
+        <v>2889001</v>
+      </c>
+      <c r="C205" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>http://go.nextraq.com/admin/location/save.html?locationId=2889001</v>
+      </c>
+      <c r="D205" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>Depart-&gt;T-Charlestown-Main St</v>
+      </c>
+      <c r="E205" t="s">
         <v>465</v>
       </c>
-      <c r="D205" s="1" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="F205" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="G205" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="206" spans="1:7" ht="22.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>205</v>
       </c>
       <c r="B206" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",C206)</f>
-        <v>Arrive-&gt;T-Chelsea-Broadway</v>
-      </c>
-      <c r="C206" t="s">
+        <f t="shared" si="10"/>
+        <v>2889002</v>
+      </c>
+      <c r="C206" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>http://go.nextraq.com/admin/location/save.html?locationId=2889002</v>
+      </c>
+      <c r="D206" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>Depart-&gt;T-Chelsea-Broadway</v>
+      </c>
+      <c r="E206" t="s">
         <v>466</v>
       </c>
-      <c r="D206" s="1" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="F206" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="G206" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="207" spans="1:7" ht="22.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>206</v>
       </c>
       <c r="B207" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",C207)</f>
-        <v>Arrive-&gt;T-Chelsea-Washington</v>
-      </c>
-      <c r="C207" t="s">
+        <f t="shared" si="10"/>
+        <v>2889003</v>
+      </c>
+      <c r="C207" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>http://go.nextraq.com/admin/location/save.html?locationId=2889003</v>
+      </c>
+      <c r="D207" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>Depart-&gt;T-Chelsea-Washington</v>
+      </c>
+      <c r="E207" t="s">
         <v>467</v>
       </c>
-      <c r="D207" s="1" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="F207" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="G207" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="208" spans="1:7" ht="22.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>207</v>
       </c>
       <c r="B208" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",C208)</f>
-        <v>Arrive-&gt;T-Concord-Village St</v>
-      </c>
-      <c r="C208" t="s">
+        <f t="shared" si="10"/>
+        <v>2889004</v>
+      </c>
+      <c r="C208" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>http://go.nextraq.com/admin/location/save.html?locationId=2889004</v>
+      </c>
+      <c r="D208" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>Depart-&gt;T-Concord-Village St</v>
+      </c>
+      <c r="E208" t="s">
         <v>468</v>
       </c>
-      <c r="D208" s="1" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="F208" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="G208" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="209" spans="1:7" ht="22.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>208</v>
       </c>
       <c r="B209" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",C209)</f>
-        <v>Arrive-&gt;T-Dorchester-1420 Dorchester</v>
-      </c>
-      <c r="C209" t="s">
+        <f t="shared" si="10"/>
+        <v>2889005</v>
+      </c>
+      <c r="C209" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>http://go.nextraq.com/admin/location/save.html?locationId=2889005</v>
+      </c>
+      <c r="D209" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>Depart-&gt;T-Dorchester-1420 Dorchester</v>
+      </c>
+      <c r="E209" t="s">
         <v>469</v>
       </c>
-      <c r="D209" s="1" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="F209" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="G209" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="210" spans="1:7" ht="22.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>209</v>
       </c>
       <c r="B210" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",C210)</f>
-        <v>Arrive-&gt;T-Dorchester-1580 Dorchester</v>
-      </c>
-      <c r="C210" t="s">
+        <f t="shared" si="10"/>
+        <v>2889006</v>
+      </c>
+      <c r="C210" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>http://go.nextraq.com/admin/location/save.html?locationId=2889006</v>
+      </c>
+      <c r="D210" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>Depart-&gt;T-Dorchester-1580 Dorchester</v>
+      </c>
+      <c r="E210" t="s">
         <v>470</v>
       </c>
-      <c r="D210" s="1" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="F210" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="G210" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="211" spans="1:7" ht="22.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>210</v>
       </c>
       <c r="B211" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",C211)</f>
-        <v>Arrive-&gt;T-Dorchester-Neponset Ave</v>
-      </c>
-      <c r="C211" t="s">
+        <f t="shared" si="10"/>
+        <v>2889007</v>
+      </c>
+      <c r="C211" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>http://go.nextraq.com/admin/location/save.html?locationId=2889007</v>
+      </c>
+      <c r="D211" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>Depart-&gt;T-Dorchester-Neponset Ave</v>
+      </c>
+      <c r="E211" t="s">
         <v>471</v>
       </c>
-      <c r="D211" s="1" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="F211" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="G211" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="212" spans="1:7" ht="22.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>211</v>
       </c>
       <c r="B212" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",C212)</f>
-        <v>Arrive-&gt;T-Dover-Central Ave</v>
-      </c>
-      <c r="C212" t="s">
+        <f t="shared" si="10"/>
+        <v>2889008</v>
+      </c>
+      <c r="C212" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>http://go.nextraq.com/admin/location/save.html?locationId=2889008</v>
+      </c>
+      <c r="D212" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>Depart-&gt;T-Dover-Central Ave</v>
+      </c>
+      <c r="E212" t="s">
         <v>472</v>
       </c>
-      <c r="D212" s="1" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="F212" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="G212" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="213" spans="1:7" ht="22.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>212</v>
       </c>
       <c r="B213" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",C213)</f>
-        <v>Arrive-&gt;T-Everett-Broadway</v>
-      </c>
-      <c r="C213" t="s">
+        <f t="shared" si="10"/>
+        <v>2889009</v>
+      </c>
+      <c r="C213" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>http://go.nextraq.com/admin/location/save.html?locationId=2889009</v>
+      </c>
+      <c r="D213" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>Depart-&gt;T-Everett-Broadway</v>
+      </c>
+      <c r="E213" t="s">
         <v>473</v>
       </c>
-      <c r="D213" s="1" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="F213" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="G213" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="214" spans="1:7" ht="22.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>213</v>
       </c>
       <c r="B214" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",C214)</f>
-        <v>Arrive-&gt;T-Everett-Chelsea</v>
-      </c>
-      <c r="C214" t="s">
+        <f t="shared" si="10"/>
+        <v>2889010</v>
+      </c>
+      <c r="C214" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>http://go.nextraq.com/admin/location/save.html?locationId=2889010</v>
+      </c>
+      <c r="D214" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>Depart-&gt;T-Everett-Chelsea</v>
+      </c>
+      <c r="E214" t="s">
         <v>474</v>
       </c>
-      <c r="D214" s="1" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="F214" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="G214" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="215" spans="1:7" ht="22.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>214</v>
       </c>
       <c r="B215" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",C215)</f>
-        <v>Arrive-&gt;T-Everett-Main</v>
-      </c>
-      <c r="C215" t="s">
+        <f t="shared" si="10"/>
+        <v>2889011</v>
+      </c>
+      <c r="C215" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>http://go.nextraq.com/admin/location/save.html?locationId=2889011</v>
+      </c>
+      <c r="D215" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>Depart-&gt;T-Everett-Main</v>
+      </c>
+      <c r="E215" t="s">
         <v>475</v>
       </c>
-      <c r="D215" s="1" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="F215" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="G215" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="216" spans="1:7" ht="22.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>215</v>
       </c>
       <c r="B216" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",C216)</f>
-        <v>Arrive-&gt;T-Everett-Revere Beach Pkwy</v>
-      </c>
-      <c r="C216" t="s">
+        <f t="shared" si="10"/>
+        <v>2889012</v>
+      </c>
+      <c r="C216" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>http://go.nextraq.com/admin/location/save.html?locationId=2889012</v>
+      </c>
+      <c r="D216" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>Depart-&gt;T-Everett-Revere Beach Pkwy</v>
+      </c>
+      <c r="E216" t="s">
         <v>476</v>
       </c>
-      <c r="D216" s="1" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="F216" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="G216" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="217" spans="1:7" ht="22.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>216</v>
       </c>
       <c r="B217" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",C217)</f>
-        <v>Arrive-&gt;T-Fitchberg-Main</v>
-      </c>
-      <c r="C217" t="s">
+        <f t="shared" si="10"/>
+        <v>2889013</v>
+      </c>
+      <c r="C217" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>http://go.nextraq.com/admin/location/save.html?locationId=2889013</v>
+      </c>
+      <c r="D217" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>Depart-&gt;T-Fitchberg-Main</v>
+      </c>
+      <c r="E217" t="s">
         <v>477</v>
       </c>
-      <c r="D217" s="1" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="F217" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="G217" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="218" spans="1:7" ht="22.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>217</v>
       </c>
       <c r="B218" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",C218)</f>
-        <v>Arrive-&gt;T-Framingham-Waverly</v>
-      </c>
-      <c r="C218" t="s">
+        <f t="shared" si="10"/>
+        <v>2889014</v>
+      </c>
+      <c r="C218" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>http://go.nextraq.com/admin/location/save.html?locationId=2889014</v>
+      </c>
+      <c r="D218" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>Depart-&gt;T-Framingham-Waverly</v>
+      </c>
+      <c r="E218" t="s">
         <v>478</v>
       </c>
-      <c r="D218" s="1" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="F218" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="G218" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="219" spans="1:7" ht="22.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>218</v>
       </c>
       <c r="B219" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",C219)</f>
-        <v>Arrive-&gt;T-Franklin-Union St</v>
-      </c>
-      <c r="C219" t="s">
+        <f t="shared" si="10"/>
+        <v>2889015</v>
+      </c>
+      <c r="C219" s="4" t="str">
+        <f t="shared" ref="C219:C262" si="12">HYPERLINK(_xlfn.CONCAT("http://go.nextraq.com/admin/location/save.html?locationId=",B219))</f>
+        <v>http://go.nextraq.com/admin/location/save.html?locationId=2889015</v>
+      </c>
+      <c r="D219" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>Depart-&gt;T-Franklin-Union St</v>
+      </c>
+      <c r="E219" t="s">
         <v>479</v>
       </c>
-      <c r="D219" s="1" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="F219" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="G219" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="220" spans="1:7" ht="22.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>219</v>
       </c>
       <c r="B220" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",C220)</f>
-        <v>Arrive-&gt;T-Franklin-West Central St</v>
-      </c>
-      <c r="C220" t="s">
+        <f t="shared" si="10"/>
+        <v>2889016</v>
+      </c>
+      <c r="C220" s="4" t="str">
+        <f t="shared" si="12"/>
+        <v>http://go.nextraq.com/admin/location/save.html?locationId=2889016</v>
+      </c>
+      <c r="D220" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>Depart-&gt;T-Franklin-West Central St</v>
+      </c>
+      <c r="E220" t="s">
         <v>480</v>
       </c>
-      <c r="D220" s="1" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="F220" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="G220" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="221" spans="1:7" ht="22.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>220</v>
       </c>
       <c r="B221" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",C221)</f>
-        <v>Arrive-&gt;T-Haverhill-Dudley St</v>
-      </c>
-      <c r="C221" t="s">
+        <f t="shared" si="10"/>
+        <v>2889017</v>
+      </c>
+      <c r="C221" s="4" t="str">
+        <f t="shared" si="12"/>
+        <v>http://go.nextraq.com/admin/location/save.html?locationId=2889017</v>
+      </c>
+      <c r="D221" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>Depart-&gt;T-Haverhill-Dudley St</v>
+      </c>
+      <c r="E221" t="s">
         <v>481</v>
       </c>
-      <c r="D221" s="1" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="F221" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="G221" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="222" spans="1:7" ht="22.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>221</v>
       </c>
       <c r="B222" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",C222)</f>
-        <v>Arrive-&gt;T-Haverhill-Lafayette</v>
-      </c>
-      <c r="C222" t="s">
+        <f t="shared" si="10"/>
+        <v>2889018</v>
+      </c>
+      <c r="C222" s="4" t="str">
+        <f t="shared" si="12"/>
+        <v>http://go.nextraq.com/admin/location/save.html?locationId=2889018</v>
+      </c>
+      <c r="D222" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>Depart-&gt;T-Haverhill-Lafayette</v>
+      </c>
+      <c r="E222" t="s">
         <v>482</v>
       </c>
-      <c r="D222" s="1" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="F222" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="G222" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="223" spans="1:7" ht="22.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>222</v>
       </c>
       <c r="B223" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",C223)</f>
-        <v>Arrive-&gt;The Umbrella Factory</v>
-      </c>
-      <c r="C223" t="s">
+        <f t="shared" si="10"/>
+        <v>2888964</v>
+      </c>
+      <c r="C223" s="4" t="str">
+        <f t="shared" si="12"/>
+        <v>http://go.nextraq.com/admin/location/save.html?locationId=2888964</v>
+      </c>
+      <c r="D223" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>Depart-&gt;The Umbrella Factory</v>
+      </c>
+      <c r="E223" t="s">
         <v>483</v>
       </c>
-      <c r="D223" s="1" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="F223" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="G223" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="224" spans="1:7" ht="22.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>223</v>
       </c>
       <c r="B224" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",C224)</f>
-        <v>Arrive-&gt;T-Kingston-Summer St</v>
-      </c>
-      <c r="C224" t="s">
+        <f t="shared" si="10"/>
+        <v>2889019</v>
+      </c>
+      <c r="C224" s="4" t="str">
+        <f t="shared" si="12"/>
+        <v>http://go.nextraq.com/admin/location/save.html?locationId=2889019</v>
+      </c>
+      <c r="D224" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>Depart-&gt;T-Kingston-Summer St</v>
+      </c>
+      <c r="E224" t="s">
         <v>484</v>
       </c>
-      <c r="D224" s="1" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="F224" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="G224" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="225" spans="1:7" ht="22.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>224</v>
       </c>
       <c r="B225" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",C225)</f>
-        <v>Arrive-&gt;T-Lawrence-S Union</v>
-      </c>
-      <c r="C225" t="s">
+        <f t="shared" si="10"/>
+        <v>2889020</v>
+      </c>
+      <c r="C225" s="4" t="str">
+        <f t="shared" si="12"/>
+        <v>http://go.nextraq.com/admin/location/save.html?locationId=2889020</v>
+      </c>
+      <c r="D225" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>Depart-&gt;T-Lawrence-S Union</v>
+      </c>
+      <c r="E225" t="s">
         <v>485</v>
       </c>
-      <c r="D225" s="1" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="F225" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="G225" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="226" spans="1:7" ht="22.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>225</v>
       </c>
       <c r="B226" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",C226)</f>
-        <v>Arrive-&gt;T-Lowell-Bridge</v>
-      </c>
-      <c r="C226" t="s">
+        <f t="shared" si="10"/>
+        <v>2889022</v>
+      </c>
+      <c r="C226" s="4" t="str">
+        <f t="shared" si="12"/>
+        <v>http://go.nextraq.com/admin/location/save.html?locationId=2889022</v>
+      </c>
+      <c r="D226" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>Depart-&gt;T-Lowell-Bridge</v>
+      </c>
+      <c r="E226" t="s">
         <v>486</v>
       </c>
-      <c r="D226" s="1" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="F226" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="G226" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="227" spans="1:7" ht="22.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>226</v>
       </c>
       <c r="B227" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",C227)</f>
-        <v>Arrive-&gt;T-Lowell-Chelmsford</v>
-      </c>
-      <c r="C227" t="s">
+        <f t="shared" si="10"/>
+        <v>2889021</v>
+      </c>
+      <c r="C227" s="4" t="str">
+        <f t="shared" si="12"/>
+        <v>http://go.nextraq.com/admin/location/save.html?locationId=2889021</v>
+      </c>
+      <c r="D227" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>Depart-&gt;T-Lowell-Chelmsford</v>
+      </c>
+      <c r="E227" t="s">
         <v>487</v>
       </c>
-      <c r="D227" s="1" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="F227" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="G227" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="228" spans="1:7" ht="22.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>227</v>
       </c>
       <c r="B228" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",C228)</f>
-        <v>Arrive-&gt;T-Lowell-Gorham</v>
-      </c>
-      <c r="C228" t="s">
+        <f t="shared" si="10"/>
+        <v>2889023</v>
+      </c>
+      <c r="C228" s="4" t="str">
+        <f t="shared" si="12"/>
+        <v>http://go.nextraq.com/admin/location/save.html?locationId=2889023</v>
+      </c>
+      <c r="D228" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>Depart-&gt;T-Lowell-Gorham</v>
+      </c>
+      <c r="E228" t="s">
         <v>488</v>
       </c>
-      <c r="D228" s="1" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="F228" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="G228" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="229" spans="1:7" ht="22.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>228</v>
       </c>
       <c r="B229" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",C229)</f>
-        <v>Arrive-&gt;T-Marshfield-Plain St</v>
-      </c>
-      <c r="C229" t="s">
+        <f t="shared" si="10"/>
+        <v>2889024</v>
+      </c>
+      <c r="C229" s="4" t="str">
+        <f t="shared" si="12"/>
+        <v>http://go.nextraq.com/admin/location/save.html?locationId=2889024</v>
+      </c>
+      <c r="D229" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>Depart-&gt;T-Marshfield-Plain St</v>
+      </c>
+      <c r="E229" t="s">
         <v>489</v>
       </c>
-      <c r="D229" s="1" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="F229" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="G229" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="230" spans="1:7" ht="22.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>229</v>
       </c>
       <c r="B230" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",C230)</f>
-        <v>Arrive-&gt;T-Medford-Main</v>
-      </c>
-      <c r="C230" t="s">
+        <f t="shared" si="10"/>
+        <v>2889025</v>
+      </c>
+      <c r="C230" s="4" t="str">
+        <f t="shared" si="12"/>
+        <v>http://go.nextraq.com/admin/location/save.html?locationId=2889025</v>
+      </c>
+      <c r="D230" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>Depart-&gt;T-Medford-Main</v>
+      </c>
+      <c r="E230" t="s">
         <v>490</v>
       </c>
-      <c r="D230" s="1" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="F230" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="G230" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="231" spans="1:7" ht="22.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>230</v>
       </c>
       <c r="B231" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",C231)</f>
-        <v>Arrive-&gt;T-Newton Highlands</v>
-      </c>
-      <c r="C231" t="s">
+        <f t="shared" si="10"/>
+        <v>2889026</v>
+      </c>
+      <c r="C231" s="4" t="str">
+        <f t="shared" si="12"/>
+        <v>http://go.nextraq.com/admin/location/save.html?locationId=2889026</v>
+      </c>
+      <c r="D231" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>Depart-&gt;T-Newton Highlands</v>
+      </c>
+      <c r="E231" t="s">
         <v>491</v>
       </c>
-      <c r="D231" s="1" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="F231" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="G231" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="232" spans="1:7" ht="22.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>231</v>
       </c>
       <c r="B232" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",C232)</f>
-        <v>Arrive-&gt;T-Newton-Washington St</v>
-      </c>
-      <c r="C232" t="s">
+        <f t="shared" si="10"/>
+        <v>2889027</v>
+      </c>
+      <c r="C232" s="4" t="str">
+        <f t="shared" si="12"/>
+        <v>http://go.nextraq.com/admin/location/save.html?locationId=2889027</v>
+      </c>
+      <c r="D232" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>Depart-&gt;T-Newton-Washington St</v>
+      </c>
+      <c r="E232" t="s">
         <v>492</v>
       </c>
-      <c r="D232" s="1" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="F232" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="G232" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="233" spans="1:7" ht="22.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>232</v>
       </c>
       <c r="B233" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",C233)</f>
-        <v>Arrive-&gt;T-Newton-Winchester St</v>
-      </c>
-      <c r="C233" t="s">
+        <f t="shared" si="10"/>
+        <v>2889028</v>
+      </c>
+      <c r="C233" s="4" t="str">
+        <f t="shared" si="12"/>
+        <v>http://go.nextraq.com/admin/location/save.html?locationId=2889028</v>
+      </c>
+      <c r="D233" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>Depart-&gt;T-Newton-Winchester St</v>
+      </c>
+      <c r="E233" t="s">
         <v>493</v>
       </c>
-      <c r="D233" s="1" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="F233" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="G233" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="234" spans="1:7" ht="22.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>233</v>
       </c>
       <c r="B234" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",C234)</f>
-        <v>Arrive-&gt;T-North Weymouth-Bridge St</v>
-      </c>
-      <c r="C234" t="s">
+        <f t="shared" si="10"/>
+        <v>2889029</v>
+      </c>
+      <c r="C234" s="4" t="str">
+        <f t="shared" si="12"/>
+        <v>http://go.nextraq.com/admin/location/save.html?locationId=2889029</v>
+      </c>
+      <c r="D234" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>Depart-&gt;T-North Weymouth-Bridge St</v>
+      </c>
+      <c r="E234" t="s">
         <v>494</v>
       </c>
-      <c r="D234" s="1" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="F234" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="G234" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="235" spans="1:7" ht="22.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>234</v>
       </c>
       <c r="B235" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",C235)</f>
-        <v>Arrive-&gt;T-North Weymouth-Sea St</v>
-      </c>
-      <c r="C235" t="s">
+        <f t="shared" si="10"/>
+        <v>2889030</v>
+      </c>
+      <c r="C235" s="4" t="str">
+        <f t="shared" si="12"/>
+        <v>http://go.nextraq.com/admin/location/save.html?locationId=2889030</v>
+      </c>
+      <c r="D235" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>Depart-&gt;T-North Weymouth-Sea St</v>
+      </c>
+      <c r="E235" t="s">
         <v>495</v>
       </c>
-      <c r="D235" s="1" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="F235" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="G235" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="236" spans="1:7" ht="22.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>235</v>
       </c>
       <c r="B236" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",C236)</f>
-        <v>Arrive-&gt;Toziers (Searsport)</v>
-      </c>
-      <c r="C236" t="s">
+        <f t="shared" si="10"/>
+        <v>2888965</v>
+      </c>
+      <c r="C236" s="4" t="str">
+        <f t="shared" si="12"/>
+        <v>http://go.nextraq.com/admin/location/save.html?locationId=2888965</v>
+      </c>
+      <c r="D236" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>Depart-&gt;Toziers (Searsport)</v>
+      </c>
+      <c r="E236" t="s">
         <v>496</v>
       </c>
-      <c r="D236" s="1" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="F236" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="G236" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="237" spans="1:7" ht="22.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>236</v>
       </c>
       <c r="B237" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",C237)</f>
-        <v>Arrive-&gt;T-Peabody-Lowell St</v>
-      </c>
-      <c r="C237" t="s">
+        <f t="shared" si="10"/>
+        <v>2889031</v>
+      </c>
+      <c r="C237" s="4" t="str">
+        <f t="shared" si="12"/>
+        <v>http://go.nextraq.com/admin/location/save.html?locationId=2889031</v>
+      </c>
+      <c r="D237" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>Depart-&gt;T-Peabody-Lowell St</v>
+      </c>
+      <c r="E237" t="s">
         <v>497</v>
       </c>
-      <c r="D237" s="1" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="F237" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="G237" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="238" spans="1:7" ht="22.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>237</v>
       </c>
       <c r="B238" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",C238)</f>
-        <v>Arrive-&gt;T-Peabody-Main</v>
-      </c>
-      <c r="C238" t="s">
+        <f t="shared" si="10"/>
+        <v>2889032</v>
+      </c>
+      <c r="C238" s="4" t="str">
+        <f t="shared" si="12"/>
+        <v>http://go.nextraq.com/admin/location/save.html?locationId=2889032</v>
+      </c>
+      <c r="D238" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>Depart-&gt;T-Peabody-Main</v>
+      </c>
+      <c r="E238" t="s">
         <v>498</v>
       </c>
-      <c r="D238" s="1" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="F238" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="G238" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="239" spans="1:7" ht="22.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>238</v>
       </c>
       <c r="B239" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",C239)</f>
-        <v>Arrive-&gt;T-Quincy-495 Washington St</v>
-      </c>
-      <c r="C239" t="s">
+        <f t="shared" si="10"/>
+        <v>2889036</v>
+      </c>
+      <c r="C239" s="4" t="str">
+        <f t="shared" si="12"/>
+        <v>http://go.nextraq.com/admin/location/save.html?locationId=2889036</v>
+      </c>
+      <c r="D239" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>Depart-&gt;T-Quincy-495 Washington St</v>
+      </c>
+      <c r="E239" t="s">
         <v>499</v>
       </c>
-      <c r="D239" s="1" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="F239" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="G239" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="240" spans="1:7" ht="22.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>239</v>
       </c>
       <c r="B240" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",C240)</f>
-        <v>Arrive-&gt;T-Quincy-Adams St</v>
-      </c>
-      <c r="C240" t="s">
+        <f t="shared" si="10"/>
+        <v>2889033</v>
+      </c>
+      <c r="C240" s="4" t="str">
+        <f t="shared" si="12"/>
+        <v>http://go.nextraq.com/admin/location/save.html?locationId=2889033</v>
+      </c>
+      <c r="D240" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>Depart-&gt;T-Quincy-Adams St</v>
+      </c>
+      <c r="E240" t="s">
         <v>500</v>
       </c>
-      <c r="D240" s="1" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="F240" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="G240" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="241" spans="1:7" ht="22.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>240</v>
       </c>
       <c r="B241" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",C241)</f>
-        <v>Arrive-&gt;T-Quincy-Quincy Ave</v>
-      </c>
-      <c r="C241" t="s">
+        <f t="shared" si="10"/>
+        <v>2889034</v>
+      </c>
+      <c r="C241" s="4" t="str">
+        <f t="shared" si="12"/>
+        <v>http://go.nextraq.com/admin/location/save.html?locationId=2889034</v>
+      </c>
+      <c r="D241" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>Depart-&gt;T-Quincy-Quincy Ave</v>
+      </c>
+      <c r="E241" t="s">
         <v>501</v>
       </c>
-      <c r="D241" s="1" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="F241" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="G241" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="242" spans="1:7" ht="22.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>241</v>
       </c>
       <c r="B242" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",C242)</f>
-        <v>Arrive-&gt;T-Quincy-Washington St</v>
-      </c>
-      <c r="C242" t="s">
+        <f t="shared" si="10"/>
+        <v>2889035</v>
+      </c>
+      <c r="C242" s="4" t="str">
+        <f t="shared" si="12"/>
+        <v>http://go.nextraq.com/admin/location/save.html?locationId=2889035</v>
+      </c>
+      <c r="D242" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>Depart-&gt;T-Quincy-Washington St</v>
+      </c>
+      <c r="E242" t="s">
         <v>502</v>
       </c>
-      <c r="D242" s="1" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="F242" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="G242" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="243" spans="1:7" ht="22.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>242</v>
       </c>
       <c r="B243" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",C243)</f>
-        <v>Arrive-&gt;T-Raynham-North Main</v>
-      </c>
-      <c r="C243" t="s">
+        <f t="shared" si="10"/>
+        <v>2889037</v>
+      </c>
+      <c r="C243" s="4" t="str">
+        <f t="shared" si="12"/>
+        <v>http://go.nextraq.com/admin/location/save.html?locationId=2889037</v>
+      </c>
+      <c r="D243" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>Depart-&gt;T-Raynham-North Main</v>
+      </c>
+      <c r="E243" t="s">
         <v>503</v>
       </c>
-      <c r="D243" s="1" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="F243" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="G243" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="244" spans="1:7" ht="22.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>243</v>
       </c>
       <c r="B244" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",C244)</f>
-        <v>Arrive-&gt;T-Revere-Beach St</v>
-      </c>
-      <c r="C244" t="s">
+        <f t="shared" si="10"/>
+        <v>2889038</v>
+      </c>
+      <c r="C244" s="4" t="str">
+        <f t="shared" si="12"/>
+        <v>http://go.nextraq.com/admin/location/save.html?locationId=2889038</v>
+      </c>
+      <c r="D244" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>Depart-&gt;T-Revere-Beach St</v>
+      </c>
+      <c r="E244" t="s">
         <v>504</v>
       </c>
-      <c r="D244" s="1" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="F244" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="G244" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="245" spans="1:7" ht="22.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>244</v>
       </c>
       <c r="B245" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",C245)</f>
-        <v>Arrive-&gt;T-Revere-Shirly</v>
-      </c>
-      <c r="C245" t="s">
+        <f t="shared" si="10"/>
+        <v>2889039</v>
+      </c>
+      <c r="C245" s="4" t="str">
+        <f t="shared" si="12"/>
+        <v>http://go.nextraq.com/admin/location/save.html?locationId=2889039</v>
+      </c>
+      <c r="D245" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>Depart-&gt;T-Revere-Shirly</v>
+      </c>
+      <c r="E245" t="s">
         <v>505</v>
       </c>
-      <c r="D245" s="1" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="F245" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="G245" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="246" spans="1:7" ht="22.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>245</v>
       </c>
       <c r="B246" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",C246)</f>
-        <v>Arrive-&gt;T-Revere-Squire Rd</v>
-      </c>
-      <c r="C246" t="s">
+        <f t="shared" si="10"/>
+        <v>2889040</v>
+      </c>
+      <c r="C246" s="4" t="str">
+        <f t="shared" si="12"/>
+        <v>http://go.nextraq.com/admin/location/save.html?locationId=2889040</v>
+      </c>
+      <c r="D246" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>Depart-&gt;T-Revere-Squire Rd</v>
+      </c>
+      <c r="E246" t="s">
         <v>506</v>
       </c>
-      <c r="D246" s="1" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="F246" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="G246" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="247" spans="1:7" ht="22.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>246</v>
       </c>
       <c r="B247" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",C247)</f>
-        <v>Arrive-&gt;Trinity Terrace</v>
-      </c>
-      <c r="C247" t="s">
+        <f t="shared" si="10"/>
+        <v>4034404</v>
+      </c>
+      <c r="C247" s="4" t="str">
+        <f t="shared" si="12"/>
+        <v>http://go.nextraq.com/admin/location/save.html?locationId=4034404</v>
+      </c>
+      <c r="D247" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>Depart-&gt;Trinity Terrace</v>
+      </c>
+      <c r="E247" t="s">
         <v>507</v>
       </c>
-      <c r="D247" s="1" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="F247" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="G247" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="248" spans="1:7" ht="22.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>247</v>
       </c>
       <c r="B248" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",C248)</f>
-        <v>Arrive-&gt;T-Saugus-Lincoln Ave</v>
-      </c>
-      <c r="C248" t="s">
+        <f t="shared" si="10"/>
+        <v>2889041</v>
+      </c>
+      <c r="C248" s="4" t="str">
+        <f t="shared" si="12"/>
+        <v>http://go.nextraq.com/admin/location/save.html?locationId=2889041</v>
+      </c>
+      <c r="D248" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>Depart-&gt;T-Saugus-Lincoln Ave</v>
+      </c>
+      <c r="E248" t="s">
         <v>508</v>
       </c>
-      <c r="D248" s="1" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="F248" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="G248" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="249" spans="1:7" ht="22.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>248</v>
       </c>
       <c r="B249" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",C249)</f>
-        <v>Arrive-&gt;T-Somerville-College Ave</v>
-      </c>
-      <c r="C249" t="s">
+        <f t="shared" si="10"/>
+        <v>2889042</v>
+      </c>
+      <c r="C249" s="4" t="str">
+        <f t="shared" si="12"/>
+        <v>http://go.nextraq.com/admin/location/save.html?locationId=2889042</v>
+      </c>
+      <c r="D249" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>Depart-&gt;T-Somerville-College Ave</v>
+      </c>
+      <c r="E249" t="s">
         <v>509</v>
       </c>
-      <c r="D249" s="1" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="F249" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="G249" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="250" spans="1:7" ht="22.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>249</v>
       </c>
       <c r="B250" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",C250)</f>
-        <v>Arrive-&gt;T-Somerville-Washington St</v>
-      </c>
-      <c r="C250" t="s">
+        <f t="shared" si="10"/>
+        <v>2889043</v>
+      </c>
+      <c r="C250" s="4" t="str">
+        <f t="shared" si="12"/>
+        <v>http://go.nextraq.com/admin/location/save.html?locationId=2889043</v>
+      </c>
+      <c r="D250" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>Depart-&gt;T-Somerville-Washington St</v>
+      </c>
+      <c r="E250" t="s">
         <v>510</v>
       </c>
-      <c r="D250" s="1" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="F250" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="G250" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="251" spans="1:7" ht="22.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>250</v>
       </c>
       <c r="B251" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",C251)</f>
-        <v>Arrive-&gt;T-South Weymouth-Columbian St</v>
-      </c>
-      <c r="C251" t="s">
+        <f t="shared" si="10"/>
+        <v>2889044</v>
+      </c>
+      <c r="C251" s="4" t="str">
+        <f t="shared" si="12"/>
+        <v>http://go.nextraq.com/admin/location/save.html?locationId=2889044</v>
+      </c>
+      <c r="D251" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>Depart-&gt;T-South Weymouth-Columbian St</v>
+      </c>
+      <c r="E251" t="s">
         <v>511</v>
       </c>
-      <c r="D251" s="1" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="F251" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="G251" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="252" spans="1:7" ht="22.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>251</v>
       </c>
       <c r="B252" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",C252)</f>
-        <v>Arrive-&gt;T-South Weymouth-Main St</v>
-      </c>
-      <c r="C252" t="s">
+        <f t="shared" si="10"/>
+        <v>2889045</v>
+      </c>
+      <c r="C252" s="4" t="str">
+        <f t="shared" si="12"/>
+        <v>http://go.nextraq.com/admin/location/save.html?locationId=2889045</v>
+      </c>
+      <c r="D252" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>Depart-&gt;T-South Weymouth-Main St</v>
+      </c>
+      <c r="E252" t="s">
         <v>512</v>
       </c>
-      <c r="D252" s="1" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="F252" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="G252" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="253" spans="1:7" ht="22.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>252</v>
       </c>
       <c r="B253" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",C253)</f>
-        <v>Arrive-&gt;T-Taunton-Bay St</v>
-      </c>
-      <c r="C253" t="s">
+        <f t="shared" si="10"/>
+        <v>2889046</v>
+      </c>
+      <c r="C253" s="4" t="str">
+        <f t="shared" si="12"/>
+        <v>http://go.nextraq.com/admin/location/save.html?locationId=2889046</v>
+      </c>
+      <c r="D253" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>Depart-&gt;T-Taunton-Bay St</v>
+      </c>
+      <c r="E253" t="s">
         <v>513</v>
       </c>
-      <c r="D253" s="1" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="F253" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="G253" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="254" spans="1:7" ht="22.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>253</v>
       </c>
       <c r="B254" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",C254)</f>
-        <v>Arrive-&gt;T-Worchester-Belmont</v>
-      </c>
-      <c r="C254" t="s">
+        <f t="shared" si="10"/>
+        <v>2889047</v>
+      </c>
+      <c r="C254" s="4" t="str">
+        <f t="shared" si="12"/>
+        <v>http://go.nextraq.com/admin/location/save.html?locationId=2889047</v>
+      </c>
+      <c r="D254" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>Depart-&gt;T-Worchester-Belmont</v>
+      </c>
+      <c r="E254" t="s">
         <v>514</v>
       </c>
-      <c r="D254" s="1" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="F254" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="G254" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="255" spans="1:7" ht="22.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>254</v>
       </c>
       <c r="B255" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",C255)</f>
-        <v>Arrive-&gt;Vista - Laconia</v>
-      </c>
-      <c r="C255" t="s">
+        <f t="shared" si="10"/>
+        <v>2888981</v>
+      </c>
+      <c r="C255" s="4" t="str">
+        <f t="shared" si="12"/>
+        <v>http://go.nextraq.com/admin/location/save.html?locationId=2888981</v>
+      </c>
+      <c r="D255" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>Depart-&gt;Vista - Laconia</v>
+      </c>
+      <c r="E255" t="s">
         <v>515</v>
       </c>
-      <c r="D255" s="1" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="F255" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="G255" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="256" spans="1:7" ht="22.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>255</v>
       </c>
       <c r="B256" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",C256)</f>
-        <v>Arrive-&gt;V-Mazza Farms</v>
-      </c>
-      <c r="C256" t="s">
+        <f t="shared" si="10"/>
+        <v>5378354</v>
+      </c>
+      <c r="C256" s="4" t="str">
+        <f t="shared" si="12"/>
+        <v>http://go.nextraq.com/admin/location/save.html?locationId=5378354</v>
+      </c>
+      <c r="D256" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>Depart-&gt;V-Mazza Farms</v>
+      </c>
+      <c r="E256" t="s">
         <v>516</v>
       </c>
-      <c r="D256" s="1" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="F256" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="G256" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="257" spans="1:7" ht="22.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>256</v>
       </c>
       <c r="B257" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",C257)</f>
-        <v>Arrive-&gt;Whitneys Family Supermarket (Corinth)</v>
-      </c>
-      <c r="C257" t="s">
+        <f t="shared" si="10"/>
+        <v>2888966</v>
+      </c>
+      <c r="C257" s="4" t="str">
+        <f t="shared" si="12"/>
+        <v>http://go.nextraq.com/admin/location/save.html?locationId=2888966</v>
+      </c>
+      <c r="D257" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>Depart-&gt;Whitneys Family Supermarket (Corinth)</v>
+      </c>
+      <c r="E257" t="s">
         <v>517</v>
       </c>
-      <c r="D257" s="1" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="F257" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="G257" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="258" spans="1:7" ht="22.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>257</v>
       </c>
       <c r="B258" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",C258)</f>
-        <v>Arrive-&gt;Wills Shop and Save</v>
-      </c>
-      <c r="C258" t="s">
+        <f t="shared" si="10"/>
+        <v>3905184</v>
+      </c>
+      <c r="C258" s="4" t="str">
+        <f t="shared" si="12"/>
+        <v>http://go.nextraq.com/admin/location/save.html?locationId=3905184</v>
+      </c>
+      <c r="D258" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>Depart-&gt;Wills Shop and Save</v>
+      </c>
+      <c r="E258" t="s">
         <v>518</v>
       </c>
-      <c r="D258" s="1" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="F258" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="G258" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="259" spans="1:7" ht="22.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>258</v>
       </c>
       <c r="B259" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",C259)</f>
-        <v>Arrive-&gt;Winn Olmsted</v>
-      </c>
-      <c r="C259" t="s">
+        <f t="shared" ref="B259:B262" si="13">MID(A259,SEARCH(CHAR(34),A259)+1,SEARCH(CHAR(34),A259,SEARCH(CHAR(34),A259)+1)-SEARCH(CHAR(34),A259)-1)</f>
+        <v>4034410</v>
+      </c>
+      <c r="C259" s="4" t="str">
+        <f t="shared" si="12"/>
+        <v>http://go.nextraq.com/admin/location/save.html?locationId=4034410</v>
+      </c>
+      <c r="D259" s="2" t="str">
+        <f t="shared" ref="D259:D261" si="14">_xlfn.CONCAT("Depart-&gt;",E259)</f>
+        <v>Depart-&gt;Winn Olmsted</v>
+      </c>
+      <c r="E259" t="s">
         <v>519</v>
       </c>
-      <c r="D259" s="1" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="F259" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="G259" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="260" spans="1:7" ht="22.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>259</v>
       </c>
       <c r="B260" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",C260)</f>
-        <v>Arrive-&gt;Worcester Wreath</v>
-      </c>
-      <c r="C260" t="s">
+        <f t="shared" si="13"/>
+        <v>3640627</v>
+      </c>
+      <c r="C260" s="4" t="str">
+        <f t="shared" si="12"/>
+        <v>http://go.nextraq.com/admin/location/save.html?locationId=3640627</v>
+      </c>
+      <c r="D260" s="2" t="str">
+        <f t="shared" si="14"/>
+        <v>Depart-&gt;Worcester Wreath</v>
+      </c>
+      <c r="E260" t="s">
         <v>520</v>
       </c>
-      <c r="D260" s="1" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="F260" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="G260" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="261" spans="1:7" ht="22.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>260</v>
       </c>
       <c r="B261" t="str">
-        <f>_xlfn.CONCAT("Arrive-&gt;",C261)</f>
-        <v>Arrive-&gt;Yellow Front (Damariscotta)</v>
-      </c>
-      <c r="C261" t="s">
+        <f t="shared" si="13"/>
+        <v>2888954</v>
+      </c>
+      <c r="C261" s="4" t="str">
+        <f t="shared" si="12"/>
+        <v>http://go.nextraq.com/admin/location/save.html?locationId=2888954</v>
+      </c>
+      <c r="D261" s="2" t="str">
+        <f t="shared" si="14"/>
+        <v>Depart-&gt;Yellow Front (Damariscotta)</v>
+      </c>
+      <c r="E261" t="s">
         <v>521</v>
       </c>
-      <c r="D261" s="1" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="F261" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="G261" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="262" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>261</v>
       </c>
+      <c r="B262" t="e">
+        <f t="shared" si="13"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C262" s="4" t="e">
+        <f t="shared" si="12"/>
+        <v>#VALUE!</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E262">
-    <filterColumn colId="4">
+  <autoFilter ref="A1:G262">
+    <filterColumn colId="6">
       <filters blank="1"/>
     </filterColumn>
   </autoFilter>
